--- a/projects/current/hattrick/z_352.xlsx
+++ b/projects/current/hattrick/z_352.xlsx
@@ -1,32 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\HoldingIdeas\projects\current\hattrick\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\HI\projects\current\hattrick\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011BE33D-DC03-45FB-A7E3-1C6DC7DBA09B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27C8A11-D1C9-47BB-8913-EA631D667742}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLANTILLA" sheetId="5" r:id="rId1"/>
-    <sheet name="MERCADO_PORTERO" sheetId="4" r:id="rId2"/>
+    <sheet name="EvaluacionEconomica" sheetId="6" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="64">
   <si>
     <t>DEF</t>
   </si>
@@ -145,63 +153,6 @@
     <t>#16</t>
   </si>
   <si>
-    <t>Años</t>
-  </si>
-  <si>
-    <t>Precio</t>
-  </si>
-  <si>
-    <t>SEM</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>&lt;=3</t>
-  </si>
-  <si>
-    <t>[6,10]</t>
-  </si>
-  <si>
-    <t>[3,7]</t>
-  </si>
-  <si>
-    <t>[4,8]</t>
-  </si>
-  <si>
-    <t>[5,9]</t>
-  </si>
-  <si>
-    <t>[10,14]</t>
-  </si>
-  <si>
-    <t>[12,16]</t>
-  </si>
-  <si>
-    <t>[9,13]</t>
-  </si>
-  <si>
-    <t>[13,17]</t>
-  </si>
-  <si>
-    <t>[11,15]</t>
-  </si>
-  <si>
-    <t>[8,12]</t>
-  </si>
-  <si>
-    <t>[2,6]</t>
-  </si>
-  <si>
-    <t>&gt;=15</t>
-  </si>
-  <si>
-    <t>[8,10]</t>
-  </si>
-  <si>
-    <t>EUR/ENT</t>
-  </si>
-  <si>
     <t>RAP</t>
   </si>
   <si>
@@ -235,36 +186,56 @@
     <t>352 con at. Central y una banda, sin CA.</t>
   </si>
   <si>
-    <t>CAB/POT</t>
-  </si>
-  <si>
     <t>CEN/INN</t>
   </si>
   <si>
     <t>LAT_OF</t>
   </si>
   <si>
-    <t>CAB/POT/RAP</t>
-  </si>
-  <si>
     <t>INN/DAV</t>
   </si>
   <si>
-    <t>CAB/IMP/RAP/TEC</t>
+    <t>€_22</t>
   </si>
   <si>
-    <t>CAB/RAP/IMP/TEC</t>
+    <t>€_23</t>
+  </si>
+  <si>
+    <t>€_24</t>
+  </si>
+  <si>
+    <t>€_25</t>
+  </si>
+  <si>
+    <t>€_26</t>
+  </si>
+  <si>
+    <t>€_27</t>
+  </si>
+  <si>
+    <t>€_28</t>
+  </si>
+  <si>
+    <t>€_29</t>
+  </si>
+  <si>
+    <t>€_30</t>
+  </si>
+  <si>
+    <t>Nota: Precios sin BP</t>
+  </si>
+  <si>
+    <t>Precios: S14 06/08/2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0\ [$€-C0A]_-;\-* #,##0\ [$€-C0A]_-;_-* &quot;-&quot;??\ [$€-C0A]_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,8 +275,20 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,6 +322,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,10 +401,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -423,6 +408,12 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -714,15 +705,14 @@
   <dimension ref="A1:AP90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.7109375" bestFit="1" customWidth="1"/>
@@ -745,7 +735,7 @@
     <col min="36" max="36" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="37" max="38" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.42578125" style="18"/>
+    <col min="40" max="40" width="11.42578125" style="16"/>
     <col min="41" max="42" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -759,7 +749,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="13">
         <f>SUM(K3:K18)</f>
-        <v>476219.54000000004</v>
+        <v>510845.34</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -770,7 +760,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="V1" s="22" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="W1" s="22"/>
       <c r="X1" s="22"/>
@@ -844,10 +834,12 @@
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="D3" s="11">
         <v>16</v>
       </c>
@@ -861,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I3" s="6">
         <v>0</v>
@@ -870,8 +862,8 @@
         <v>19</v>
       </c>
       <c r="K3" s="7">
-        <f>(31720+3505)*1.06</f>
-        <v>37338.5</v>
+        <f>(31720+3505+135)*1.06</f>
+        <v>37481.599999999999</v>
       </c>
       <c r="L3" s="1">
         <v>62</v>
@@ -886,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="12">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q3" s="12">
         <v>0</v>
@@ -896,18 +888,18 @@
       </c>
       <c r="S3" s="2">
         <f>SUM(L3:R3)</f>
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>71</v>
+      <c r="B4" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D4" s="10">
         <v>0</v>
@@ -919,20 +911,20 @@
         <v>2</v>
       </c>
       <c r="G4" s="9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" s="10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I4" s="9">
         <v>2</v>
       </c>
       <c r="J4" s="10">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K4" s="7">
-        <f>(26960+7353)*1.04</f>
-        <v>35685.520000000004</v>
+        <f>(26960+5805+135)*1.06</f>
+        <v>34874</v>
       </c>
       <c r="L4" s="1">
         <v>0</v>
@@ -944,37 +936,37 @@
         <v>0</v>
       </c>
       <c r="O4" s="1">
+        <v>47</v>
+      </c>
+      <c r="P4" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>33</v>
+      </c>
+      <c r="S4" s="2">
+        <f t="shared" ref="S4:S15" si="0">SUM(L4:R4)</f>
+        <v>189</v>
+      </c>
+      <c r="W4" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>0</v>
-      </c>
-      <c r="R4" s="1">
-        <v>16</v>
-      </c>
-      <c r="S4" s="2">
-        <f t="shared" ref="S4:S16" si="0">SUM(L4:R4)</f>
-        <v>151</v>
-      </c>
-      <c r="W4" t="s">
-        <v>59</v>
-      </c>
       <c r="X4" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>71</v>
+      <c r="B5" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D5" s="10">
         <v>0</v>
@@ -986,20 +978,20 @@
         <v>2</v>
       </c>
       <c r="G5" s="9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" s="10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I5" s="9">
         <v>2</v>
       </c>
       <c r="J5" s="10">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K5" s="7">
-        <f>(26960+7353)*1.04</f>
-        <v>35685.520000000004</v>
+        <f>(26960+5805+135)*1.06</f>
+        <v>34874</v>
       </c>
       <c r="L5" s="1">
         <v>0</v>
@@ -1011,92 +1003,92 @@
         <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="P5" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q5" s="1">
         <v>0</v>
       </c>
       <c r="R5" s="1">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="S5" s="2">
         <f t="shared" si="0"/>
-        <v>151</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="19" t="s">
         <v>37</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D6" s="10">
         <v>0</v>
       </c>
       <c r="E6" s="9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="10">
         <v>2</v>
       </c>
       <c r="G6" s="9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H6" s="10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I6" s="9">
         <v>2</v>
       </c>
       <c r="J6" s="10">
+        <v>19</v>
+      </c>
+      <c r="K6" s="7">
+        <f>(26960+135)*1.06</f>
+        <v>28720.7</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>95</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
         <v>14</v>
       </c>
-      <c r="K6" s="7">
-        <f>(38460+785)*1.04</f>
-        <v>40814.800000000003</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
-        <v>113</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1">
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
         <v>33</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0</v>
-      </c>
-      <c r="R6" s="1">
-        <v>16</v>
       </c>
       <c r="S6" s="2">
         <f t="shared" si="0"/>
-        <v>162</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>70</v>
+      <c r="B7" s="19" t="s">
+        <v>50</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="D7" s="10">
         <v>0</v>
@@ -1105,59 +1097,60 @@
         <v>14</v>
       </c>
       <c r="F7" s="10">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="G7" s="9">
         <v>2</v>
       </c>
       <c r="H7" s="10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I7" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J7" s="10">
         <v>14</v>
       </c>
       <c r="K7" s="7">
-        <f>(22460+9185+135+125)*1.04</f>
-        <v>33181.200000000004</v>
+        <f>(18370+9238+135)*1.04</f>
+        <v>28852.720000000001</v>
       </c>
       <c r="L7" s="1">
         <v>0</v>
       </c>
       <c r="M7" s="1">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="N7" s="1">
-        <v>68</v>
+        <f>58+5</f>
+        <v>63</v>
       </c>
       <c r="O7" s="1">
         <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Q7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R7" s="1">
         <v>16</v>
       </c>
       <c r="S7" s="2">
         <f t="shared" si="0"/>
-        <v>202</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>70</v>
+      <c r="B8" s="19" t="s">
+        <v>50</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="D8" s="10">
         <v>0</v>
@@ -1166,403 +1159,395 @@
         <v>14</v>
       </c>
       <c r="F8" s="10">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="G8" s="9">
         <v>2</v>
       </c>
       <c r="H8" s="10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I8" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J8" s="10">
         <v>14</v>
       </c>
       <c r="K8" s="7">
-        <f>(22460+9185+135+125)*1.04</f>
-        <v>33181.200000000004</v>
+        <f>(18370+9238+135)*1.04</f>
+        <v>28852.720000000001</v>
       </c>
       <c r="L8" s="1">
         <v>0</v>
       </c>
       <c r="M8" s="1">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="N8" s="1">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="O8" s="1">
         <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Q8" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R8" s="1">
         <v>16</v>
       </c>
       <c r="S8" s="2">
-        <f t="shared" ref="S8:S12" si="1">SUM(L8:R8)</f>
-        <v>202</v>
+        <f t="shared" ref="S8:S9" si="1">SUM(L8:R8)</f>
+        <v>161</v>
       </c>
       <c r="AO8" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="AP8" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>70</v>
+        <v>20</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="D9" s="10">
         <v>0</v>
       </c>
       <c r="E9" s="9">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F9" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" s="9">
         <v>2</v>
       </c>
       <c r="H9" s="10">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I9" s="9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J9" s="10">
         <v>14</v>
       </c>
       <c r="K9" s="7">
-        <f>(22460+9185+135+125)*1.04</f>
-        <v>33181.200000000004</v>
+        <f>(32580+2045+305+245)*1.04</f>
+        <v>36582</v>
       </c>
       <c r="L9" s="1">
         <v>0</v>
       </c>
       <c r="M9" s="1">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="N9" s="1">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="O9" s="1">
         <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="Q9" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="R9" s="1">
         <v>16</v>
       </c>
       <c r="S9" s="2">
         <f t="shared" si="1"/>
-        <v>202</v>
-      </c>
-      <c r="AO9" s="20">
-        <f>AO26+AO43+AO62+AO80</f>
-        <v>86.5</v>
-      </c>
-      <c r="AP9" s="20">
-        <f>AP26+AP43+AP62+AP80</f>
-        <v>5.40625</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>73</v>
+        <v>21</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="D10" s="10">
         <v>0</v>
       </c>
       <c r="E10" s="9">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F10" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G10" s="9">
         <v>2</v>
       </c>
       <c r="H10" s="10">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I10" s="9">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J10" s="10">
         <v>14</v>
       </c>
       <c r="K10" s="7">
-        <f>(22460+515+1315+135)*1.04</f>
-        <v>25402</v>
+        <f>(32580+2045+305+245)*1.04</f>
+        <v>36582</v>
       </c>
       <c r="L10" s="1">
         <v>0</v>
       </c>
       <c r="M10" s="1">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="N10" s="1">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="O10" s="1">
         <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q10" s="1">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="R10" s="1">
         <v>16</v>
       </c>
       <c r="S10" s="2">
-        <f t="shared" si="1"/>
-        <v>170</v>
+        <f t="shared" ref="S10:S13" si="2">SUM(L10:R10)</f>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>73</v>
+      <c r="B11" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="D11" s="10">
         <v>0</v>
       </c>
       <c r="E11" s="9">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F11" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G11" s="9">
         <v>2</v>
       </c>
       <c r="H11" s="10">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I11" s="9">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J11" s="10">
         <v>14</v>
       </c>
       <c r="K11" s="7">
-        <f>(22460+515+1315+135)*1.04</f>
-        <v>25402</v>
+        <f>(32580+2045+305+245)*1.04</f>
+        <v>36582</v>
       </c>
       <c r="L11" s="1">
         <v>0</v>
       </c>
       <c r="M11" s="1">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="N11" s="1">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="O11" s="1">
         <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="1">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="R11" s="1">
         <v>16</v>
       </c>
       <c r="S11" s="2">
-        <f t="shared" si="1"/>
-        <v>170</v>
+        <f t="shared" si="2"/>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>73</v>
+        <v>23</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="D12" s="10">
         <v>0</v>
       </c>
       <c r="E12" s="9">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F12" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G12" s="9">
         <v>2</v>
       </c>
       <c r="H12" s="10">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I12" s="9">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J12" s="10">
         <v>14</v>
       </c>
       <c r="K12" s="7">
-        <f>(22460+515+1315+135)*1.04</f>
-        <v>25402</v>
+        <f>(32580+2045+305+245)*1.04</f>
+        <v>36582</v>
       </c>
       <c r="L12" s="1">
         <v>0</v>
       </c>
       <c r="M12" s="1">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="N12" s="1">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="O12" s="1">
         <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q12" s="1">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="R12" s="1">
         <v>16</v>
       </c>
       <c r="S12" s="2">
-        <f t="shared" si="1"/>
-        <v>170</v>
+        <f t="shared" si="2"/>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>73</v>
+        <v>24</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="D13" s="10">
         <v>0</v>
       </c>
       <c r="E13" s="9">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F13" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G13" s="9">
         <v>2</v>
       </c>
       <c r="H13" s="10">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I13" s="9">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J13" s="10">
         <v>14</v>
       </c>
       <c r="K13" s="7">
-        <f>(22460+515+1315+135)*1.04</f>
-        <v>25402</v>
+        <f>(32580+2045+305+245)*1.04</f>
+        <v>36582</v>
       </c>
       <c r="L13" s="1">
         <v>0</v>
       </c>
       <c r="M13" s="1">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="N13" s="1">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="O13" s="1">
         <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q13" s="1">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="R13" s="1">
         <v>16</v>
       </c>
       <c r="S13" s="2">
-        <f t="shared" si="0"/>
-        <v>170</v>
+        <f t="shared" si="2"/>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>73</v>
+        <v>26</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="10">
-        <v>0</v>
-      </c>
-      <c r="E14" s="9">
+        <v>45</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
         <v>5</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="11">
+        <v>12</v>
+      </c>
+      <c r="G14" s="6">
+        <v>16</v>
+      </c>
+      <c r="H14" s="11">
+        <v>10</v>
+      </c>
+      <c r="I14" s="6">
+        <v>7</v>
+      </c>
+      <c r="J14" s="11">
         <v>14</v>
       </c>
-      <c r="G14" s="9">
-        <v>2</v>
-      </c>
-      <c r="H14" s="10">
-        <v>12</v>
-      </c>
-      <c r="I14" s="9">
-        <v>10</v>
-      </c>
-      <c r="J14" s="10">
-        <v>14</v>
-      </c>
       <c r="K14" s="7">
-        <f>(22460+515+1315+135)*1.04</f>
-        <v>25402</v>
+        <f>(26040+135+4335+195+245)*1.04</f>
+        <v>32188</v>
       </c>
       <c r="L14" s="1">
         <v>0</v>
@@ -1571,34 +1556,34 @@
         <v>10</v>
       </c>
       <c r="N14" s="1">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="O14" s="1">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="P14" s="1">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="Q14" s="1">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="R14" s="1">
         <v>16</v>
       </c>
       <c r="S14" s="2">
-        <f t="shared" ref="S14:S15" si="2">SUM(L14:R14)</f>
-        <v>170</v>
+        <f t="shared" ref="S14" si="3">SUM(L14:R14)</f>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D15" s="11">
         <v>0</v>
@@ -1610,7 +1595,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H15" s="11">
         <v>10</v>
@@ -1622,8 +1607,8 @@
         <v>14</v>
       </c>
       <c r="K15" s="7">
-        <f>(18090+135+4335+195+245)*1.04</f>
-        <v>23920</v>
+        <f>(26040+135+4335+195+245)*1.04</f>
+        <v>32188</v>
       </c>
       <c r="L15" s="1">
         <v>0</v>
@@ -1635,7 +1620,7 @@
         <v>48</v>
       </c>
       <c r="O15" s="1">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="P15" s="1">
         <v>29</v>
@@ -1647,80 +1632,88 @@
         <v>16</v>
       </c>
       <c r="S15" s="2">
-        <f t="shared" si="2"/>
-        <v>175</v>
+        <f t="shared" si="0"/>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="11">
-        <v>0</v>
-      </c>
-      <c r="E16" s="6">
-        <v>5</v>
-      </c>
-      <c r="F16" s="11">
+        <v>45</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
+        <v>2</v>
+      </c>
+      <c r="F16" s="10">
         <v>12</v>
       </c>
-      <c r="G16" s="6">
-        <v>15</v>
-      </c>
-      <c r="H16" s="11">
-        <v>10</v>
-      </c>
-      <c r="I16" s="6">
+      <c r="G16" s="9">
         <v>7</v>
       </c>
-      <c r="J16" s="11">
+      <c r="H16" s="10">
+        <v>13.5</v>
+      </c>
+      <c r="I16" s="9">
+        <v>13</v>
+      </c>
+      <c r="J16" s="10">
         <v>14</v>
       </c>
       <c r="K16" s="7">
-        <f>(18090+135+4335+195+245)*1.04</f>
-        <v>23920</v>
+        <f>(11420+6465+4335+185)*1.04</f>
+        <v>23301.200000000001</v>
       </c>
       <c r="L16" s="1">
         <v>0</v>
       </c>
       <c r="M16" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N16" s="1">
         <v>48</v>
       </c>
       <c r="O16" s="1">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="P16" s="1">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="Q16" s="1">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="R16" s="1">
         <v>16</v>
       </c>
       <c r="S16" s="2">
-        <f t="shared" si="0"/>
-        <v>175</v>
+        <f>SUM(L16:R16)</f>
+        <v>191</v>
+      </c>
+      <c r="AO16" s="18">
+        <f>AO26+AO43+AO62+AO80</f>
+        <v>86.5</v>
+      </c>
+      <c r="AP16" s="18">
+        <f>AP26+AP43+AP62+AP80</f>
+        <v>5.40625</v>
       </c>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="D17" s="10">
         <v>0</v>
@@ -1732,20 +1725,20 @@
         <v>12</v>
       </c>
       <c r="G17" s="9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H17" s="10">
-        <v>10</v>
+        <v>13.5</v>
       </c>
       <c r="I17" s="9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J17" s="10">
         <v>14</v>
       </c>
       <c r="K17" s="7">
-        <f>(20490+4335+125+195)*1.04</f>
-        <v>26150.799999999999</v>
+        <f>(11420+6465+4335+185)*1.04</f>
+        <v>23301.200000000001</v>
       </c>
       <c r="L17" s="1">
         <v>0</v>
@@ -1757,31 +1750,31 @@
         <v>48</v>
       </c>
       <c r="O17" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="P17" s="1">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="Q17" s="1">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="R17" s="1">
         <v>16</v>
       </c>
       <c r="S17" s="2">
-        <f t="shared" ref="S17:S18" si="3">SUM(L17:R17)</f>
-        <v>169</v>
+        <f t="shared" ref="S17:S18" si="4">SUM(L17:R17)</f>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="D18" s="10">
         <v>0</v>
@@ -1793,20 +1786,20 @@
         <v>12</v>
       </c>
       <c r="G18" s="9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H18" s="10">
-        <v>10</v>
+        <v>13.5</v>
       </c>
       <c r="I18" s="9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J18" s="10">
         <v>14</v>
       </c>
       <c r="K18" s="7">
-        <f>(20490+4335+125+195)*1.04</f>
-        <v>26150.799999999999</v>
+        <f>(11420+6465+4335+185)*1.04</f>
+        <v>23301.200000000001</v>
       </c>
       <c r="L18" s="1">
         <v>0</v>
@@ -1818,28 +1811,28 @@
         <v>48</v>
       </c>
       <c r="O18" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="P18" s="1">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="Q18" s="1">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="R18" s="1">
         <v>16</v>
       </c>
       <c r="S18" s="2">
-        <f t="shared" si="3"/>
-        <v>169</v>
+        <f t="shared" si="4"/>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="K19" s="17">
+      <c r="K19" s="15">
         <f>SUM(K21:K35)</f>
         <v>8725</v>
       </c>
-      <c r="AE19" s="17">
+      <c r="AE19" s="15">
         <f>SUM(AE21:AE35)</f>
         <v>19345</v>
       </c>
@@ -2072,7 +2065,7 @@
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="8" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D22" s="11">
         <v>0</v>
@@ -2121,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="S22" s="2">
-        <f t="shared" ref="S22:S31" si="4">SUM(L22:R22)</f>
+        <f t="shared" ref="S22:S31" si="5">SUM(L22:R22)</f>
         <v>38.5</v>
       </c>
       <c r="U22" t="s">
@@ -2129,7 +2122,7 @@
       </c>
       <c r="V22" s="4"/>
       <c r="W22" s="8" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="X22" s="11">
         <v>0</v>
@@ -2178,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="AM22" s="2">
-        <f t="shared" ref="AM22" si="5">SUM(AF22:AL22)</f>
+        <f t="shared" ref="AM22" si="6">SUM(AF22:AL22)</f>
         <v>66</v>
       </c>
     </row>
@@ -2444,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="S25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U25" t="s">
@@ -2496,14 +2489,14 @@
         <v>0</v>
       </c>
       <c r="AM25" s="2">
-        <f t="shared" ref="AM25:AM31" si="6">SUM(AF25:AL25)</f>
+        <f t="shared" ref="AM25:AM31" si="7">SUM(AF25:AL25)</f>
         <v>0</v>
       </c>
       <c r="AO25" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="AP25" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:42" x14ac:dyDescent="0.25">
@@ -2556,7 +2549,7 @@
         <v>0</v>
       </c>
       <c r="S26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U26" t="s">
@@ -2608,17 +2601,17 @@
         <v>0</v>
       </c>
       <c r="AM26" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AN26" s="18" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AN26" s="16" t="s">
         <v>37</v>
       </c>
       <c r="AO26">
         <f>33-5.5</f>
         <v>27.5</v>
       </c>
-      <c r="AP26" s="19">
+      <c r="AP26" s="17">
         <f>AO26/16</f>
         <v>1.71875</v>
       </c>
@@ -2673,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="S27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U27" t="s">
@@ -2725,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="AM27" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2779,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="S28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U28" t="s">
@@ -2831,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="AM28" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2885,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="S29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U29" t="s">
@@ -2937,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AM29" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2991,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="S30" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U30" t="s">
@@ -3043,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="AM30" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3053,7 +3046,7 @@
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="8" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D31" s="11">
         <v>0</v>
@@ -3102,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="S31" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44.5</v>
       </c>
       <c r="U31" t="s">
@@ -3110,7 +3103,7 @@
       </c>
       <c r="V31" s="4"/>
       <c r="W31" s="8" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="X31" s="11">
         <v>0</v>
@@ -3159,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="AM31" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>72</v>
       </c>
     </row>
@@ -3169,7 +3162,7 @@
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="8" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D32" s="11">
         <v>0</v>
@@ -3226,7 +3219,7 @@
       </c>
       <c r="V32" s="4"/>
       <c r="W32" s="8" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="X32" s="11">
         <v>0</v>
@@ -3285,7 +3278,7 @@
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="8" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D33" s="11">
         <v>0</v>
@@ -3342,7 +3335,7 @@
       </c>
       <c r="V33" s="4"/>
       <c r="W33" s="8" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="X33" s="11">
         <v>0</v>
@@ -3445,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="S34" s="2">
-        <f t="shared" ref="S34:S36" si="7">SUM(L34:R34)</f>
+        <f t="shared" ref="S34:S36" si="8">SUM(L34:R34)</f>
         <v>0</v>
       </c>
       <c r="U34" t="s">
@@ -3497,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="AM34" s="2">
-        <f t="shared" ref="AM34:AM36" si="8">SUM(AF34:AL34)</f>
+        <f t="shared" ref="AM34:AM36" si="9">SUM(AF34:AL34)</f>
         <v>0</v>
       </c>
     </row>
@@ -3551,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="S35" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U35" t="s">
@@ -3603,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="AM35" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3657,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="S36" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U36" t="s">
@@ -3709,16 +3702,16 @@
         <v>0</v>
       </c>
       <c r="AM36" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="K37" s="17">
+      <c r="K37" s="15">
         <f>SUM(K39:K53)</f>
         <v>34985</v>
       </c>
-      <c r="AE37" s="17">
+      <c r="AE37" s="15">
         <f>SUM(AE39:AE53)</f>
         <v>66725</v>
       </c>
@@ -3951,7 +3944,7 @@
       </c>
       <c r="B40" s="14"/>
       <c r="C40" s="8" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D40" s="11">
         <v>0</v>
@@ -4000,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="S40" s="2">
-        <f t="shared" ref="S40" si="9">SUM(L40:R40)</f>
+        <f t="shared" ref="S40" si="10">SUM(L40:R40)</f>
         <v>66</v>
       </c>
       <c r="U40" t="s">
@@ -4008,7 +4001,7 @@
       </c>
       <c r="V40" s="4"/>
       <c r="W40" s="8" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="X40" s="11">
         <v>0</v>
@@ -4058,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="AM40" s="2">
-        <f t="shared" ref="AM40" si="10">SUM(AF40:AL40)</f>
+        <f t="shared" ref="AM40" si="11">SUM(AF40:AL40)</f>
         <v>92</v>
       </c>
     </row>
@@ -4145,7 +4138,7 @@
         <v>2</v>
       </c>
       <c r="AE41" s="7">
-        <f t="shared" ref="AE41:AE46" si="11">7010+195+125</f>
+        <f t="shared" ref="AE41:AE46" si="12">7010+195+125</f>
         <v>7330</v>
       </c>
       <c r="AF41" s="1">
@@ -4257,7 +4250,7 @@
         <v>2</v>
       </c>
       <c r="AE42" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7330</v>
       </c>
       <c r="AF42" s="1">
@@ -4286,10 +4279,10 @@
         <v>84.5</v>
       </c>
       <c r="AO42" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="AP42" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:42" x14ac:dyDescent="0.25">
@@ -4345,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="S43" s="2">
-        <f t="shared" ref="S43:S49" si="12">SUM(L43:R43)</f>
+        <f t="shared" ref="S43:S49" si="13">SUM(L43:R43)</f>
         <v>62</v>
       </c>
       <c r="U43" t="s">
@@ -4375,7 +4368,7 @@
         <v>2</v>
       </c>
       <c r="AE43" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7330</v>
       </c>
       <c r="AF43" s="1">
@@ -4400,17 +4393,17 @@
         <v>0</v>
       </c>
       <c r="AM43" s="2">
-        <f t="shared" ref="AM43:AM49" si="13">SUM(AF43:AL43)</f>
+        <f t="shared" ref="AM43:AM49" si="14">SUM(AF43:AL43)</f>
         <v>88</v>
       </c>
-      <c r="AN43" s="18" t="s">
+      <c r="AN43" s="16" t="s">
         <v>0</v>
       </c>
       <c r="AO43">
         <f>56-30</f>
         <v>26</v>
       </c>
-      <c r="AP43" s="19">
+      <c r="AP43" s="17">
         <f>AO43/16</f>
         <v>1.625</v>
       </c>
@@ -4468,7 +4461,7 @@
         <v>0</v>
       </c>
       <c r="S44" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>62</v>
       </c>
       <c r="U44" t="s">
@@ -4498,7 +4491,7 @@
         <v>2</v>
       </c>
       <c r="AE44" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7330</v>
       </c>
       <c r="AF44" s="1">
@@ -4523,7 +4516,7 @@
         <v>0</v>
       </c>
       <c r="AM44" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>88</v>
       </c>
     </row>
@@ -4580,7 +4573,7 @@
         <v>0</v>
       </c>
       <c r="S45" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>62</v>
       </c>
       <c r="U45" t="s">
@@ -4610,7 +4603,7 @@
         <v>2</v>
       </c>
       <c r="AE45" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7330</v>
       </c>
       <c r="AF45" s="1">
@@ -4635,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="AM45" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>88</v>
       </c>
     </row>
@@ -4692,7 +4685,7 @@
         <v>0</v>
       </c>
       <c r="S46" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>62</v>
       </c>
       <c r="U46" t="s">
@@ -4722,7 +4715,7 @@
         <v>2</v>
       </c>
       <c r="AE46" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7330</v>
       </c>
       <c r="AF46" s="1">
@@ -4747,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="AM46" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>88</v>
       </c>
     </row>
@@ -4801,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="S47" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U47" t="s">
@@ -4853,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="AM47" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -4907,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="S48" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U48" t="s">
@@ -4959,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="AM48" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -4969,7 +4962,7 @@
       </c>
       <c r="B49" s="14"/>
       <c r="C49" s="8" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D49" s="11">
         <v>0</v>
@@ -5018,7 +5011,7 @@
         <v>0</v>
       </c>
       <c r="S49" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>72</v>
       </c>
       <c r="U49" t="s">
@@ -5026,7 +5019,7 @@
       </c>
       <c r="V49" s="4"/>
       <c r="W49" s="8" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="X49" s="11">
         <v>0</v>
@@ -5076,7 +5069,7 @@
         <v>0</v>
       </c>
       <c r="AM49" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>98</v>
       </c>
     </row>
@@ -5086,7 +5079,7 @@
       </c>
       <c r="B50" s="14"/>
       <c r="C50" s="8" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D50" s="11">
         <v>0</v>
@@ -5143,7 +5136,7 @@
       </c>
       <c r="V50" s="4"/>
       <c r="W50" s="8" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="X50" s="11">
         <v>0</v>
@@ -5203,7 +5196,7 @@
       </c>
       <c r="B51" s="14"/>
       <c r="C51" s="8" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D51" s="11">
         <v>0</v>
@@ -5260,7 +5253,7 @@
       </c>
       <c r="V51" s="4"/>
       <c r="W51" s="8" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="X51" s="11">
         <v>0</v>
@@ -5364,7 +5357,7 @@
         <v>0</v>
       </c>
       <c r="S52" s="2">
-        <f t="shared" ref="S52:S54" si="14">SUM(L52:R52)</f>
+        <f t="shared" ref="S52:S54" si="15">SUM(L52:R52)</f>
         <v>0</v>
       </c>
       <c r="U52" t="s">
@@ -5416,7 +5409,7 @@
         <v>0</v>
       </c>
       <c r="AM52" s="2">
-        <f t="shared" ref="AM52:AM54" si="15">SUM(AF52:AL52)</f>
+        <f t="shared" ref="AM52:AM54" si="16">SUM(AF52:AL52)</f>
         <v>0</v>
       </c>
     </row>
@@ -5470,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="S53" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U53" t="s">
@@ -5522,7 +5515,7 @@
         <v>0</v>
       </c>
       <c r="AM53" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -5576,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="S54" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U54" t="s">
@@ -5628,16 +5621,16 @@
         <v>0</v>
       </c>
       <c r="AM54" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="K55" s="17">
+      <c r="K55" s="15">
         <f>SUM(K57:K71)</f>
         <v>155319.63999999998</v>
       </c>
-      <c r="AE55" s="17">
+      <c r="AE55" s="15">
         <f>SUM(AE57:AE71)</f>
         <v>158873.30499999999</v>
       </c>
@@ -5876,7 +5869,7 @@
       </c>
       <c r="B58" s="14"/>
       <c r="C58" s="8" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D58" s="11">
         <v>0</v>
@@ -5926,7 +5919,7 @@
         <v>0</v>
       </c>
       <c r="S58" s="2">
-        <f t="shared" ref="S58" si="16">SUM(L58:R58)</f>
+        <f t="shared" ref="S58" si="17">SUM(L58:R58)</f>
         <v>92</v>
       </c>
       <c r="U58" t="s">
@@ -5934,7 +5927,7 @@
       </c>
       <c r="V58" s="4"/>
       <c r="W58" s="8" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="X58" s="11">
         <v>0</v>
@@ -5984,7 +5977,7 @@
         <v>10</v>
       </c>
       <c r="AM58" s="2">
-        <f t="shared" ref="AM58" si="17">SUM(AF58:AL58)</f>
+        <f t="shared" ref="AM58" si="18">SUM(AF58:AL58)</f>
         <v>102</v>
       </c>
     </row>
@@ -5994,7 +5987,7 @@
       </c>
       <c r="B59" s="14"/>
       <c r="C59" s="8" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D59" s="11">
         <v>0</v>
@@ -6018,7 +6011,7 @@
         <v>2</v>
       </c>
       <c r="K59" s="7">
-        <f t="shared" ref="K59:K64" si="18">7010+195+125</f>
+        <f t="shared" ref="K59:K64" si="19">7010+195+125</f>
         <v>7330</v>
       </c>
       <c r="L59" s="1">
@@ -6051,7 +6044,7 @@
       </c>
       <c r="V59" s="4"/>
       <c r="W59" s="8" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="X59" s="11">
         <v>0</v>
@@ -6075,7 +6068,7 @@
         <v>11</v>
       </c>
       <c r="AE59" s="7">
-        <f t="shared" ref="AE59:AE64" si="19">(7010+195+125)*1.032</f>
+        <f t="shared" ref="AE59:AE64" si="20">(7010+195+125)*1.032</f>
         <v>7564.56</v>
       </c>
       <c r="AF59" s="1">
@@ -6110,7 +6103,7 @@
       </c>
       <c r="B60" s="14"/>
       <c r="C60" s="8" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D60" s="11">
         <v>0</v>
@@ -6134,7 +6127,7 @@
         <v>2</v>
       </c>
       <c r="K60" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>7330</v>
       </c>
       <c r="L60" s="1">
@@ -6167,7 +6160,7 @@
       </c>
       <c r="V60" s="4"/>
       <c r="W60" s="8" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="X60" s="11">
         <v>0</v>
@@ -6191,7 +6184,7 @@
         <v>11</v>
       </c>
       <c r="AE60" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7564.56</v>
       </c>
       <c r="AF60" s="1">
@@ -6226,7 +6219,7 @@
       </c>
       <c r="B61" s="14"/>
       <c r="C61" s="8" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D61" s="11">
         <v>0</v>
@@ -6250,7 +6243,7 @@
         <v>2</v>
       </c>
       <c r="K61" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>7330</v>
       </c>
       <c r="L61" s="1">
@@ -6275,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="S61" s="2">
-        <f t="shared" ref="S61:S67" si="20">SUM(L61:R61)</f>
+        <f t="shared" ref="S61:S67" si="21">SUM(L61:R61)</f>
         <v>88</v>
       </c>
       <c r="U61" t="s">
@@ -6283,7 +6276,7 @@
       </c>
       <c r="V61" s="4"/>
       <c r="W61" s="8" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="X61" s="11">
         <v>0</v>
@@ -6307,7 +6300,7 @@
         <v>11</v>
       </c>
       <c r="AE61" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7564.56</v>
       </c>
       <c r="AF61" s="1">
@@ -6332,14 +6325,14 @@
         <v>10</v>
       </c>
       <c r="AM61" s="2">
-        <f t="shared" ref="AM61:AM67" si="21">SUM(AF61:AL61)</f>
+        <f t="shared" ref="AM61:AM67" si="22">SUM(AF61:AL61)</f>
         <v>98</v>
       </c>
       <c r="AO61" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="AP61" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:42" x14ac:dyDescent="0.25">
@@ -6348,7 +6341,7 @@
       </c>
       <c r="B62" s="14"/>
       <c r="C62" s="8" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D62" s="11">
         <v>0</v>
@@ -6372,7 +6365,7 @@
         <v>2</v>
       </c>
       <c r="K62" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>7330</v>
       </c>
       <c r="L62" s="1">
@@ -6397,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="S62" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>88</v>
       </c>
       <c r="U62" t="s">
@@ -6405,7 +6398,7 @@
       </c>
       <c r="V62" s="4"/>
       <c r="W62" s="8" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="X62" s="11">
         <v>0</v>
@@ -6429,7 +6422,7 @@
         <v>11</v>
       </c>
       <c r="AE62" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7564.56</v>
       </c>
       <c r="AF62" s="1">
@@ -6454,16 +6447,16 @@
         <v>10</v>
       </c>
       <c r="AM62" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>98</v>
       </c>
-      <c r="AN62" s="18" t="s">
-        <v>67</v>
+      <c r="AN62" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="AO62">
         <v>10</v>
       </c>
-      <c r="AP62" s="19">
+      <c r="AP62" s="17">
         <f>AO62/16</f>
         <v>0.625</v>
       </c>
@@ -6474,7 +6467,7 @@
       </c>
       <c r="B63" s="14"/>
       <c r="C63" s="8" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D63" s="11">
         <v>0</v>
@@ -6498,7 +6491,7 @@
         <v>2</v>
       </c>
       <c r="K63" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>7330</v>
       </c>
       <c r="L63" s="1">
@@ -6523,7 +6516,7 @@
         <v>0</v>
       </c>
       <c r="S63" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>88</v>
       </c>
       <c r="U63" t="s">
@@ -6531,7 +6524,7 @@
       </c>
       <c r="V63" s="4"/>
       <c r="W63" s="8" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="X63" s="11">
         <v>0</v>
@@ -6555,7 +6548,7 @@
         <v>11</v>
       </c>
       <c r="AE63" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7564.56</v>
       </c>
       <c r="AF63" s="1">
@@ -6580,7 +6573,7 @@
         <v>10</v>
       </c>
       <c r="AM63" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>98</v>
       </c>
     </row>
@@ -6590,7 +6583,7 @@
       </c>
       <c r="B64" s="14"/>
       <c r="C64" s="8" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="D64" s="11">
         <v>0</v>
@@ -6614,7 +6607,7 @@
         <v>2</v>
       </c>
       <c r="K64" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>7330</v>
       </c>
       <c r="L64" s="1">
@@ -6639,7 +6632,7 @@
         <v>0</v>
       </c>
       <c r="S64" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>88</v>
       </c>
       <c r="U64" t="s">
@@ -6647,7 +6640,7 @@
       </c>
       <c r="V64" s="4"/>
       <c r="W64" s="8" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="X64" s="11">
         <v>0</v>
@@ -6671,7 +6664,7 @@
         <v>11</v>
       </c>
       <c r="AE64" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7564.56</v>
       </c>
       <c r="AF64" s="1">
@@ -6696,7 +6689,7 @@
         <v>10</v>
       </c>
       <c r="AM64" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>98</v>
       </c>
     </row>
@@ -6706,7 +6699,7 @@
       </c>
       <c r="B65" s="14"/>
       <c r="C65" s="8" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D65" s="11">
         <v>0</v>
@@ -6755,7 +6748,7 @@
         <v>3</v>
       </c>
       <c r="S65" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>166</v>
       </c>
       <c r="U65" t="s">
@@ -6763,7 +6756,7 @@
       </c>
       <c r="V65" s="4"/>
       <c r="W65" s="8" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="X65" s="11">
         <v>0</v>
@@ -6812,7 +6805,7 @@
         <v>13</v>
       </c>
       <c r="AM65" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>176</v>
       </c>
     </row>
@@ -6822,7 +6815,7 @@
       </c>
       <c r="B66" s="14"/>
       <c r="C66" s="8" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D66" s="11">
         <v>0</v>
@@ -6871,7 +6864,7 @@
         <v>3</v>
       </c>
       <c r="S66" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>166</v>
       </c>
       <c r="U66" t="s">
@@ -6879,7 +6872,7 @@
       </c>
       <c r="V66" s="4"/>
       <c r="W66" s="8" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="X66" s="11">
         <v>0</v>
@@ -6928,7 +6921,7 @@
         <v>13</v>
       </c>
       <c r="AM66" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>176</v>
       </c>
     </row>
@@ -6938,7 +6931,7 @@
       </c>
       <c r="B67" s="14"/>
       <c r="C67" s="8" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D67" s="11">
         <v>0</v>
@@ -6988,7 +6981,7 @@
         <v>0</v>
       </c>
       <c r="S67" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>98</v>
       </c>
       <c r="U67" t="s">
@@ -6996,7 +6989,7 @@
       </c>
       <c r="V67" s="4"/>
       <c r="W67" s="8" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="X67" s="11">
         <v>0</v>
@@ -7046,7 +7039,7 @@
         <v>10</v>
       </c>
       <c r="AM67" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>108</v>
       </c>
     </row>
@@ -7056,7 +7049,7 @@
       </c>
       <c r="B68" s="14"/>
       <c r="C68" s="8" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D68" s="11">
         <v>0</v>
@@ -7114,7 +7107,7 @@
       </c>
       <c r="V68" s="4"/>
       <c r="W68" s="8" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="X68" s="11">
         <v>0</v>
@@ -7174,7 +7167,7 @@
       </c>
       <c r="B69" s="14"/>
       <c r="C69" s="8" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D69" s="11">
         <v>0</v>
@@ -7232,7 +7225,7 @@
       </c>
       <c r="V69" s="4"/>
       <c r="W69" s="8" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="X69" s="11">
         <v>0</v>
@@ -7292,7 +7285,7 @@
       </c>
       <c r="B70" s="14"/>
       <c r="C70" s="8" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D70" s="11">
         <v>0</v>
@@ -7341,7 +7334,7 @@
         <v>8</v>
       </c>
       <c r="S70" s="2">
-        <f t="shared" ref="S70:S72" si="22">SUM(L70:R70)</f>
+        <f t="shared" ref="S70:S72" si="23">SUM(L70:R70)</f>
         <v>142</v>
       </c>
       <c r="U70" t="s">
@@ -7349,7 +7342,7 @@
       </c>
       <c r="V70" s="4"/>
       <c r="W70" s="8" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="X70" s="11">
         <v>0</v>
@@ -7398,7 +7391,7 @@
         <v>18</v>
       </c>
       <c r="AM70" s="2">
-        <f t="shared" ref="AM70:AM72" si="23">SUM(AF70:AL70)</f>
+        <f t="shared" ref="AM70:AM72" si="24">SUM(AF70:AL70)</f>
         <v>152</v>
       </c>
     </row>
@@ -7408,7 +7401,7 @@
       </c>
       <c r="B71" s="14"/>
       <c r="C71" s="8" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D71" s="11">
         <v>0</v>
@@ -7457,7 +7450,7 @@
         <v>8</v>
       </c>
       <c r="S71" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>142</v>
       </c>
       <c r="U71" t="s">
@@ -7465,7 +7458,7 @@
       </c>
       <c r="V71" s="4"/>
       <c r="W71" s="8" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="X71" s="11">
         <v>0</v>
@@ -7514,7 +7507,7 @@
         <v>18</v>
       </c>
       <c r="AM71" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>152</v>
       </c>
     </row>
@@ -7524,7 +7517,7 @@
       </c>
       <c r="B72" s="14"/>
       <c r="C72" s="8" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D72" s="11">
         <v>0</v>
@@ -7573,7 +7566,7 @@
         <v>8</v>
       </c>
       <c r="S72" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>142</v>
       </c>
       <c r="U72" t="s">
@@ -7581,7 +7574,7 @@
       </c>
       <c r="V72" s="4"/>
       <c r="W72" s="8" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="X72" s="11">
         <v>0</v>
@@ -7630,16 +7623,16 @@
         <v>18</v>
       </c>
       <c r="AM72" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>152</v>
       </c>
     </row>
     <row r="73" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="K73" s="17">
+      <c r="K73" s="15">
         <f>SUM(K75:K89)</f>
         <v>158873.30499999999</v>
       </c>
-      <c r="AE73" s="17">
+      <c r="AE73" s="15">
         <f>SUM(AE75:AE89)</f>
         <v>240042.42999999996</v>
       </c>
@@ -7879,7 +7872,7 @@
       </c>
       <c r="B76" s="14"/>
       <c r="C76" s="8" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D76" s="11">
         <v>0</v>
@@ -7929,7 +7922,7 @@
         <v>10</v>
       </c>
       <c r="S76" s="2">
-        <f t="shared" ref="S76" si="24">SUM(L76:R76)</f>
+        <f t="shared" ref="S76" si="25">SUM(L76:R76)</f>
         <v>102</v>
       </c>
       <c r="U76" t="s">
@@ -7937,7 +7930,7 @@
       </c>
       <c r="V76" s="4"/>
       <c r="W76" s="8" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="X76" s="11">
         <v>0</v>
@@ -7987,7 +7980,7 @@
         <v>10</v>
       </c>
       <c r="AM76" s="2">
-        <f t="shared" ref="AM76" si="25">SUM(AF76:AL76)</f>
+        <f t="shared" ref="AM76" si="26">SUM(AF76:AL76)</f>
         <v>125</v>
       </c>
     </row>
@@ -7997,7 +7990,7 @@
       </c>
       <c r="B77" s="14"/>
       <c r="C77" s="8" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D77" s="11">
         <v>0</v>
@@ -8021,7 +8014,7 @@
         <v>11</v>
       </c>
       <c r="K77" s="7">
-        <f t="shared" ref="K77:K82" si="26">(7010+195+125)*1.032</f>
+        <f t="shared" ref="K77:K82" si="27">(7010+195+125)*1.032</f>
         <v>7564.56</v>
       </c>
       <c r="L77" s="1">
@@ -8054,7 +8047,7 @@
       </c>
       <c r="V77" s="4"/>
       <c r="W77" s="8" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="X77" s="11">
         <v>0</v>
@@ -8078,7 +8071,7 @@
         <v>11</v>
       </c>
       <c r="AE77" s="7">
-        <f t="shared" ref="AE77:AE82" si="27">(18370+195+125)*1.032</f>
+        <f t="shared" ref="AE77:AE82" si="28">(18370+195+125)*1.032</f>
         <v>19288.080000000002</v>
       </c>
       <c r="AF77" s="1">
@@ -8113,7 +8106,7 @@
       </c>
       <c r="B78" s="14"/>
       <c r="C78" s="8" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D78" s="11">
         <v>0</v>
@@ -8137,7 +8130,7 @@
         <v>11</v>
       </c>
       <c r="K78" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>7564.56</v>
       </c>
       <c r="L78" s="1">
@@ -8170,7 +8163,7 @@
       </c>
       <c r="V78" s="4"/>
       <c r="W78" s="8" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="X78" s="11">
         <v>0</v>
@@ -8194,7 +8187,7 @@
         <v>11</v>
       </c>
       <c r="AE78" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>19288.080000000002</v>
       </c>
       <c r="AF78" s="1">
@@ -8229,7 +8222,7 @@
       </c>
       <c r="B79" s="14"/>
       <c r="C79" s="8" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D79" s="11">
         <v>0</v>
@@ -8253,7 +8246,7 @@
         <v>11</v>
       </c>
       <c r="K79" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>7564.56</v>
       </c>
       <c r="L79" s="1">
@@ -8278,7 +8271,7 @@
         <v>10</v>
       </c>
       <c r="S79" s="2">
-        <f t="shared" ref="S79:S85" si="28">SUM(L79:R79)</f>
+        <f t="shared" ref="S79:S85" si="29">SUM(L79:R79)</f>
         <v>98</v>
       </c>
       <c r="U79" t="s">
@@ -8286,7 +8279,7 @@
       </c>
       <c r="V79" s="4"/>
       <c r="W79" s="8" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="X79" s="11">
         <v>0</v>
@@ -8310,7 +8303,7 @@
         <v>11</v>
       </c>
       <c r="AE79" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>19288.080000000002</v>
       </c>
       <c r="AF79" s="1">
@@ -8335,14 +8328,14 @@
         <v>10</v>
       </c>
       <c r="AM79" s="2">
-        <f t="shared" ref="AM79:AM85" si="29">SUM(AF79:AL79)</f>
+        <f t="shared" ref="AM79:AM85" si="30">SUM(AF79:AL79)</f>
         <v>121</v>
       </c>
       <c r="AO79" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="AP79" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80" spans="1:42" x14ac:dyDescent="0.25">
@@ -8351,7 +8344,7 @@
       </c>
       <c r="B80" s="14"/>
       <c r="C80" s="8" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D80" s="11">
         <v>0</v>
@@ -8375,7 +8368,7 @@
         <v>11</v>
       </c>
       <c r="K80" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>7564.56</v>
       </c>
       <c r="L80" s="1">
@@ -8400,7 +8393,7 @@
         <v>10</v>
       </c>
       <c r="S80" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>98</v>
       </c>
       <c r="U80" t="s">
@@ -8408,7 +8401,7 @@
       </c>
       <c r="V80" s="4"/>
       <c r="W80" s="8" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="X80" s="11">
         <v>0</v>
@@ -8432,7 +8425,7 @@
         <v>11</v>
       </c>
       <c r="AE80" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>19288.080000000002</v>
       </c>
       <c r="AF80" s="1">
@@ -8457,16 +8450,16 @@
         <v>10</v>
       </c>
       <c r="AM80" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>121</v>
       </c>
-      <c r="AN80" s="18" t="s">
+      <c r="AN80" s="16" t="s">
         <v>0</v>
       </c>
       <c r="AO80">
         <v>23</v>
       </c>
-      <c r="AP80" s="19">
+      <c r="AP80" s="17">
         <f>AO80/16</f>
         <v>1.4375</v>
       </c>
@@ -8477,7 +8470,7 @@
       </c>
       <c r="B81" s="14"/>
       <c r="C81" s="8" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D81" s="11">
         <v>0</v>
@@ -8501,7 +8494,7 @@
         <v>11</v>
       </c>
       <c r="K81" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>7564.56</v>
       </c>
       <c r="L81" s="1">
@@ -8526,7 +8519,7 @@
         <v>10</v>
       </c>
       <c r="S81" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>98</v>
       </c>
       <c r="U81" t="s">
@@ -8534,7 +8527,7 @@
       </c>
       <c r="V81" s="4"/>
       <c r="W81" s="8" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="X81" s="11">
         <v>0</v>
@@ -8558,7 +8551,7 @@
         <v>11</v>
       </c>
       <c r="AE81" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>19288.080000000002</v>
       </c>
       <c r="AF81" s="1">
@@ -8583,7 +8576,7 @@
         <v>10</v>
       </c>
       <c r="AM81" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>121</v>
       </c>
     </row>
@@ -8593,7 +8586,7 @@
       </c>
       <c r="B82" s="14"/>
       <c r="C82" s="8" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="D82" s="11">
         <v>0</v>
@@ -8617,7 +8610,7 @@
         <v>11</v>
       </c>
       <c r="K82" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>7564.56</v>
       </c>
       <c r="L82" s="1">
@@ -8642,7 +8635,7 @@
         <v>10</v>
       </c>
       <c r="S82" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>98</v>
       </c>
       <c r="U82" t="s">
@@ -8650,7 +8643,7 @@
       </c>
       <c r="V82" s="4"/>
       <c r="W82" s="8" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="X82" s="11">
         <v>0</v>
@@ -8674,7 +8667,7 @@
         <v>11</v>
       </c>
       <c r="AE82" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>19288.080000000002</v>
       </c>
       <c r="AF82" s="1">
@@ -8699,7 +8692,7 @@
         <v>10</v>
       </c>
       <c r="AM82" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>121</v>
       </c>
     </row>
@@ -8709,7 +8702,7 @@
       </c>
       <c r="B83" s="14"/>
       <c r="C83" s="8" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D83" s="11">
         <v>0</v>
@@ -8758,7 +8751,7 @@
         <v>13</v>
       </c>
       <c r="S83" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>176</v>
       </c>
       <c r="U83" t="s">
@@ -8766,7 +8759,7 @@
       </c>
       <c r="V83" s="4"/>
       <c r="W83" s="8" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="X83" s="11">
         <v>0</v>
@@ -8815,7 +8808,7 @@
         <v>13</v>
       </c>
       <c r="AM83" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>176</v>
       </c>
     </row>
@@ -8825,7 +8818,7 @@
       </c>
       <c r="B84" s="14"/>
       <c r="C84" s="8" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D84" s="11">
         <v>0</v>
@@ -8874,7 +8867,7 @@
         <v>13</v>
       </c>
       <c r="S84" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>176</v>
       </c>
       <c r="U84" t="s">
@@ -8882,7 +8875,7 @@
       </c>
       <c r="V84" s="4"/>
       <c r="W84" s="8" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="X84" s="11">
         <v>0</v>
@@ -8931,7 +8924,7 @@
         <v>13</v>
       </c>
       <c r="AM84" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>176</v>
       </c>
     </row>
@@ -8941,7 +8934,7 @@
       </c>
       <c r="B85" s="14"/>
       <c r="C85" s="8" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D85" s="11">
         <v>0</v>
@@ -8991,7 +8984,7 @@
         <v>10</v>
       </c>
       <c r="S85" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>108</v>
       </c>
       <c r="U85" t="s">
@@ -8999,7 +8992,7 @@
       </c>
       <c r="V85" s="4"/>
       <c r="W85" s="8" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="X85" s="11">
         <v>0</v>
@@ -9049,7 +9042,7 @@
         <v>10</v>
       </c>
       <c r="AM85" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>131</v>
       </c>
     </row>
@@ -9059,7 +9052,7 @@
       </c>
       <c r="B86" s="14"/>
       <c r="C86" s="8" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D86" s="11">
         <v>0</v>
@@ -9117,7 +9110,7 @@
       </c>
       <c r="V86" s="4"/>
       <c r="W86" s="8" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="X86" s="11">
         <v>0</v>
@@ -9177,7 +9170,7 @@
       </c>
       <c r="B87" s="14"/>
       <c r="C87" s="8" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D87" s="11">
         <v>0</v>
@@ -9235,7 +9228,7 @@
       </c>
       <c r="V87" s="4"/>
       <c r="W87" s="8" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="X87" s="11">
         <v>0</v>
@@ -9295,7 +9288,7 @@
       </c>
       <c r="B88" s="14"/>
       <c r="C88" s="8" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D88" s="11">
         <v>0</v>
@@ -9344,7 +9337,7 @@
         <v>18</v>
       </c>
       <c r="S88" s="2">
-        <f t="shared" ref="S88:S90" si="30">SUM(L88:R88)</f>
+        <f t="shared" ref="S88:S90" si="31">SUM(L88:R88)</f>
         <v>152</v>
       </c>
       <c r="U88" t="s">
@@ -9352,7 +9345,7 @@
       </c>
       <c r="V88" s="4"/>
       <c r="W88" s="8" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="X88" s="11">
         <v>0</v>
@@ -9401,7 +9394,7 @@
         <v>18</v>
       </c>
       <c r="AM88" s="2">
-        <f t="shared" ref="AM88:AM90" si="31">SUM(AF88:AL88)</f>
+        <f t="shared" ref="AM88:AM90" si="32">SUM(AF88:AL88)</f>
         <v>152</v>
       </c>
     </row>
@@ -9411,7 +9404,7 @@
       </c>
       <c r="B89" s="14"/>
       <c r="C89" s="8" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D89" s="11">
         <v>0</v>
@@ -9460,7 +9453,7 @@
         <v>18</v>
       </c>
       <c r="S89" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>152</v>
       </c>
       <c r="U89" t="s">
@@ -9468,7 +9461,7 @@
       </c>
       <c r="V89" s="4"/>
       <c r="W89" s="8" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="X89" s="11">
         <v>0</v>
@@ -9517,7 +9510,7 @@
         <v>18</v>
       </c>
       <c r="AM89" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>152</v>
       </c>
     </row>
@@ -9527,7 +9520,7 @@
       </c>
       <c r="B90" s="14"/>
       <c r="C90" s="8" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D90" s="11">
         <v>0</v>
@@ -9576,7 +9569,7 @@
         <v>18</v>
       </c>
       <c r="S90" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>152</v>
       </c>
       <c r="U90" t="s">
@@ -9584,7 +9577,7 @@
       </c>
       <c r="V90" s="4"/>
       <c r="W90" s="8" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="X90" s="11">
         <v>0</v>
@@ -9633,7 +9626,7 @@
         <v>18</v>
       </c>
       <c r="AM90" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>152</v>
       </c>
     </row>
@@ -9642,7 +9635,7 @@
     <mergeCell ref="V1:AD1"/>
   </mergeCells>
   <conditionalFormatting sqref="D21:J36">
-    <cfRule type="colorScale" priority="39">
+    <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9652,7 +9645,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21:K36">
-    <cfRule type="dataBar" priority="38">
+    <cfRule type="dataBar" priority="53">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9666,7 +9659,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:R36">
-    <cfRule type="colorScale" priority="37">
+    <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9676,7 +9669,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X21:AD36">
-    <cfRule type="colorScale" priority="36">
+    <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9686,7 +9679,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE21:AE36">
-    <cfRule type="dataBar" priority="35">
+    <cfRule type="dataBar" priority="50">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9700,7 +9693,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF21:AL36">
-    <cfRule type="colorScale" priority="34">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9710,7 +9703,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:J54">
-    <cfRule type="colorScale" priority="33">
+    <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9720,7 +9713,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39:K54">
-    <cfRule type="dataBar" priority="32">
+    <cfRule type="dataBar" priority="47">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9734,7 +9727,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L39:R54">
-    <cfRule type="colorScale" priority="31">
+    <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9744,7 +9737,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X39:AD54">
-    <cfRule type="colorScale" priority="30">
+    <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9754,7 +9747,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE39:AE54">
-    <cfRule type="dataBar" priority="29">
+    <cfRule type="dataBar" priority="44">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9768,7 +9761,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF39:AL54">
-    <cfRule type="colorScale" priority="28">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9778,7 +9771,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57:J72">
-    <cfRule type="colorScale" priority="27">
+    <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9788,7 +9781,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K57:K72">
-    <cfRule type="dataBar" priority="26">
+    <cfRule type="dataBar" priority="41">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9802,7 +9795,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L57:R72">
-    <cfRule type="colorScale" priority="25">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9812,7 +9805,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X57:AD72">
-    <cfRule type="colorScale" priority="24">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9822,7 +9815,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE57:AE72">
-    <cfRule type="dataBar" priority="23">
+    <cfRule type="dataBar" priority="38">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9836,7 +9829,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF57:AL72">
-    <cfRule type="colorScale" priority="21">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9846,7 +9839,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:J90">
-    <cfRule type="colorScale" priority="17">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9856,7 +9849,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K75:K90">
-    <cfRule type="dataBar" priority="16">
+    <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9870,7 +9863,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L75:R90">
-    <cfRule type="colorScale" priority="15">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9880,7 +9873,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X75:AD90">
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9890,7 +9883,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE75:AE90">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9904,7 +9897,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF75:AL90">
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9923,23 +9916,23 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L3:R18">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K3:K18">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3:R18">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -10043,2492 +10036,1092 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:O49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D45076-C4A9-421C-ADA0-774AD677BC9B}">
+  <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O10" sqref="O10"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="20" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K1" s="2">
+        <f>K2*1.2</f>
+        <v>611990.56800000009</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="13">
+        <f>SUM(K4:K19)</f>
+        <v>509992.14000000007</v>
+      </c>
+      <c r="L2" s="21">
+        <f>SUM(L4:L19)</f>
+        <v>53616</v>
+      </c>
+      <c r="M2" s="21">
+        <f t="shared" ref="M2:T2" si="0">SUM(M4:M19)</f>
+        <v>51845</v>
+      </c>
+      <c r="N2" s="21">
+        <f t="shared" si="0"/>
+        <v>94483</v>
+      </c>
+      <c r="O2" s="21">
+        <f t="shared" si="0"/>
+        <v>121945</v>
+      </c>
+      <c r="P2" s="21">
+        <f t="shared" si="0"/>
+        <v>124900</v>
+      </c>
+      <c r="Q2" s="21">
+        <f t="shared" si="0"/>
+        <v>111319</v>
+      </c>
+      <c r="R2" s="21">
+        <f t="shared" si="0"/>
+        <v>102366</v>
+      </c>
+      <c r="S2" s="21">
+        <f t="shared" si="0"/>
+        <v>84318</v>
+      </c>
+      <c r="T2" s="21">
+        <f t="shared" si="0"/>
+        <v>74487</v>
+      </c>
+      <c r="V2" t="s">
+        <v>62</v>
+      </c>
+      <c r="X2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" s="3" t="s">
+      <c r="K3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" s="20" t="s">
         <v>57</v>
       </c>
+      <c r="Q3" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="T3" s="20" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="14">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="11">
+        <v>16</v>
+      </c>
+      <c r="E4" s="6">
+        <v>12</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="11">
+        <v>19</v>
+      </c>
+      <c r="K4" s="7">
+        <f>(31720+3505)*1.06</f>
+        <v>37338.5</v>
+      </c>
+      <c r="L4" s="21">
+        <v>13120</v>
+      </c>
+      <c r="M4" s="21">
+        <v>13873</v>
+      </c>
+      <c r="N4" s="21">
+        <v>12888</v>
+      </c>
+      <c r="O4" s="21">
+        <v>12332</v>
+      </c>
+      <c r="P4" s="21">
+        <v>11016</v>
+      </c>
+      <c r="Q4" s="21">
+        <v>10934</v>
+      </c>
+      <c r="R4" s="21">
+        <v>10197</v>
+      </c>
+      <c r="S4" s="21">
+        <v>7849</v>
+      </c>
+      <c r="T4" s="21">
+        <v>7669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="10">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
+        <v>15</v>
+      </c>
+      <c r="F5" s="10">
+        <v>2</v>
+      </c>
+      <c r="G5" s="9">
+        <v>14</v>
+      </c>
+      <c r="H5" s="10">
+        <v>2</v>
+      </c>
+      <c r="I5" s="9">
+        <v>2</v>
+      </c>
+      <c r="J5" s="10">
+        <v>19</v>
+      </c>
+      <c r="K5" s="7">
+        <f>(26960+5805)*1.06</f>
+        <v>34730.9</v>
+      </c>
+      <c r="L5" s="21">
+        <v>9734</v>
+      </c>
+      <c r="M5" s="21">
+        <v>9422</v>
+      </c>
+      <c r="N5" s="21">
+        <v>8981</v>
+      </c>
+      <c r="O5" s="21">
+        <v>7707</v>
+      </c>
+      <c r="P5" s="21">
+        <v>5864</v>
+      </c>
+      <c r="Q5" s="21">
+        <v>4591</v>
+      </c>
+      <c r="R5" s="21">
+        <v>4653</v>
+      </c>
+      <c r="S5" s="21">
+        <v>4137</v>
+      </c>
+      <c r="T5" s="21">
+        <v>4203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9">
+        <v>15</v>
+      </c>
+      <c r="F6" s="10">
+        <v>2</v>
+      </c>
+      <c r="G6" s="9">
+        <v>14</v>
+      </c>
+      <c r="H6" s="10">
+        <v>2</v>
+      </c>
+      <c r="I6" s="9">
+        <v>2</v>
+      </c>
+      <c r="J6" s="10">
+        <v>19</v>
+      </c>
+      <c r="K6" s="7">
+        <f>(26960+5805)*1.06</f>
+        <v>34730.9</v>
+      </c>
+      <c r="L6" s="21">
+        <v>9734</v>
+      </c>
+      <c r="M6" s="21">
+        <v>9422</v>
+      </c>
+      <c r="N6" s="21">
+        <v>8981</v>
+      </c>
+      <c r="O6" s="21">
+        <v>7707</v>
+      </c>
+      <c r="P6" s="21">
+        <v>5864</v>
+      </c>
+      <c r="Q6" s="21">
+        <v>4591</v>
+      </c>
+      <c r="R6" s="21">
+        <v>4653</v>
+      </c>
+      <c r="S6" s="21">
+        <v>4137</v>
+      </c>
+      <c r="T6" s="21">
+        <v>4203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>15</v>
+      </c>
+      <c r="F7" s="10">
+        <v>2</v>
+      </c>
+      <c r="G7" s="9">
+        <v>2</v>
+      </c>
+      <c r="H7" s="10">
+        <v>2</v>
+      </c>
+      <c r="I7" s="9">
+        <v>2</v>
+      </c>
+      <c r="J7" s="10">
+        <v>19</v>
+      </c>
+      <c r="K7" s="7">
+        <f>(26960)*1.06</f>
+        <v>28577.600000000002</v>
+      </c>
+      <c r="L7" s="21">
+        <v>4786</v>
+      </c>
+      <c r="M7" s="21">
+        <v>4048</v>
+      </c>
+      <c r="N7" s="21">
+        <v>3400</v>
+      </c>
+      <c r="O7" s="21">
+        <v>3024</v>
+      </c>
+      <c r="P7" s="21">
+        <v>2479</v>
+      </c>
+      <c r="Q7" s="21">
+        <v>2067</v>
+      </c>
+      <c r="R7" s="21">
+        <v>2182</v>
+      </c>
+      <c r="S7" s="21">
+        <v>1603</v>
+      </c>
+      <c r="T7" s="21">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="10">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>14</v>
+      </c>
+      <c r="F8" s="10">
+        <v>13.5</v>
+      </c>
+      <c r="G8" s="9">
+        <v>2</v>
+      </c>
+      <c r="H8" s="10">
+        <v>2</v>
+      </c>
+      <c r="I8" s="9">
+        <v>2</v>
+      </c>
+      <c r="J8" s="10">
+        <v>14</v>
+      </c>
+      <c r="K8" s="7">
+        <f>(18370+9238)*1.04</f>
+        <v>28712.32</v>
+      </c>
+      <c r="L8" s="21">
+        <v>8121</v>
+      </c>
+      <c r="M8" s="21">
+        <v>7540</v>
+      </c>
+      <c r="N8" s="21">
+        <v>7324</v>
+      </c>
+      <c r="O8" s="21">
+        <v>6853</v>
+      </c>
+      <c r="P8" s="21">
+        <v>7089</v>
+      </c>
+      <c r="Q8" s="21">
+        <v>6241</v>
+      </c>
+      <c r="R8" s="21">
+        <v>4803</v>
+      </c>
+      <c r="S8" s="21">
+        <v>3756</v>
+      </c>
+      <c r="T8" s="21">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
+        <v>14</v>
+      </c>
+      <c r="F9" s="10">
+        <v>13.5</v>
+      </c>
+      <c r="G9" s="9">
+        <v>2</v>
+      </c>
+      <c r="H9" s="10">
+        <v>2</v>
+      </c>
+      <c r="I9" s="9">
+        <v>2</v>
+      </c>
+      <c r="J9" s="10">
+        <v>14</v>
+      </c>
+      <c r="K9" s="7">
+        <f>(18370+9238)*1.04</f>
+        <v>28712.32</v>
+      </c>
+      <c r="L9" s="21">
+        <v>8121</v>
+      </c>
+      <c r="M9" s="21">
+        <v>7540</v>
+      </c>
+      <c r="N9" s="21">
+        <v>7324</v>
+      </c>
+      <c r="O9" s="21">
+        <v>6853</v>
+      </c>
+      <c r="P9" s="21">
+        <v>7089</v>
+      </c>
+      <c r="Q9" s="21">
+        <v>6241</v>
+      </c>
+      <c r="R9" s="21">
+        <v>4803</v>
+      </c>
+      <c r="S9" s="21">
+        <v>3756</v>
+      </c>
+      <c r="T9" s="21">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>11</v>
+      </c>
+      <c r="F10" s="10">
+        <v>15</v>
+      </c>
+      <c r="G10" s="9">
+        <v>2</v>
+      </c>
+      <c r="H10" s="10">
+        <v>11</v>
+      </c>
+      <c r="I10" s="9">
+        <v>7</v>
+      </c>
+      <c r="J10" s="10">
+        <v>14</v>
+      </c>
+      <c r="K10" s="7">
+        <f>(32580+2045+305+245)*1.04</f>
+        <v>36582</v>
+      </c>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21">
+        <v>9117</v>
+      </c>
+      <c r="O10" s="21">
+        <v>8886</v>
+      </c>
+      <c r="P10" s="21">
+        <v>8618</v>
+      </c>
+      <c r="Q10" s="21">
+        <v>7081</v>
+      </c>
+      <c r="R10" s="21">
+        <v>6400</v>
+      </c>
+      <c r="S10" s="21">
+        <v>4846</v>
+      </c>
+      <c r="T10" s="21">
+        <v>3851</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="11">
+      <c r="B11" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="10">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9">
+        <v>11</v>
+      </c>
+      <c r="F11" s="10">
+        <v>15</v>
+      </c>
+      <c r="G11" s="9">
+        <v>2</v>
+      </c>
+      <c r="H11" s="10">
+        <v>11</v>
+      </c>
+      <c r="I11" s="9">
+        <v>7</v>
+      </c>
+      <c r="J11" s="10">
+        <v>14</v>
+      </c>
+      <c r="K11" s="7">
+        <f>(32580+2045+305+245)*1.04</f>
+        <v>36582</v>
+      </c>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21">
+        <v>9117</v>
+      </c>
+      <c r="O11" s="21">
+        <v>8886</v>
+      </c>
+      <c r="P11" s="21">
+        <v>8618</v>
+      </c>
+      <c r="Q11" s="21">
+        <v>7081</v>
+      </c>
+      <c r="R11" s="21">
+        <v>6400</v>
+      </c>
+      <c r="S11" s="21">
+        <v>4846</v>
+      </c>
+      <c r="T11" s="21">
+        <v>3851</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="10">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9">
+        <v>11</v>
+      </c>
+      <c r="F12" s="10">
+        <v>15</v>
+      </c>
+      <c r="G12" s="9">
+        <v>2</v>
+      </c>
+      <c r="H12" s="10">
+        <v>11</v>
+      </c>
+      <c r="I12" s="9">
+        <v>7</v>
+      </c>
+      <c r="J12" s="10">
+        <v>14</v>
+      </c>
+      <c r="K12" s="7">
+        <f>(32580+2045+305+245)*1.04</f>
+        <v>36582</v>
+      </c>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21">
+        <v>9117</v>
+      </c>
+      <c r="O12" s="21">
+        <v>8886</v>
+      </c>
+      <c r="P12" s="21">
+        <v>8618</v>
+      </c>
+      <c r="Q12" s="21">
+        <v>7081</v>
+      </c>
+      <c r="R12" s="21">
+        <v>6400</v>
+      </c>
+      <c r="S12" s="21">
+        <v>4846</v>
+      </c>
+      <c r="T12" s="21">
+        <v>3851</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="10">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <v>11</v>
+      </c>
+      <c r="F13" s="10">
+        <v>15</v>
+      </c>
+      <c r="G13" s="9">
+        <v>2</v>
+      </c>
+      <c r="H13" s="10">
+        <v>11</v>
+      </c>
+      <c r="I13" s="9">
+        <v>7</v>
+      </c>
+      <c r="J13" s="10">
+        <v>14</v>
+      </c>
+      <c r="K13" s="7">
+        <f>(32580+2045+305+245)*1.04</f>
+        <v>36582</v>
+      </c>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21">
+        <v>9117</v>
+      </c>
+      <c r="O13" s="21">
+        <v>8886</v>
+      </c>
+      <c r="P13" s="21">
+        <v>8618</v>
+      </c>
+      <c r="Q13" s="21">
+        <v>7081</v>
+      </c>
+      <c r="R13" s="21">
+        <v>6400</v>
+      </c>
+      <c r="S13" s="21">
+        <v>4846</v>
+      </c>
+      <c r="T13" s="21">
+        <v>3851</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="10">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9">
+        <v>11</v>
+      </c>
+      <c r="F14" s="10">
+        <v>15</v>
+      </c>
+      <c r="G14" s="9">
+        <v>2</v>
+      </c>
+      <c r="H14" s="10">
+        <v>11</v>
+      </c>
+      <c r="I14" s="9">
+        <v>7</v>
+      </c>
+      <c r="J14" s="10">
+        <v>14</v>
+      </c>
+      <c r="K14" s="7">
+        <f>(32580+2045+305+245)*1.04</f>
+        <v>36582</v>
+      </c>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21">
+        <v>9117</v>
+      </c>
+      <c r="O14" s="21">
+        <v>8886</v>
+      </c>
+      <c r="P14" s="21">
+        <v>8618</v>
+      </c>
+      <c r="Q14" s="21">
+        <v>7081</v>
+      </c>
+      <c r="R14" s="21">
+        <v>6400</v>
+      </c>
+      <c r="S14" s="21">
+        <v>4846</v>
+      </c>
+      <c r="T14" s="21">
+        <v>3851</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="11">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>5</v>
+      </c>
+      <c r="F15" s="11">
+        <v>12</v>
+      </c>
+      <c r="G15" s="6">
         <v>16</v>
       </c>
-      <c r="D2" s="6">
-        <v>9</v>
-      </c>
-      <c r="E2" s="11">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6">
-        <v>0</v>
-      </c>
-      <c r="G2" s="11">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6">
-        <v>0</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="15">
-        <v>9950000</v>
-      </c>
-      <c r="K2" s="1">
-        <v>62</v>
-      </c>
-      <c r="L2" s="1">
-        <v>30</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2">
-        <f t="shared" ref="N2:N49" si="0">SUM(K2:M2)</f>
-        <v>92</v>
-      </c>
-      <c r="O2" s="16">
-        <f t="shared" ref="O2:O49" si="1">J2/N2</f>
-        <v>108152.17391304347</v>
+      <c r="H15" s="11">
+        <v>10</v>
+      </c>
+      <c r="I15" s="6">
+        <v>7</v>
+      </c>
+      <c r="J15" s="11">
+        <v>14</v>
+      </c>
+      <c r="K15" s="7">
+        <f>(26040+135+4335+195+245)*1.04</f>
+        <v>32188</v>
+      </c>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21">
+        <v>8270</v>
+      </c>
+      <c r="Q15" s="21">
+        <v>7453</v>
+      </c>
+      <c r="R15" s="21">
+        <v>7263</v>
+      </c>
+      <c r="S15" s="21">
+        <v>6631</v>
+      </c>
+      <c r="T15" s="21">
+        <v>5666</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="14">
-        <v>20</v>
-      </c>
-      <c r="C3" s="11">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="11">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>5</v>
+      </c>
+      <c r="F16" s="11">
+        <v>12</v>
+      </c>
+      <c r="G16" s="6">
         <v>16</v>
       </c>
-      <c r="D3" s="6">
-        <v>4</v>
-      </c>
-      <c r="E3" s="11">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0</v>
-      </c>
-      <c r="G3" s="11">
-        <v>0</v>
-      </c>
-      <c r="H3" s="6">
-        <v>0</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="15">
-        <v>6500000</v>
-      </c>
-      <c r="K3" s="1">
-        <v>62</v>
-      </c>
-      <c r="L3" s="1">
-        <v>6</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="O3" s="16">
-        <f t="shared" si="1"/>
-        <v>95588.23529411765</v>
+      <c r="H16" s="11">
+        <v>10</v>
+      </c>
+      <c r="I16" s="6">
+        <v>7</v>
+      </c>
+      <c r="J16" s="11">
+        <v>14</v>
+      </c>
+      <c r="K16" s="7">
+        <f>(26040+135+4335+195+245)*1.04</f>
+        <v>32188</v>
+      </c>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21">
+        <v>8270</v>
+      </c>
+      <c r="Q16" s="21">
+        <v>7453</v>
+      </c>
+      <c r="R16" s="21">
+        <v>7263</v>
+      </c>
+      <c r="S16" s="21">
+        <v>6631</v>
+      </c>
+      <c r="T16" s="21">
+        <v>5666</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="14">
-        <v>21</v>
-      </c>
-      <c r="C4" s="11">
-        <v>16</v>
-      </c>
-      <c r="D4" s="6">
-        <v>2</v>
-      </c>
-      <c r="E4" s="11">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="11">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" s="15">
-        <v>6613000</v>
-      </c>
-      <c r="K4" s="1">
-        <v>62</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>2</v>
-      </c>
-      <c r="N4" s="2">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="O4" s="16">
-        <f t="shared" si="1"/>
-        <v>103328.125</v>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="10">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9">
+        <v>2</v>
+      </c>
+      <c r="F17" s="10">
+        <v>12</v>
+      </c>
+      <c r="G17" s="9">
+        <v>7</v>
+      </c>
+      <c r="H17" s="10">
+        <v>13.5</v>
+      </c>
+      <c r="I17" s="9">
+        <v>13</v>
+      </c>
+      <c r="J17" s="10">
+        <v>14</v>
+      </c>
+      <c r="K17" s="7">
+        <f>(11420+6465+4335+185)*1.04</f>
+        <v>23301.200000000001</v>
+      </c>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21">
+        <v>11013</v>
+      </c>
+      <c r="P17" s="21">
+        <v>8623</v>
+      </c>
+      <c r="Q17" s="21">
+        <v>8781</v>
+      </c>
+      <c r="R17" s="21">
+        <v>8183</v>
+      </c>
+      <c r="S17" s="21">
+        <v>7196</v>
+      </c>
+      <c r="T17" s="21">
+        <v>6600</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="14">
-        <v>21</v>
-      </c>
-      <c r="C5" s="11">
-        <v>15</v>
-      </c>
-      <c r="D5" s="6">
-        <v>8</v>
-      </c>
-      <c r="E5" s="11">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" s="15">
-        <v>9078000</v>
-      </c>
-      <c r="K5" s="1">
-        <v>52</v>
-      </c>
-      <c r="L5" s="1">
-        <v>24</v>
-      </c>
-      <c r="M5" s="1">
-        <v>15</v>
-      </c>
-      <c r="N5" s="2">
-        <f t="shared" si="0"/>
-        <v>91</v>
-      </c>
-      <c r="O5" s="16">
-        <f t="shared" si="1"/>
-        <v>99758.241758241755</v>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="10">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9">
+        <v>2</v>
+      </c>
+      <c r="F18" s="10">
+        <v>12</v>
+      </c>
+      <c r="G18" s="9">
+        <v>7</v>
+      </c>
+      <c r="H18" s="10">
+        <v>13.5</v>
+      </c>
+      <c r="I18" s="9">
+        <v>13</v>
+      </c>
+      <c r="J18" s="10">
+        <v>14</v>
+      </c>
+      <c r="K18" s="7">
+        <f>(11420+6465+4335+185)*1.04</f>
+        <v>23301.200000000001</v>
+      </c>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21">
+        <v>11013</v>
+      </c>
+      <c r="P18" s="21">
+        <v>8623</v>
+      </c>
+      <c r="Q18" s="21">
+        <v>8781</v>
+      </c>
+      <c r="R18" s="21">
+        <v>8183</v>
+      </c>
+      <c r="S18" s="21">
+        <v>7196</v>
+      </c>
+      <c r="T18" s="21">
+        <v>6600</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="14">
-        <v>21</v>
-      </c>
-      <c r="C6" s="11">
-        <v>15</v>
-      </c>
-      <c r="D6" s="6">
-        <v>8</v>
-      </c>
-      <c r="E6" s="11">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="15">
-        <v>8300000</v>
-      </c>
-      <c r="K6" s="1">
-        <v>52</v>
-      </c>
-      <c r="L6" s="1">
-        <v>24</v>
-      </c>
-      <c r="M6" s="1">
-        <v>6</v>
-      </c>
-      <c r="N6" s="2">
-        <f t="shared" si="0"/>
-        <v>82</v>
-      </c>
-      <c r="O6" s="16">
-        <f t="shared" si="1"/>
-        <v>101219.51219512195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="14">
-        <v>21</v>
-      </c>
-      <c r="C7" s="11">
-        <v>15</v>
-      </c>
-      <c r="D7" s="6">
-        <v>6</v>
-      </c>
-      <c r="E7" s="11">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="15">
-        <v>6739500</v>
-      </c>
-      <c r="K7" s="1">
-        <v>52</v>
-      </c>
-      <c r="L7" s="1">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="10">
+        <v>0</v>
+      </c>
+      <c r="E19" s="9">
+        <v>2</v>
+      </c>
+      <c r="F19" s="10">
+        <v>12</v>
+      </c>
+      <c r="G19" s="9">
+        <v>7</v>
+      </c>
+      <c r="H19" s="10">
+        <v>13.5</v>
+      </c>
+      <c r="I19" s="9">
+        <v>13</v>
+      </c>
+      <c r="J19" s="10">
         <v>14</v>
       </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="O7" s="16">
-        <f t="shared" si="1"/>
-        <v>102113.63636363637</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="14">
-        <v>21</v>
-      </c>
-      <c r="C8" s="11">
-        <v>15</v>
-      </c>
-      <c r="D8" s="6">
-        <v>6</v>
-      </c>
-      <c r="E8" s="11">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="11">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="15">
-        <v>8000000</v>
-      </c>
-      <c r="K8" s="1">
-        <v>52</v>
-      </c>
-      <c r="L8" s="1">
-        <v>14</v>
-      </c>
-      <c r="M8" s="1">
-        <v>5</v>
-      </c>
-      <c r="N8" s="2">
-        <f t="shared" si="0"/>
-        <v>71</v>
-      </c>
-      <c r="O8" s="16">
-        <f t="shared" si="1"/>
-        <v>112676.05633802817</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="14">
-        <v>20</v>
-      </c>
-      <c r="C9" s="11">
-        <v>15</v>
-      </c>
-      <c r="D9" s="6">
-        <v>6</v>
-      </c>
-      <c r="E9" s="11">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="11">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" s="15">
-        <v>10100000</v>
-      </c>
-      <c r="K9" s="1">
-        <v>52</v>
-      </c>
-      <c r="L9" s="1">
-        <v>14</v>
-      </c>
-      <c r="M9" s="1">
-        <v>12</v>
-      </c>
-      <c r="N9" s="2">
-        <f t="shared" si="0"/>
-        <v>78</v>
-      </c>
-      <c r="O9" s="16">
-        <f t="shared" si="1"/>
-        <v>129487.17948717948</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="14">
-        <v>21</v>
-      </c>
-      <c r="C10" s="11">
-        <v>15</v>
-      </c>
-      <c r="D10" s="6">
-        <v>5</v>
-      </c>
-      <c r="E10" s="11">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6">
-        <v>0</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="15">
-        <v>6234000</v>
-      </c>
-      <c r="K10" s="1">
-        <v>52</v>
-      </c>
-      <c r="L10" s="1">
-        <v>10</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
-      <c r="N10" s="2">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="O10" s="16">
-        <f t="shared" si="1"/>
-        <v>100548.3870967742</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="14">
-        <v>21</v>
-      </c>
-      <c r="C11" s="11">
-        <v>15</v>
-      </c>
-      <c r="D11" s="6">
-        <v>5</v>
-      </c>
-      <c r="E11" s="11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="J11" s="15">
-        <v>7864000</v>
-      </c>
-      <c r="K11" s="1">
-        <v>52</v>
-      </c>
-      <c r="L11" s="1">
-        <v>10</v>
-      </c>
-      <c r="M11" s="1">
-        <v>10</v>
-      </c>
-      <c r="N11" s="2">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="O11" s="16">
-        <f t="shared" si="1"/>
-        <v>109222.22222222222</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="14">
-        <v>20</v>
-      </c>
-      <c r="C12" s="11">
-        <v>15</v>
-      </c>
-      <c r="D12" s="6">
-        <v>5</v>
-      </c>
-      <c r="E12" s="11">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6">
-        <v>0</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="J12" s="15">
-        <v>9365500</v>
-      </c>
-      <c r="K12" s="1">
-        <v>52</v>
-      </c>
-      <c r="L12" s="1">
-        <v>10</v>
-      </c>
-      <c r="M12" s="1">
-        <v>15</v>
-      </c>
-      <c r="N12" s="2">
-        <f t="shared" si="0"/>
-        <v>77</v>
-      </c>
-      <c r="O12" s="16">
-        <f t="shared" si="1"/>
-        <v>121629.87012987013</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="14">
-        <v>21</v>
-      </c>
-      <c r="C13" s="11">
-        <v>15</v>
-      </c>
-      <c r="D13" s="6">
-        <v>4</v>
-      </c>
-      <c r="E13" s="11">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6">
-        <v>0</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" s="15">
-        <v>6090000</v>
-      </c>
-      <c r="K13" s="1">
-        <v>52</v>
-      </c>
-      <c r="L13" s="1">
-        <v>6</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="O13" s="16">
-        <f t="shared" si="1"/>
-        <v>105000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="14">
-        <v>21</v>
-      </c>
-      <c r="C14" s="11">
-        <v>15</v>
-      </c>
-      <c r="D14" s="6">
-        <v>4</v>
-      </c>
-      <c r="E14" s="11">
-        <v>0</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0</v>
-      </c>
-      <c r="G14" s="11">
-        <v>0</v>
-      </c>
-      <c r="H14" s="6">
-        <v>0</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="J14" s="15">
-        <v>7282000</v>
-      </c>
-      <c r="K14" s="1">
-        <v>52</v>
-      </c>
-      <c r="L14" s="1">
-        <v>6</v>
-      </c>
-      <c r="M14" s="1">
-        <v>10</v>
-      </c>
-      <c r="N14" s="2">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="O14" s="16">
-        <f t="shared" si="1"/>
-        <v>107088.23529411765</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="14">
-        <v>20</v>
-      </c>
-      <c r="C15" s="11">
-        <v>15</v>
-      </c>
-      <c r="D15" s="6">
-        <v>4</v>
-      </c>
-      <c r="E15" s="11">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6">
-        <v>0</v>
-      </c>
-      <c r="G15" s="11">
-        <v>0</v>
-      </c>
-      <c r="H15" s="6">
-        <v>0</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J15" s="15">
-        <v>7651000</v>
-      </c>
-      <c r="K15" s="1">
-        <v>52</v>
-      </c>
-      <c r="L15" s="1">
-        <v>6</v>
-      </c>
-      <c r="M15" s="1">
-        <v>8</v>
-      </c>
-      <c r="N15" s="2">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="O15" s="16">
-        <f t="shared" si="1"/>
-        <v>115924.24242424243</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="14">
-        <v>19</v>
-      </c>
-      <c r="C16" s="11">
-        <v>15</v>
-      </c>
-      <c r="D16" s="6">
-        <v>4</v>
-      </c>
-      <c r="E16" s="11">
-        <v>0</v>
-      </c>
-      <c r="F16" s="6">
-        <v>0</v>
-      </c>
-      <c r="G16" s="11">
-        <v>0</v>
-      </c>
-      <c r="H16" s="6">
-        <v>0</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J16" s="15">
-        <v>8500000</v>
-      </c>
-      <c r="K16" s="1">
-        <v>52</v>
-      </c>
-      <c r="L16" s="1">
-        <v>6</v>
-      </c>
-      <c r="M16" s="1">
-        <v>3</v>
-      </c>
-      <c r="N16" s="2">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="O16" s="16">
-        <f t="shared" si="1"/>
-        <v>139344.26229508198</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="14">
-        <v>19</v>
-      </c>
-      <c r="C17" s="11">
-        <v>15</v>
-      </c>
-      <c r="D17" s="6">
-        <v>4</v>
-      </c>
-      <c r="E17" s="11">
-        <v>0</v>
-      </c>
-      <c r="F17" s="6">
-        <v>0</v>
-      </c>
-      <c r="G17" s="11">
-        <v>0</v>
-      </c>
-      <c r="H17" s="6">
-        <v>0</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J17" s="15">
-        <v>8100000</v>
-      </c>
-      <c r="K17" s="1">
-        <v>52</v>
-      </c>
-      <c r="L17" s="1">
-        <v>6</v>
-      </c>
-      <c r="M17" s="1">
-        <v>0</v>
-      </c>
-      <c r="N17" s="2">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="O17" s="16">
-        <f t="shared" si="1"/>
-        <v>139655.1724137931</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="14">
-        <v>21</v>
-      </c>
-      <c r="C18" s="11">
-        <v>15</v>
-      </c>
-      <c r="D18" s="6">
-        <v>3</v>
-      </c>
-      <c r="E18" s="11">
-        <v>0</v>
-      </c>
-      <c r="F18" s="6">
-        <v>0</v>
-      </c>
-      <c r="G18" s="11">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6">
-        <v>0</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="J18" s="15">
-        <v>7700000</v>
-      </c>
-      <c r="K18" s="1">
-        <v>52</v>
-      </c>
-      <c r="L18" s="1">
-        <v>3</v>
-      </c>
-      <c r="M18" s="1">
-        <v>15</v>
-      </c>
-      <c r="N18" s="2">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="O18" s="16">
-        <f t="shared" si="1"/>
-        <v>110000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="14">
-        <v>19</v>
-      </c>
-      <c r="C19" s="11">
-        <v>15</v>
-      </c>
-      <c r="D19" s="6">
-        <v>3</v>
-      </c>
-      <c r="E19" s="11">
-        <v>0</v>
-      </c>
-      <c r="F19" s="6">
-        <v>0</v>
-      </c>
-      <c r="G19" s="11">
-        <v>0</v>
-      </c>
-      <c r="H19" s="6">
-        <v>0</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J19" s="15">
-        <v>6237000</v>
-      </c>
-      <c r="K19" s="1">
-        <v>52</v>
-      </c>
-      <c r="L19" s="1">
-        <v>3</v>
-      </c>
-      <c r="M19" s="1">
-        <v>0</v>
-      </c>
-      <c r="N19" s="2">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="O19" s="16">
-        <f t="shared" si="1"/>
-        <v>113400</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="14">
-        <v>20</v>
-      </c>
-      <c r="C20" s="11">
-        <v>15</v>
-      </c>
-      <c r="D20" s="6">
-        <v>2</v>
-      </c>
-      <c r="E20" s="11">
-        <v>0</v>
-      </c>
-      <c r="F20" s="6">
-        <v>0</v>
-      </c>
-      <c r="G20" s="11">
-        <v>0</v>
-      </c>
-      <c r="H20" s="6">
-        <v>0</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J20" s="15">
-        <v>6245000</v>
-      </c>
-      <c r="K20" s="1">
-        <v>52</v>
-      </c>
-      <c r="L20" s="1">
-        <v>0</v>
-      </c>
-      <c r="M20" s="1">
-        <v>0</v>
-      </c>
-      <c r="N20" s="2">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="O20" s="16">
-        <f t="shared" si="1"/>
-        <v>120096.15384615384</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="14">
-        <v>20</v>
-      </c>
-      <c r="C21" s="11">
-        <v>15</v>
-      </c>
-      <c r="D21" s="6">
-        <v>0</v>
-      </c>
-      <c r="E21" s="11">
-        <v>0</v>
-      </c>
-      <c r="F21" s="6">
-        <v>0</v>
-      </c>
-      <c r="G21" s="11">
-        <v>0</v>
-      </c>
-      <c r="H21" s="6">
-        <v>0</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J21" s="15">
-        <v>7228500</v>
-      </c>
-      <c r="K21" s="1">
-        <v>52</v>
-      </c>
-      <c r="L21" s="1">
-        <v>0</v>
-      </c>
-      <c r="M21" s="1">
-        <v>0</v>
-      </c>
-      <c r="N21" s="2">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="O21" s="16">
-        <f t="shared" si="1"/>
-        <v>139009.61538461538</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="14">
-        <v>21</v>
-      </c>
-      <c r="C22" s="11">
-        <v>14</v>
-      </c>
-      <c r="D22" s="6">
-        <v>11</v>
-      </c>
-      <c r="E22" s="11">
-        <v>0</v>
-      </c>
-      <c r="F22" s="6">
-        <v>0</v>
-      </c>
-      <c r="G22" s="11">
-        <v>0</v>
-      </c>
-      <c r="H22" s="6">
-        <v>0</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J22" s="15">
-        <v>7482000</v>
-      </c>
-      <c r="K22" s="1">
-        <v>44</v>
-      </c>
-      <c r="L22" s="1">
-        <v>46</v>
-      </c>
-      <c r="M22" s="1">
-        <v>3</v>
-      </c>
-      <c r="N22" s="2">
-        <f t="shared" si="0"/>
-        <v>93</v>
-      </c>
-      <c r="O22" s="16">
-        <f t="shared" si="1"/>
-        <v>80451.612903225803</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="14">
-        <v>20</v>
-      </c>
-      <c r="C23" s="11">
-        <v>14</v>
-      </c>
-      <c r="D23" s="6">
-        <v>10</v>
-      </c>
-      <c r="E23" s="11">
-        <v>0</v>
-      </c>
-      <c r="F23" s="6">
-        <v>0</v>
-      </c>
-      <c r="G23" s="11">
-        <v>0</v>
-      </c>
-      <c r="H23" s="6">
-        <v>0</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="J23" s="15">
-        <v>6881000</v>
-      </c>
-      <c r="K23" s="1">
-        <v>44</v>
-      </c>
-      <c r="L23" s="1">
-        <v>37</v>
-      </c>
-      <c r="M23" s="1">
-        <v>7</v>
-      </c>
-      <c r="N23" s="2">
-        <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="O23" s="16">
-        <f t="shared" si="1"/>
-        <v>78193.181818181823</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="14">
-        <v>21</v>
-      </c>
-      <c r="C24" s="11">
-        <v>14</v>
-      </c>
-      <c r="D24" s="6">
-        <v>8</v>
-      </c>
-      <c r="E24" s="11">
-        <v>0</v>
-      </c>
-      <c r="F24" s="6">
-        <v>0</v>
-      </c>
-      <c r="G24" s="11">
-        <v>0</v>
-      </c>
-      <c r="H24" s="6">
-        <v>0</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J24" s="15">
-        <v>7407500</v>
-      </c>
-      <c r="K24" s="1">
-        <v>44</v>
-      </c>
-      <c r="L24" s="1">
-        <v>24</v>
-      </c>
-      <c r="M24" s="1">
-        <v>4</v>
-      </c>
-      <c r="N24" s="2">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="O24" s="16">
-        <f t="shared" si="1"/>
-        <v>102881.94444444444</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="14">
-        <v>21</v>
-      </c>
-      <c r="C25" s="11">
-        <v>14</v>
-      </c>
-      <c r="D25" s="6">
-        <v>7</v>
-      </c>
-      <c r="E25" s="11">
-        <v>0</v>
-      </c>
-      <c r="F25" s="6">
-        <v>0</v>
-      </c>
-      <c r="G25" s="11">
-        <v>0</v>
-      </c>
-      <c r="H25" s="6">
-        <v>0</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="J25" s="15">
-        <v>7500000</v>
-      </c>
-      <c r="K25" s="1">
-        <v>44</v>
-      </c>
-      <c r="L25" s="1">
-        <v>18</v>
-      </c>
-      <c r="M25" s="1">
-        <v>6</v>
-      </c>
-      <c r="N25" s="2">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="O25" s="16">
-        <f t="shared" si="1"/>
-        <v>110294.11764705883</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="14">
-        <v>21</v>
-      </c>
-      <c r="C26" s="11">
-        <v>14</v>
-      </c>
-      <c r="D26" s="6">
-        <v>7</v>
-      </c>
-      <c r="E26" s="11">
-        <v>0</v>
-      </c>
-      <c r="F26" s="6">
-        <v>0</v>
-      </c>
-      <c r="G26" s="11">
-        <v>0</v>
-      </c>
-      <c r="H26" s="6">
-        <v>0</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="J26" s="15">
-        <v>8280000</v>
-      </c>
-      <c r="K26" s="1">
-        <v>44</v>
-      </c>
-      <c r="L26" s="1">
-        <v>18</v>
-      </c>
-      <c r="M26" s="1">
-        <v>10</v>
-      </c>
-      <c r="N26" s="2">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="O26" s="16">
-        <f t="shared" si="1"/>
-        <v>115000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="14">
-        <v>21</v>
-      </c>
-      <c r="C27" s="11">
-        <v>14</v>
-      </c>
-      <c r="D27" s="6">
-        <v>6</v>
-      </c>
-      <c r="E27" s="11">
-        <v>0</v>
-      </c>
-      <c r="F27" s="6">
-        <v>0</v>
-      </c>
-      <c r="G27" s="11">
-        <v>0</v>
-      </c>
-      <c r="H27" s="6">
-        <v>0</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J27" s="15">
-        <v>6423000</v>
-      </c>
-      <c r="K27" s="1">
-        <v>44</v>
-      </c>
-      <c r="L27" s="1">
-        <v>14</v>
-      </c>
-      <c r="M27" s="1">
-        <v>5</v>
-      </c>
-      <c r="N27" s="2">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="O27" s="16">
-        <f t="shared" si="1"/>
-        <v>101952.38095238095</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="14">
-        <v>21</v>
-      </c>
-      <c r="C28" s="11">
-        <v>14</v>
-      </c>
-      <c r="D28" s="6">
-        <v>6</v>
-      </c>
-      <c r="E28" s="11">
-        <v>0</v>
-      </c>
-      <c r="F28" s="6">
-        <v>0</v>
-      </c>
-      <c r="G28" s="11">
-        <v>0</v>
-      </c>
-      <c r="H28" s="6">
-        <v>0</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J28" s="15">
-        <v>6667000</v>
-      </c>
-      <c r="K28" s="1">
-        <v>44</v>
-      </c>
-      <c r="L28" s="1">
-        <v>14</v>
-      </c>
-      <c r="M28" s="1">
-        <v>3</v>
-      </c>
-      <c r="N28" s="2">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="O28" s="16">
-        <f t="shared" si="1"/>
-        <v>109295.08196721312</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="14">
-        <v>21</v>
-      </c>
-      <c r="C29" s="11">
-        <v>14</v>
-      </c>
-      <c r="D29" s="6">
-        <v>6</v>
-      </c>
-      <c r="E29" s="11">
-        <v>0</v>
-      </c>
-      <c r="F29" s="6">
-        <v>0</v>
-      </c>
-      <c r="G29" s="11">
-        <v>0</v>
-      </c>
-      <c r="H29" s="6">
-        <v>0</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="J29" s="15">
-        <v>8300000</v>
-      </c>
-      <c r="K29" s="1">
-        <v>44</v>
-      </c>
-      <c r="L29" s="1">
-        <v>14</v>
-      </c>
-      <c r="M29" s="1">
-        <v>13</v>
-      </c>
-      <c r="N29" s="2">
-        <f t="shared" si="0"/>
-        <v>71</v>
-      </c>
-      <c r="O29" s="16">
-        <f t="shared" si="1"/>
-        <v>116901.40845070423</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="14">
-        <v>20</v>
-      </c>
-      <c r="C30" s="11">
-        <v>14</v>
-      </c>
-      <c r="D30" s="6">
-        <v>6</v>
-      </c>
-      <c r="E30" s="11">
-        <v>0</v>
-      </c>
-      <c r="F30" s="6">
-        <v>0</v>
-      </c>
-      <c r="G30" s="11">
-        <v>0</v>
-      </c>
-      <c r="H30" s="6">
-        <v>0</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J30" s="15">
-        <v>6588000</v>
-      </c>
-      <c r="K30" s="1">
-        <v>44</v>
-      </c>
-      <c r="L30" s="1">
-        <v>14</v>
-      </c>
-      <c r="M30" s="1">
-        <v>4</v>
-      </c>
-      <c r="N30" s="2">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="O30" s="16">
-        <f t="shared" si="1"/>
-        <v>106258.06451612903</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="14">
-        <v>21</v>
-      </c>
-      <c r="C31" s="11">
-        <v>14</v>
-      </c>
-      <c r="D31" s="6">
-        <v>5</v>
-      </c>
-      <c r="E31" s="11">
-        <v>0</v>
-      </c>
-      <c r="F31" s="6">
-        <v>0</v>
-      </c>
-      <c r="G31" s="11">
-        <v>0</v>
-      </c>
-      <c r="H31" s="6">
-        <v>0</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="J31" s="15">
-        <v>6334000</v>
-      </c>
-      <c r="K31" s="1">
-        <v>44</v>
-      </c>
-      <c r="L31" s="1">
-        <v>10</v>
-      </c>
-      <c r="M31" s="1">
-        <v>7</v>
-      </c>
-      <c r="N31" s="2">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="O31" s="16">
-        <f t="shared" si="1"/>
-        <v>103836.06557377049</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="14">
-        <v>19</v>
-      </c>
-      <c r="C32" s="11">
-        <v>14</v>
-      </c>
-      <c r="D32" s="6">
-        <v>5</v>
-      </c>
-      <c r="E32" s="11">
-        <v>0</v>
-      </c>
-      <c r="F32" s="6">
-        <v>0</v>
-      </c>
-      <c r="G32" s="11">
-        <v>0</v>
-      </c>
-      <c r="H32" s="6">
-        <v>0</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="J32" s="15">
-        <v>6400000</v>
-      </c>
-      <c r="K32" s="1">
-        <v>44</v>
-      </c>
-      <c r="L32" s="1">
-        <v>10</v>
-      </c>
-      <c r="M32" s="1">
-        <v>6</v>
-      </c>
-      <c r="N32" s="2">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="O32" s="16">
-        <f t="shared" si="1"/>
-        <v>106666.66666666667</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="14">
-        <v>21</v>
-      </c>
-      <c r="C33" s="11">
-        <v>14</v>
-      </c>
-      <c r="D33" s="6">
-        <v>4</v>
-      </c>
-      <c r="E33" s="11">
-        <v>0</v>
-      </c>
-      <c r="F33" s="6">
-        <v>0</v>
-      </c>
-      <c r="G33" s="11">
-        <v>0</v>
-      </c>
-      <c r="H33" s="6">
-        <v>0</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="J33" s="15">
-        <v>7000000</v>
-      </c>
-      <c r="K33" s="1">
-        <v>44</v>
-      </c>
-      <c r="L33" s="1">
-        <v>6</v>
-      </c>
-      <c r="M33" s="1">
-        <v>12</v>
-      </c>
-      <c r="N33" s="2">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="O33" s="16">
-        <f t="shared" si="1"/>
-        <v>112903.22580645161</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="14">
-        <v>20</v>
-      </c>
-      <c r="C34" s="11">
-        <v>14</v>
-      </c>
-      <c r="D34" s="6">
-        <v>4</v>
-      </c>
-      <c r="E34" s="11">
-        <v>0</v>
-      </c>
-      <c r="F34" s="6">
-        <v>0</v>
-      </c>
-      <c r="G34" s="11">
-        <v>0</v>
-      </c>
-      <c r="H34" s="6">
-        <v>0</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="J34" s="15">
-        <v>8259000</v>
-      </c>
-      <c r="K34" s="1">
-        <v>44</v>
-      </c>
-      <c r="L34" s="1">
-        <v>6</v>
-      </c>
-      <c r="M34" s="1">
-        <v>21</v>
-      </c>
-      <c r="N34" s="2">
-        <f t="shared" si="0"/>
-        <v>71</v>
-      </c>
-      <c r="O34" s="16">
-        <f t="shared" si="1"/>
-        <v>116323.94366197183</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="14">
-        <v>20</v>
-      </c>
-      <c r="C35" s="11">
-        <v>14</v>
-      </c>
-      <c r="D35" s="6">
-        <v>4</v>
-      </c>
-      <c r="E35" s="11">
-        <v>0</v>
-      </c>
-      <c r="F35" s="6">
-        <v>0</v>
-      </c>
-      <c r="G35" s="11">
-        <v>0</v>
-      </c>
-      <c r="H35" s="6">
-        <v>0</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="J35" s="15">
-        <v>8664000</v>
-      </c>
-      <c r="K35" s="1">
-        <v>44</v>
-      </c>
-      <c r="L35" s="1">
-        <v>6</v>
-      </c>
-      <c r="M35" s="1">
-        <v>10</v>
-      </c>
-      <c r="N35" s="2">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="O35" s="16">
-        <f t="shared" si="1"/>
-        <v>144400</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="14">
-        <v>21</v>
-      </c>
-      <c r="C36" s="11">
-        <v>14</v>
-      </c>
-      <c r="D36" s="6">
-        <v>3</v>
-      </c>
-      <c r="E36" s="11">
-        <v>0</v>
-      </c>
-      <c r="F36" s="6">
-        <v>0</v>
-      </c>
-      <c r="G36" s="11">
-        <v>0</v>
-      </c>
-      <c r="H36" s="6">
-        <v>0</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="J36" s="15">
-        <v>5463000</v>
-      </c>
-      <c r="K36" s="1">
-        <v>44</v>
-      </c>
-      <c r="L36" s="1">
-        <v>3</v>
-      </c>
-      <c r="M36" s="1">
-        <v>7</v>
-      </c>
-      <c r="N36" s="2">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="O36" s="16">
-        <f t="shared" si="1"/>
-        <v>101166.66666666667</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="14">
-        <v>20</v>
-      </c>
-      <c r="C37" s="11">
-        <v>14</v>
-      </c>
-      <c r="D37" s="6">
-        <v>3</v>
-      </c>
-      <c r="E37" s="11">
-        <v>0</v>
-      </c>
-      <c r="F37" s="6">
-        <v>0</v>
-      </c>
-      <c r="G37" s="11">
-        <v>0</v>
-      </c>
-      <c r="H37" s="6">
-        <v>0</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="J37" s="15">
-        <v>5652000</v>
-      </c>
-      <c r="K37" s="1">
-        <v>44</v>
-      </c>
-      <c r="L37" s="1">
-        <v>3</v>
-      </c>
-      <c r="M37" s="1">
-        <v>6</v>
-      </c>
-      <c r="N37" s="2">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="O37" s="16">
-        <f t="shared" si="1"/>
-        <v>106641.50943396226</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="14">
-        <v>20</v>
-      </c>
-      <c r="C38" s="11">
-        <v>14</v>
-      </c>
-      <c r="D38" s="6">
-        <v>3</v>
-      </c>
-      <c r="E38" s="11">
-        <v>0</v>
-      </c>
-      <c r="F38" s="6">
-        <v>0</v>
-      </c>
-      <c r="G38" s="11">
-        <v>0</v>
-      </c>
-      <c r="H38" s="6">
-        <v>0</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="J38" s="15">
-        <v>8021500</v>
-      </c>
-      <c r="K38" s="1">
-        <v>44</v>
-      </c>
-      <c r="L38" s="1">
-        <v>3</v>
-      </c>
-      <c r="M38" s="1">
-        <v>15</v>
-      </c>
-      <c r="N38" s="2">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="O38" s="16">
-        <f t="shared" si="1"/>
-        <v>129379.03225806452</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="14">
-        <v>21</v>
-      </c>
-      <c r="C39" s="11">
-        <v>14</v>
-      </c>
-      <c r="D39" s="6">
-        <v>2</v>
-      </c>
-      <c r="E39" s="11">
-        <v>0</v>
-      </c>
-      <c r="F39" s="6">
-        <v>0</v>
-      </c>
-      <c r="G39" s="11">
-        <v>0</v>
-      </c>
-      <c r="H39" s="6">
-        <v>0</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J39" s="15">
-        <v>5413000</v>
-      </c>
-      <c r="K39" s="1">
-        <v>44</v>
-      </c>
-      <c r="L39" s="1">
-        <v>0</v>
-      </c>
-      <c r="M39" s="1">
-        <v>3</v>
-      </c>
-      <c r="N39" s="2">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="O39" s="16">
-        <f t="shared" si="1"/>
-        <v>115170.21276595745</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="14">
-        <v>20</v>
-      </c>
-      <c r="C40" s="11">
-        <v>14</v>
-      </c>
-      <c r="D40" s="6">
-        <v>2</v>
-      </c>
-      <c r="E40" s="11">
-        <v>0</v>
-      </c>
-      <c r="F40" s="6">
-        <v>0</v>
-      </c>
-      <c r="G40" s="11">
-        <v>0</v>
-      </c>
-      <c r="H40" s="6">
-        <v>0</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J40" s="15">
-        <v>5780000</v>
-      </c>
-      <c r="K40" s="1">
-        <v>44</v>
-      </c>
-      <c r="L40" s="1">
-        <v>0</v>
-      </c>
-      <c r="M40" s="1">
-        <v>5</v>
-      </c>
-      <c r="N40" s="2">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="O40" s="16">
-        <f t="shared" si="1"/>
-        <v>117959.18367346939</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="14">
-        <v>20</v>
-      </c>
-      <c r="C41" s="11">
-        <v>14</v>
-      </c>
-      <c r="D41" s="6">
-        <v>2</v>
-      </c>
-      <c r="E41" s="11">
-        <v>0</v>
-      </c>
-      <c r="F41" s="6">
-        <v>0</v>
-      </c>
-      <c r="G41" s="11">
-        <v>0</v>
-      </c>
-      <c r="H41" s="6">
-        <v>0</v>
-      </c>
-      <c r="I41" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J41" s="15">
-        <v>5515000</v>
-      </c>
-      <c r="K41" s="1">
-        <v>44</v>
-      </c>
-      <c r="L41" s="1">
-        <v>0</v>
-      </c>
-      <c r="M41" s="1">
-        <v>0</v>
-      </c>
-      <c r="N41" s="2">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="O41" s="16">
-        <f t="shared" si="1"/>
-        <v>125340.90909090909</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="14">
-        <v>20</v>
-      </c>
-      <c r="C42" s="11">
-        <v>14</v>
-      </c>
-      <c r="D42" s="6">
-        <v>2</v>
-      </c>
-      <c r="E42" s="11">
-        <v>0</v>
-      </c>
-      <c r="F42" s="6">
-        <v>0</v>
-      </c>
-      <c r="G42" s="11">
-        <v>0</v>
-      </c>
-      <c r="H42" s="6">
-        <v>0</v>
-      </c>
-      <c r="I42" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="J42" s="15">
-        <v>7205000</v>
-      </c>
-      <c r="K42" s="1">
-        <v>44</v>
-      </c>
-      <c r="L42" s="1">
-        <v>0</v>
-      </c>
-      <c r="M42" s="1">
-        <v>13</v>
-      </c>
-      <c r="N42" s="2">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="O42" s="16">
-        <f t="shared" si="1"/>
-        <v>126403.50877192983</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="14">
-        <v>19</v>
-      </c>
-      <c r="C43" s="11">
-        <v>14</v>
-      </c>
-      <c r="D43" s="6">
-        <v>2</v>
-      </c>
-      <c r="E43" s="11">
-        <v>0</v>
-      </c>
-      <c r="F43" s="6">
-        <v>0</v>
-      </c>
-      <c r="G43" s="11">
-        <v>0</v>
-      </c>
-      <c r="H43" s="6">
-        <v>0</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="J43" s="15">
-        <v>5000000</v>
-      </c>
-      <c r="K43" s="1">
-        <v>44</v>
-      </c>
-      <c r="L43" s="1">
-        <v>0</v>
-      </c>
-      <c r="M43" s="1">
-        <v>6</v>
-      </c>
-      <c r="N43" s="2">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="O43" s="16">
-        <f t="shared" si="1"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="14">
-        <v>19</v>
-      </c>
-      <c r="C44" s="11">
-        <v>14</v>
-      </c>
-      <c r="D44" s="6">
-        <v>2</v>
-      </c>
-      <c r="E44" s="11">
-        <v>0</v>
-      </c>
-      <c r="F44" s="6">
-        <v>0</v>
-      </c>
-      <c r="G44" s="11">
-        <v>0</v>
-      </c>
-      <c r="H44" s="6">
-        <v>0</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J44" s="15">
-        <v>5500000</v>
-      </c>
-      <c r="K44" s="1">
-        <v>44</v>
-      </c>
-      <c r="L44" s="1">
-        <v>0</v>
-      </c>
-      <c r="M44" s="1">
-        <v>0</v>
-      </c>
-      <c r="N44" s="2">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="O44" s="16">
-        <f t="shared" si="1"/>
-        <v>125000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="14">
-        <v>20</v>
-      </c>
-      <c r="C45" s="11">
-        <v>14</v>
-      </c>
-      <c r="D45" s="6">
-        <v>1</v>
-      </c>
-      <c r="E45" s="11">
-        <v>0</v>
-      </c>
-      <c r="F45" s="6">
-        <v>0</v>
-      </c>
-      <c r="G45" s="11">
-        <v>0</v>
-      </c>
-      <c r="H45" s="6">
-        <v>0</v>
-      </c>
-      <c r="I45" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="J45" s="15">
-        <v>5000000</v>
-      </c>
-      <c r="K45" s="1">
-        <v>44</v>
-      </c>
-      <c r="L45" s="1">
-        <v>0</v>
-      </c>
-      <c r="M45" s="1">
-        <v>2</v>
-      </c>
-      <c r="N45" s="2">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="O45" s="16">
-        <f t="shared" si="1"/>
-        <v>108695.65217391304</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" s="14">
-        <v>20</v>
-      </c>
-      <c r="C46" s="11">
-        <v>14</v>
-      </c>
-      <c r="D46" s="6">
-        <v>1</v>
-      </c>
-      <c r="E46" s="11">
-        <v>0</v>
-      </c>
-      <c r="F46" s="6">
-        <v>0</v>
-      </c>
-      <c r="G46" s="11">
-        <v>0</v>
-      </c>
-      <c r="H46" s="6">
-        <v>0</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J46" s="15">
-        <v>5300000</v>
-      </c>
-      <c r="K46" s="1">
-        <v>44</v>
-      </c>
-      <c r="L46" s="1">
-        <v>0</v>
-      </c>
-      <c r="M46" s="1">
-        <v>4</v>
-      </c>
-      <c r="N46" s="2">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="O46" s="16">
-        <f t="shared" si="1"/>
-        <v>110416.66666666667</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B47" s="14">
-        <v>20</v>
-      </c>
-      <c r="C47" s="11">
-        <v>14</v>
-      </c>
-      <c r="D47" s="6">
-        <v>1</v>
-      </c>
-      <c r="E47" s="11">
-        <v>0</v>
-      </c>
-      <c r="F47" s="6">
-        <v>0</v>
-      </c>
-      <c r="G47" s="11">
-        <v>0</v>
-      </c>
-      <c r="H47" s="6">
-        <v>0</v>
-      </c>
-      <c r="I47" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J47" s="15">
-        <v>5000000</v>
-      </c>
-      <c r="K47" s="1">
-        <v>44</v>
-      </c>
-      <c r="L47" s="1">
-        <v>0</v>
-      </c>
-      <c r="M47" s="1">
-        <v>0</v>
-      </c>
-      <c r="N47" s="2">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="O47" s="16">
-        <f t="shared" si="1"/>
-        <v>113636.36363636363</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B48" s="14">
-        <v>19</v>
-      </c>
-      <c r="C48" s="11">
-        <v>14</v>
-      </c>
-      <c r="D48" s="6">
-        <v>1</v>
-      </c>
-      <c r="E48" s="11">
-        <v>0</v>
-      </c>
-      <c r="F48" s="6">
-        <v>0</v>
-      </c>
-      <c r="G48" s="11">
-        <v>0</v>
-      </c>
-      <c r="H48" s="6">
-        <v>0</v>
-      </c>
-      <c r="I48" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J48" s="15">
-        <v>5500000</v>
-      </c>
-      <c r="K48" s="1">
-        <v>44</v>
-      </c>
-      <c r="L48" s="1">
-        <v>0</v>
-      </c>
-      <c r="M48" s="1">
-        <v>0</v>
-      </c>
-      <c r="N48" s="2">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="O48" s="16">
-        <f t="shared" si="1"/>
-        <v>125000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49" s="14">
-        <v>21</v>
-      </c>
-      <c r="C49" s="11">
-        <v>14</v>
-      </c>
-      <c r="D49" s="6">
-        <v>0</v>
-      </c>
-      <c r="E49" s="11">
-        <v>0</v>
-      </c>
-      <c r="F49" s="6">
-        <v>0</v>
-      </c>
-      <c r="G49" s="11">
-        <v>0</v>
-      </c>
-      <c r="H49" s="6">
-        <v>0</v>
-      </c>
-      <c r="I49" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J49" s="15">
-        <v>4900000</v>
-      </c>
-      <c r="K49" s="1">
-        <v>44</v>
-      </c>
-      <c r="L49" s="1">
-        <v>0</v>
-      </c>
-      <c r="M49" s="1">
-        <v>3</v>
-      </c>
-      <c r="N49" s="2">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="O49" s="16">
-        <f t="shared" si="1"/>
-        <v>104255.31914893616</v>
+      <c r="K19" s="7">
+        <f>(11420+6465+4335+185)*1.04</f>
+        <v>23301.200000000001</v>
+      </c>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21">
+        <v>11013</v>
+      </c>
+      <c r="P19" s="21">
+        <v>8623</v>
+      </c>
+      <c r="Q19" s="21">
+        <v>8781</v>
+      </c>
+      <c r="R19" s="21">
+        <v>8183</v>
+      </c>
+      <c r="S19" s="21">
+        <v>7196</v>
+      </c>
+      <c r="T19" s="21">
+        <v>6600</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:O49">
-    <sortCondition descending="1" ref="C2:C49"/>
-    <sortCondition descending="1" ref="D2:D49"/>
-    <sortCondition descending="1" ref="B2:B49"/>
-  </sortState>
-  <conditionalFormatting sqref="C46:I46">
-    <cfRule type="colorScale" priority="38">
+  <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="D4:J19">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
+        <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C39:H39">
-    <cfRule type="colorScale" priority="37">
+  <conditionalFormatting sqref="K4:K19">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C41:H41">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I41">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:I38 C40:I40 C42:I45 C47:I49">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/projects/current/hattrick/z_352.xlsx
+++ b/projects/current/hattrick/z_352.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\HI\projects\current\hattrick\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27C8A11-D1C9-47BB-8913-EA631D667742}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F71247F-949A-473C-886F-1A7B35AA4BDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLANTILLA" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="65">
   <si>
     <t>DEF</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>Precios: S14 06/08/2021</t>
+  </si>
+  <si>
+    <t>#10</t>
   </si>
 </sst>
 </file>
@@ -702,10 +705,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AP90"/>
+  <dimension ref="A1:AP89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,8 +751,8 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="13">
-        <f>SUM(K3:K18)</f>
-        <v>510845.34</v>
+        <f>SUM(K3:K17)</f>
+        <v>466534.06000000006</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -948,7 +951,7 @@
         <v>33</v>
       </c>
       <c r="S4" s="2">
-        <f t="shared" ref="S4:S15" si="0">SUM(L4:R4)</f>
+        <f t="shared" ref="S4:S14" si="0">SUM(L4:R4)</f>
         <v>189</v>
       </c>
       <c r="W4" t="s">
@@ -1199,7 +1202,7 @@
         <v>16</v>
       </c>
       <c r="S8" s="2">
-        <f t="shared" ref="S8:S9" si="1">SUM(L8:R8)</f>
+        <f t="shared" ref="S8" si="1">SUM(L8:R8)</f>
         <v>161</v>
       </c>
       <c r="AO8" t="s">
@@ -1211,68 +1214,68 @@
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D9" s="10">
         <v>0</v>
       </c>
       <c r="E9" s="9">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F9" s="10">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="G9" s="9">
         <v>2</v>
       </c>
       <c r="H9" s="10">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I9" s="9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J9" s="10">
         <v>14</v>
       </c>
       <c r="K9" s="7">
-        <f>(32580+2045+305+245)*1.04</f>
-        <v>36582</v>
+        <f>(18370+9238+135)*1.04</f>
+        <v>28852.720000000001</v>
       </c>
       <c r="L9" s="1">
         <v>0</v>
       </c>
       <c r="M9" s="1">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="N9" s="1">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="O9" s="1">
         <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="Q9" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="R9" s="1">
         <v>16</v>
       </c>
       <c r="S9" s="2">
-        <f t="shared" si="1"/>
-        <v>195</v>
+        <f t="shared" ref="S9" si="2">SUM(L9:R9)</f>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>52</v>
@@ -1327,7 +1330,7 @@
         <v>16</v>
       </c>
       <c r="S10" s="2">
-        <f t="shared" ref="S10:S13" si="2">SUM(L10:R10)</f>
+        <f t="shared" ref="S10:S12" si="3">SUM(L10:R10)</f>
         <v>195</v>
       </c>
     </row>
@@ -1388,13 +1391,13 @@
         <v>16</v>
       </c>
       <c r="S11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>52</v>
@@ -1449,59 +1452,59 @@
         <v>16</v>
       </c>
       <c r="S12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="10">
-        <v>0</v>
-      </c>
-      <c r="E13" s="9">
-        <v>11</v>
-      </c>
-      <c r="F13" s="10">
-        <v>15</v>
-      </c>
-      <c r="G13" s="9">
-        <v>2</v>
-      </c>
-      <c r="H13" s="10">
-        <v>11</v>
-      </c>
-      <c r="I13" s="9">
+        <v>45</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>5</v>
+      </c>
+      <c r="F13" s="11">
+        <v>12</v>
+      </c>
+      <c r="G13" s="6">
+        <v>16</v>
+      </c>
+      <c r="H13" s="11">
+        <v>10</v>
+      </c>
+      <c r="I13" s="6">
         <v>7</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="11">
         <v>14</v>
       </c>
       <c r="K13" s="7">
-        <f>(32580+2045+305+245)*1.04</f>
-        <v>36582</v>
+        <f>(26040+135+4335+195+245)*1.04</f>
+        <v>32188</v>
       </c>
       <c r="L13" s="1">
         <v>0</v>
       </c>
       <c r="M13" s="1">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="N13" s="1">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="P13" s="1">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="Q13" s="1">
         <v>16</v>
@@ -1510,13 +1513,13 @@
         <v>16</v>
       </c>
       <c r="S13" s="2">
-        <f t="shared" si="2"/>
-        <v>195</v>
+        <f t="shared" ref="S13" si="4">SUM(L13:R13)</f>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>22</v>
@@ -1571,80 +1574,88 @@
         <v>16</v>
       </c>
       <c r="S14" s="2">
-        <f t="shared" ref="S14" si="3">SUM(L14:R14)</f>
+        <f t="shared" si="0"/>
         <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="11">
-        <v>0</v>
-      </c>
-      <c r="E15" s="6">
-        <v>5</v>
-      </c>
-      <c r="F15" s="11">
+      <c r="D15" s="10">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9">
+        <v>2</v>
+      </c>
+      <c r="F15" s="10">
         <v>12</v>
       </c>
-      <c r="G15" s="6">
-        <v>16</v>
-      </c>
-      <c r="H15" s="11">
-        <v>10</v>
-      </c>
-      <c r="I15" s="6">
+      <c r="G15" s="9">
         <v>7</v>
       </c>
-      <c r="J15" s="11">
+      <c r="H15" s="10">
+        <v>13.5</v>
+      </c>
+      <c r="I15" s="9">
+        <v>13</v>
+      </c>
+      <c r="J15" s="10">
         <v>14</v>
       </c>
       <c r="K15" s="7">
-        <f>(26040+135+4335+195+245)*1.04</f>
-        <v>32188</v>
+        <f>(11420+6465+4335+185)*1.04</f>
+        <v>23301.200000000001</v>
       </c>
       <c r="L15" s="1">
         <v>0</v>
       </c>
       <c r="M15" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N15" s="1">
         <v>48</v>
       </c>
       <c r="O15" s="1">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="P15" s="1">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="1">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="R15" s="1">
         <v>16</v>
       </c>
       <c r="S15" s="2">
-        <f t="shared" si="0"/>
-        <v>185</v>
+        <f>SUM(L15:R15)</f>
+        <v>191</v>
+      </c>
+      <c r="AO15" s="18">
+        <f>AO25+AO42+AO61+AO79</f>
+        <v>86.5</v>
+      </c>
+      <c r="AP15" s="18">
+        <f>AP25+AP42+AP61+AP79</f>
+        <v>5.40625</v>
       </c>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="10">
         <v>0</v>
@@ -1693,16 +1704,8 @@
         <v>16</v>
       </c>
       <c r="S16" s="2">
-        <f>SUM(L16:R16)</f>
+        <f t="shared" ref="S16:S17" si="5">SUM(L16:R16)</f>
         <v>191</v>
-      </c>
-      <c r="AO16" s="18">
-        <f>AO26+AO43+AO62+AO80</f>
-        <v>86.5</v>
-      </c>
-      <c r="AP16" s="18">
-        <f>AP26+AP43+AP62+AP80</f>
-        <v>5.40625</v>
       </c>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.25">
@@ -1713,7 +1716,7 @@
         <v>25</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D17" s="10">
         <v>0</v>
@@ -1762,291 +1765,346 @@
         <v>16</v>
       </c>
       <c r="S17" s="2">
-        <f t="shared" ref="S17:S18" si="4">SUM(L17:R17)</f>
+        <f t="shared" si="5"/>
         <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="10">
-        <v>0</v>
-      </c>
-      <c r="E18" s="9">
-        <v>2</v>
-      </c>
-      <c r="F18" s="10">
-        <v>12</v>
-      </c>
-      <c r="G18" s="9">
-        <v>7</v>
-      </c>
-      <c r="H18" s="10">
-        <v>13.5</v>
-      </c>
-      <c r="I18" s="9">
-        <v>13</v>
-      </c>
-      <c r="J18" s="10">
-        <v>14</v>
-      </c>
-      <c r="K18" s="7">
-        <f>(11420+6465+4335+185)*1.04</f>
-        <v>23301.200000000001</v>
-      </c>
-      <c r="L18" s="1">
-        <v>0</v>
-      </c>
-      <c r="M18" s="1">
-        <v>0</v>
-      </c>
-      <c r="N18" s="1">
-        <v>48</v>
-      </c>
-      <c r="O18" s="1">
-        <v>11</v>
-      </c>
-      <c r="P18" s="1">
-        <v>57</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>59</v>
-      </c>
-      <c r="R18" s="1">
-        <v>16</v>
-      </c>
-      <c r="S18" s="2">
-        <f t="shared" si="4"/>
-        <v>191</v>
+      <c r="K18" s="15">
+        <f>SUM(K20:K34)</f>
+        <v>8725</v>
+      </c>
+      <c r="AE18" s="15">
+        <f>SUM(AE20:AE34)</f>
+        <v>19345</v>
       </c>
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="K19" s="15">
-        <f>SUM(K21:K35)</f>
-        <v>8725</v>
-      </c>
-      <c r="AE19" s="15">
-        <f>SUM(AE21:AE35)</f>
-        <v>19345</v>
+      <c r="A19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM19" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="W20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ20" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM20" s="3" t="s">
-        <v>36</v>
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="11">
+        <v>2</v>
+      </c>
+      <c r="E20" s="6">
+        <v>2</v>
+      </c>
+      <c r="F20" s="11">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="11">
+        <v>0</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0</v>
+      </c>
+      <c r="J20" s="11">
+        <v>2</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="12">
+        <v>0</v>
+      </c>
+      <c r="P20" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="12">
+        <v>0</v>
+      </c>
+      <c r="R20" s="12">
+        <v>0</v>
+      </c>
+      <c r="S20" s="2">
+        <f>SUM(L20:R20)</f>
+        <v>0</v>
+      </c>
+      <c r="U20" t="s">
+        <v>12</v>
+      </c>
+      <c r="V20" s="4"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="11">
+        <v>2</v>
+      </c>
+      <c r="Y20" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z20" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="11">
+        <v>2</v>
+      </c>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="2">
+        <f>SUM(AF20:AL20)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="11">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>5</v>
+      </c>
+      <c r="F21" s="11">
+        <v>2</v>
+      </c>
+      <c r="G21" s="6">
+        <v>5</v>
+      </c>
+      <c r="H21" s="11">
+        <v>9</v>
+      </c>
+      <c r="I21" s="6">
+        <v>2</v>
+      </c>
+      <c r="J21" s="11">
+        <v>2</v>
+      </c>
+      <c r="K21" s="7">
+        <f>1810+150+150</f>
+        <v>2110</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>10</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="12">
+        <v>5.5</v>
+      </c>
+      <c r="P21" s="12">
+        <v>23</v>
+      </c>
+      <c r="Q21" s="12">
+        <v>0</v>
+      </c>
+      <c r="R21" s="12">
+        <v>0</v>
+      </c>
+      <c r="S21" s="2">
+        <f t="shared" ref="S21:S30" si="6">SUM(L21:R21)</f>
+        <v>38.5</v>
+      </c>
+      <c r="U21" t="s">
+        <v>14</v>
+      </c>
+      <c r="V21" s="4"/>
+      <c r="W21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="X21" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="6">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="11">
+        <v>2</v>
+      </c>
+      <c r="AA21" s="6">
         <v>12</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="11">
-        <v>2</v>
-      </c>
-      <c r="E21" s="6">
-        <v>2</v>
-      </c>
-      <c r="F21" s="11">
-        <v>0</v>
-      </c>
-      <c r="G21" s="6">
-        <v>0</v>
-      </c>
-      <c r="H21" s="11">
-        <v>0</v>
-      </c>
-      <c r="I21" s="6">
-        <v>0</v>
-      </c>
-      <c r="J21" s="11">
-        <v>2</v>
-      </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="1">
-        <v>0</v>
-      </c>
-      <c r="M21" s="1">
-        <v>0</v>
-      </c>
-      <c r="N21" s="1">
-        <v>0</v>
-      </c>
-      <c r="O21" s="12">
-        <v>0</v>
-      </c>
-      <c r="P21" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="12">
-        <v>0</v>
-      </c>
-      <c r="R21" s="12">
-        <v>0</v>
-      </c>
-      <c r="S21" s="2">
-        <f>SUM(L21:R21)</f>
-        <v>0</v>
-      </c>
-      <c r="U21" t="s">
-        <v>12</v>
-      </c>
-      <c r="V21" s="4"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="11">
-        <v>2</v>
-      </c>
-      <c r="Y21" s="6">
-        <v>2</v>
-      </c>
-      <c r="Z21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="6">
-        <v>0</v>
-      </c>
       <c r="AB21" s="11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC21" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD21" s="11">
         <v>2</v>
       </c>
-      <c r="AE21" s="7"/>
+      <c r="AE21" s="7">
+        <f>145+150+4470</f>
+        <v>4765</v>
+      </c>
       <c r="AF21" s="1">
         <v>0</v>
       </c>
       <c r="AG21" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH21" s="1">
         <v>0</v>
       </c>
       <c r="AI21" s="12">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AJ21" s="12">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AK21" s="12">
         <v>0</v>
@@ -2055,32 +2113,30 @@
         <v>0</v>
       </c>
       <c r="AM21" s="2">
-        <f>SUM(AF21:AL21)</f>
-        <v>0</v>
+        <f t="shared" ref="AM21" si="7">SUM(AF21:AL21)</f>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B22" s="14"/>
-      <c r="C22" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="C22" s="8"/>
       <c r="D22" s="11">
         <v>0</v>
       </c>
       <c r="E22" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F22" s="11">
         <v>2</v>
       </c>
       <c r="G22" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H22" s="11">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I22" s="6">
         <v>2</v>
@@ -2088,24 +2144,21 @@
       <c r="J22" s="11">
         <v>2</v>
       </c>
-      <c r="K22" s="7">
-        <f>1810+150+150</f>
-        <v>2110</v>
-      </c>
+      <c r="K22" s="7"/>
       <c r="L22" s="1">
         <v>0</v>
       </c>
       <c r="M22" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N22" s="1">
         <v>0</v>
       </c>
       <c r="O22" s="12">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="P22" s="12">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="12">
         <v>0</v>
@@ -2114,30 +2167,28 @@
         <v>0</v>
       </c>
       <c r="S22" s="2">
-        <f t="shared" ref="S22:S31" si="5">SUM(L22:R22)</f>
-        <v>38.5</v>
+        <f>SUM(L22:R22)</f>
+        <v>0</v>
       </c>
       <c r="U22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V22" s="4"/>
-      <c r="W22" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="W22" s="8"/>
       <c r="X22" s="11">
         <v>0</v>
       </c>
       <c r="Y22" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Z22" s="11">
         <v>2</v>
       </c>
       <c r="AA22" s="6">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AB22" s="11">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AC22" s="6">
         <v>2</v>
@@ -2145,24 +2196,21 @@
       <c r="AD22" s="11">
         <v>2</v>
       </c>
-      <c r="AE22" s="7">
-        <f>145+150+4470</f>
-        <v>4765</v>
-      </c>
+      <c r="AE22" s="7"/>
       <c r="AF22" s="1">
         <v>0</v>
       </c>
       <c r="AG22" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AH22" s="1">
         <v>0</v>
       </c>
       <c r="AI22" s="12">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="12">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AK22" s="12">
         <v>0</v>
@@ -2171,13 +2219,13 @@
         <v>0</v>
       </c>
       <c r="AM22" s="2">
-        <f t="shared" ref="AM22" si="6">SUM(AF22:AL22)</f>
-        <v>66</v>
+        <f>SUM(AF22:AL22)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="8"/>
@@ -2229,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="V23" s="4"/>
       <c r="W23" s="8"/>
@@ -2283,7 +2331,7 @@
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="8"/>
@@ -2331,11 +2379,11 @@
         <v>0</v>
       </c>
       <c r="S24" s="2">
-        <f>SUM(L24:R24)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="V24" s="4"/>
       <c r="W24" s="8"/>
@@ -2383,13 +2431,19 @@
         <v>0</v>
       </c>
       <c r="AM24" s="2">
-        <f>SUM(AF24:AL24)</f>
-        <v>0</v>
+        <f t="shared" ref="AM24:AM30" si="8">SUM(AF24:AL24)</f>
+        <v>0</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="8"/>
@@ -2437,11 +2491,11 @@
         <v>0</v>
       </c>
       <c r="S25" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V25" s="4"/>
       <c r="W25" s="8"/>
@@ -2489,19 +2543,24 @@
         <v>0</v>
       </c>
       <c r="AM25" s="2">
-        <f t="shared" ref="AM25:AM31" si="7">SUM(AF25:AL25)</f>
-        <v>0</v>
-      </c>
-      <c r="AO25" t="s">
-        <v>42</v>
-      </c>
-      <c r="AP25" t="s">
-        <v>43</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AN25" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO25">
+        <f>33-5.5</f>
+        <v>27.5</v>
+      </c>
+      <c r="AP25" s="17">
+        <f>AO25/16</f>
+        <v>1.71875</v>
       </c>
     </row>
     <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="8"/>
@@ -2549,11 +2608,11 @@
         <v>0</v>
       </c>
       <c r="S26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V26" s="4"/>
       <c r="W26" s="8"/>
@@ -2601,24 +2660,13 @@
         <v>0</v>
       </c>
       <c r="AM26" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AN26" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO26">
-        <f>33-5.5</f>
-        <v>27.5</v>
-      </c>
-      <c r="AP26" s="17">
-        <f>AO26/16</f>
-        <v>1.71875</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="8"/>
@@ -2666,11 +2714,11 @@
         <v>0</v>
       </c>
       <c r="S27" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V27" s="4"/>
       <c r="W27" s="8"/>
@@ -2718,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="AM27" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="8"/>
@@ -2772,11 +2820,11 @@
         <v>0</v>
       </c>
       <c r="S28" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V28" s="4"/>
       <c r="W28" s="8"/>
@@ -2824,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="AM28" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2878,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="S29" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U29" t="s">
@@ -2930,16 +2978,18 @@
         <v>0</v>
       </c>
       <c r="AM29" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B30" s="14"/>
-      <c r="C30" s="8"/>
+      <c r="C30" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="D30" s="11">
         <v>0</v>
       </c>
@@ -2950,18 +3000,21 @@
         <v>2</v>
       </c>
       <c r="G30" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H30" s="11">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I30" s="6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J30" s="11">
         <v>2</v>
       </c>
-      <c r="K30" s="7"/>
+      <c r="K30" s="7">
+        <f>1810+245+150</f>
+        <v>2205</v>
+      </c>
       <c r="L30" s="1">
         <v>0</v>
       </c>
@@ -2972,26 +3025,28 @@
         <v>0</v>
       </c>
       <c r="O30" s="12">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="P30" s="12">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Q30" s="12">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="R30" s="12">
         <v>0</v>
       </c>
       <c r="S30" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>44.5</v>
       </c>
       <c r="U30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V30" s="4"/>
-      <c r="W30" s="8"/>
+      <c r="W30" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="X30" s="11">
         <v>0</v>
       </c>
@@ -3002,18 +3057,21 @@
         <v>2</v>
       </c>
       <c r="AA30" s="6">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AB30" s="11">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AC30" s="6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AD30" s="11">
         <v>2</v>
       </c>
-      <c r="AE30" s="7"/>
+      <c r="AE30" s="7">
+        <f>145+245+4470</f>
+        <v>4860</v>
+      </c>
       <c r="AF30" s="1">
         <v>0</v>
       </c>
@@ -3024,29 +3082,29 @@
         <v>0</v>
       </c>
       <c r="AI30" s="12">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AJ30" s="12">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AK30" s="12">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AL30" s="12">
         <v>0</v>
       </c>
       <c r="AM30" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D31" s="11">
         <v>0</v>
@@ -3095,15 +3153,15 @@
         <v>0</v>
       </c>
       <c r="S31" s="2">
-        <f t="shared" si="5"/>
+        <f>SUM(L31:R31)</f>
         <v>44.5</v>
       </c>
       <c r="U31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="V31" s="4"/>
       <c r="W31" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="X31" s="11">
         <v>0</v>
@@ -3152,13 +3210,13 @@
         <v>0</v>
       </c>
       <c r="AM31" s="2">
-        <f t="shared" si="7"/>
+        <f>SUM(AF31:AL31)</f>
         <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="8" t="s">
@@ -3215,7 +3273,7 @@
         <v>44.5</v>
       </c>
       <c r="U32" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="V32" s="4"/>
       <c r="W32" s="8" t="s">
@@ -3274,12 +3332,10 @@
     </row>
     <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B33" s="14"/>
-      <c r="C33" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="C33" s="8"/>
       <c r="D33" s="11">
         <v>0</v>
       </c>
@@ -3290,21 +3346,18 @@
         <v>2</v>
       </c>
       <c r="G33" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H33" s="11">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I33" s="6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J33" s="11">
         <v>2</v>
       </c>
-      <c r="K33" s="7">
-        <f>1810+245+150</f>
-        <v>2205</v>
-      </c>
+      <c r="K33" s="7"/>
       <c r="L33" s="1">
         <v>0</v>
       </c>
@@ -3315,28 +3368,26 @@
         <v>0</v>
       </c>
       <c r="O33" s="12">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="P33" s="12">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="12">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="R33" s="12">
         <v>0</v>
       </c>
       <c r="S33" s="2">
-        <f>SUM(L33:R33)</f>
-        <v>44.5</v>
+        <f t="shared" ref="S33:S35" si="9">SUM(L33:R33)</f>
+        <v>0</v>
       </c>
       <c r="U33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V33" s="4"/>
-      <c r="W33" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="W33" s="8"/>
       <c r="X33" s="11">
         <v>0</v>
       </c>
@@ -3347,21 +3398,18 @@
         <v>2</v>
       </c>
       <c r="AA33" s="6">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AB33" s="11">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AC33" s="6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AD33" s="11">
         <v>2</v>
       </c>
-      <c r="AE33" s="7">
-        <f>145+245+4470</f>
-        <v>4860</v>
-      </c>
+      <c r="AE33" s="7"/>
       <c r="AF33" s="1">
         <v>0</v>
       </c>
@@ -3372,25 +3420,25 @@
         <v>0</v>
       </c>
       <c r="AI33" s="12">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AJ33" s="12">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AK33" s="12">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AL33" s="12">
         <v>0</v>
       </c>
       <c r="AM33" s="2">
-        <f>SUM(AF33:AL33)</f>
-        <v>72</v>
+        <f t="shared" ref="AM33:AM35" si="10">SUM(AF33:AL33)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="8"/>
@@ -3438,11 +3486,11 @@
         <v>0</v>
       </c>
       <c r="S34" s="2">
-        <f t="shared" ref="S34:S36" si="8">SUM(L34:R34)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V34" s="4"/>
       <c r="W34" s="8"/>
@@ -3490,13 +3538,13 @@
         <v>0</v>
       </c>
       <c r="AM34" s="2">
-        <f t="shared" ref="AM34:AM36" si="9">SUM(AF34:AL34)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="8"/>
@@ -3544,11 +3592,11 @@
         <v>0</v>
       </c>
       <c r="S35" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U35" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="V35" s="4"/>
       <c r="W35" s="8"/>
@@ -3596,284 +3644,289 @@
         <v>0</v>
       </c>
       <c r="AM35" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="11">
-        <v>0</v>
-      </c>
-      <c r="E36" s="6">
-        <v>2</v>
-      </c>
-      <c r="F36" s="11">
-        <v>2</v>
-      </c>
-      <c r="G36" s="6">
-        <v>2</v>
-      </c>
-      <c r="H36" s="11">
-        <v>2</v>
-      </c>
-      <c r="I36" s="6">
-        <v>2</v>
-      </c>
-      <c r="J36" s="11">
-        <v>2</v>
-      </c>
-      <c r="K36" s="7"/>
-      <c r="L36" s="1">
-        <v>0</v>
-      </c>
-      <c r="M36" s="1">
-        <v>0</v>
-      </c>
-      <c r="N36" s="1">
-        <v>0</v>
-      </c>
-      <c r="O36" s="12">
-        <v>0</v>
-      </c>
-      <c r="P36" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="12">
-        <v>0</v>
-      </c>
-      <c r="R36" s="12">
-        <v>0</v>
-      </c>
-      <c r="S36" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U36" t="s">
-        <v>38</v>
-      </c>
-      <c r="V36" s="4"/>
-      <c r="W36" s="8"/>
-      <c r="X36" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="6">
-        <v>2</v>
-      </c>
-      <c r="Z36" s="11">
-        <v>2</v>
-      </c>
-      <c r="AA36" s="6">
-        <v>2</v>
-      </c>
-      <c r="AB36" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC36" s="6">
-        <v>2</v>
-      </c>
-      <c r="AD36" s="11">
-        <v>2</v>
-      </c>
-      <c r="AE36" s="7"/>
-      <c r="AF36" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG36" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH36" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI36" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ36" s="12">
-        <v>0</v>
-      </c>
-      <c r="AK36" s="12">
-        <v>0</v>
-      </c>
-      <c r="AL36" s="12">
-        <v>0</v>
-      </c>
-      <c r="AM36" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
+      <c r="K36" s="15">
+        <f>SUM(K38:K52)</f>
+        <v>34985</v>
+      </c>
+      <c r="AE36" s="15">
+        <f>SUM(AE38:AE52)</f>
+        <v>66725</v>
       </c>
     </row>
     <row r="37" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="K37" s="15">
-        <f>SUM(K39:K53)</f>
-        <v>34985</v>
-      </c>
-      <c r="AE37" s="15">
-        <f>SUM(AE39:AE53)</f>
-        <v>66725</v>
+      <c r="A37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S37" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="V37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="W37" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK37" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM37" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O38" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P38" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q38" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="R38" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S38" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="U38" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="V38" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="W38" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X38" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y38" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA38" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB38" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC38" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD38" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE38" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF38" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG38" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH38" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI38" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ38" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK38" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL38" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM38" s="3" t="s">
-        <v>36</v>
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="11">
+        <v>2</v>
+      </c>
+      <c r="E38" s="6">
+        <v>2</v>
+      </c>
+      <c r="F38" s="11">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0</v>
+      </c>
+      <c r="H38" s="11">
+        <v>0</v>
+      </c>
+      <c r="I38" s="6">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11">
+        <v>2</v>
+      </c>
+      <c r="K38" s="7"/>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0</v>
+      </c>
+      <c r="O38" s="12">
+        <v>0</v>
+      </c>
+      <c r="P38" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="12">
+        <v>0</v>
+      </c>
+      <c r="R38" s="12">
+        <v>0</v>
+      </c>
+      <c r="S38" s="2">
+        <f>SUM(L38:R38)</f>
+        <v>0</v>
+      </c>
+      <c r="U38" t="s">
+        <v>12</v>
+      </c>
+      <c r="V38" s="4"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="11">
+        <v>2</v>
+      </c>
+      <c r="Y38" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="11">
+        <v>2</v>
+      </c>
+      <c r="AE38" s="7"/>
+      <c r="AF38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM38" s="2">
+        <f>SUM(AF38:AL38)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="11">
+        <v>0</v>
+      </c>
+      <c r="E39" s="6">
+        <v>5</v>
+      </c>
+      <c r="F39" s="11">
+        <v>2</v>
+      </c>
+      <c r="G39" s="6">
         <v>12</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="11">
-        <v>2</v>
-      </c>
-      <c r="E39" s="6">
-        <v>2</v>
-      </c>
-      <c r="F39" s="11">
-        <v>0</v>
-      </c>
-      <c r="G39" s="6">
-        <v>0</v>
-      </c>
       <c r="H39" s="11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I39" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" s="11">
         <v>2</v>
       </c>
-      <c r="K39" s="7"/>
+      <c r="K39" s="7">
+        <f>145+150+4470</f>
+        <v>4765</v>
+      </c>
       <c r="L39" s="1">
         <v>0</v>
       </c>
       <c r="M39" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N39" s="1">
         <v>0</v>
       </c>
       <c r="O39" s="12">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="P39" s="12">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Q39" s="12">
         <v>0</v>
@@ -3882,50 +3935,56 @@
         <v>0</v>
       </c>
       <c r="S39" s="2">
-        <f>SUM(L39:R39)</f>
-        <v>0</v>
+        <f t="shared" ref="S39" si="11">SUM(L39:R39)</f>
+        <v>66</v>
       </c>
       <c r="U39" t="s">
+        <v>14</v>
+      </c>
+      <c r="V39" s="4"/>
+      <c r="W39" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="X39" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="6">
+        <f>9+6/7</f>
+        <v>9.8571428571428577</v>
+      </c>
+      <c r="Z39" s="11">
+        <v>2</v>
+      </c>
+      <c r="AA39" s="6">
         <v>12</v>
       </c>
-      <c r="V39" s="4"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="11">
-        <v>2</v>
-      </c>
-      <c r="Y39" s="6">
-        <v>2</v>
-      </c>
-      <c r="Z39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="6">
-        <v>0</v>
-      </c>
       <c r="AB39" s="11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC39" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD39" s="11">
         <v>2</v>
       </c>
-      <c r="AE39" s="7"/>
+      <c r="AE39" s="7">
+        <f>145+1150+4470</f>
+        <v>5765</v>
+      </c>
       <c r="AF39" s="1">
         <v>0</v>
       </c>
       <c r="AG39" s="1">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AH39" s="1">
         <v>0</v>
       </c>
       <c r="AI39" s="12">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AJ39" s="12">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AK39" s="12">
         <v>0</v>
@@ -3934,29 +3993,27 @@
         <v>0</v>
       </c>
       <c r="AM39" s="2">
-        <f>SUM(AF39:AL39)</f>
-        <v>0</v>
+        <f t="shared" ref="AM39" si="12">SUM(AF39:AL39)</f>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B40" s="14"/>
-      <c r="C40" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="C40" s="8"/>
       <c r="D40" s="11">
         <v>0</v>
       </c>
       <c r="E40" s="6">
+        <v>9</v>
+      </c>
+      <c r="F40" s="11">
+        <v>2</v>
+      </c>
+      <c r="G40" s="6">
         <v>5</v>
-      </c>
-      <c r="F40" s="11">
-        <v>2</v>
-      </c>
-      <c r="G40" s="6">
-        <v>12</v>
       </c>
       <c r="H40" s="11">
         <v>9</v>
@@ -3968,20 +4025,20 @@
         <v>2</v>
       </c>
       <c r="K40" s="7">
-        <f>145+150+4470</f>
-        <v>4765</v>
+        <f>2330+145+125</f>
+        <v>2600</v>
       </c>
       <c r="L40" s="1">
         <v>0</v>
       </c>
       <c r="M40" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N40" s="1">
         <v>0</v>
       </c>
       <c r="O40" s="12">
-        <v>33</v>
+        <v>5.5</v>
       </c>
       <c r="P40" s="12">
         <v>23</v>
@@ -3993,28 +4050,25 @@
         <v>0</v>
       </c>
       <c r="S40" s="2">
-        <f t="shared" ref="S40" si="10">SUM(L40:R40)</f>
-        <v>66</v>
+        <f>SUM(L40:R40)</f>
+        <v>58.5</v>
       </c>
       <c r="U40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V40" s="4"/>
-      <c r="W40" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="W40" s="8"/>
       <c r="X40" s="11">
         <v>0</v>
       </c>
       <c r="Y40" s="6">
-        <f>9+6/7</f>
-        <v>9.8571428571428577</v>
+        <v>12</v>
       </c>
       <c r="Z40" s="11">
         <v>2</v>
       </c>
       <c r="AA40" s="6">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AB40" s="11">
         <v>9</v>
@@ -4026,20 +4080,20 @@
         <v>2</v>
       </c>
       <c r="AE40" s="7">
-        <f>145+1150+4470</f>
-        <v>5765</v>
+        <f t="shared" ref="AE40:AE45" si="13">7010+195+125</f>
+        <v>7330</v>
       </c>
       <c r="AF40" s="1">
         <v>0</v>
       </c>
       <c r="AG40" s="1">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="AH40" s="1">
         <v>0</v>
       </c>
       <c r="AI40" s="12">
-        <v>33</v>
+        <v>5.5</v>
       </c>
       <c r="AJ40" s="12">
         <v>23</v>
@@ -4051,13 +4105,13 @@
         <v>0</v>
       </c>
       <c r="AM40" s="2">
-        <f t="shared" ref="AM40" si="11">SUM(AF40:AL40)</f>
-        <v>92</v>
+        <f>SUM(AF40:AL40)</f>
+        <v>84.5</v>
       </c>
     </row>
     <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B41" s="14"/>
       <c r="C41" s="8"/>
@@ -4112,7 +4166,7 @@
         <v>58.5</v>
       </c>
       <c r="U41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="V41" s="4"/>
       <c r="W41" s="8"/>
@@ -4138,7 +4192,7 @@
         <v>2</v>
       </c>
       <c r="AE41" s="7">
-        <f t="shared" ref="AE41:AE46" si="12">7010+195+125</f>
+        <f t="shared" si="13"/>
         <v>7330</v>
       </c>
       <c r="AF41" s="1">
@@ -4166,10 +4220,16 @@
         <f>SUM(AF41:AL41)</f>
         <v>84.5</v>
       </c>
+      <c r="AO41" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP41" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="42" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B42" s="14"/>
       <c r="C42" s="8"/>
@@ -4180,10 +4240,10 @@
         <v>9</v>
       </c>
       <c r="F42" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G42" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H42" s="11">
         <v>9</v>
@@ -4195,8 +4255,8 @@
         <v>2</v>
       </c>
       <c r="K42" s="7">
-        <f>2330+145+125</f>
-        <v>2600</v>
+        <f>2330+145+135</f>
+        <v>2610</v>
       </c>
       <c r="L42" s="1">
         <v>0</v>
@@ -4205,10 +4265,10 @@
         <v>30</v>
       </c>
       <c r="N42" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O42" s="12">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="P42" s="12">
         <v>23</v>
@@ -4220,11 +4280,11 @@
         <v>0</v>
       </c>
       <c r="S42" s="2">
-        <f>SUM(L42:R42)</f>
-        <v>58.5</v>
+        <f t="shared" ref="S42:S48" si="14">SUM(L42:R42)</f>
+        <v>62</v>
       </c>
       <c r="U42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="V42" s="4"/>
       <c r="W42" s="8"/>
@@ -4235,10 +4295,10 @@
         <v>12</v>
       </c>
       <c r="Z42" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AA42" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB42" s="11">
         <v>9</v>
@@ -4250,7 +4310,7 @@
         <v>2</v>
       </c>
       <c r="AE42" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7330</v>
       </c>
       <c r="AF42" s="1">
@@ -4260,10 +4320,10 @@
         <v>56</v>
       </c>
       <c r="AH42" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AI42" s="12">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="AJ42" s="12">
         <v>23</v>
@@ -4275,19 +4335,24 @@
         <v>0</v>
       </c>
       <c r="AM42" s="2">
-        <f>SUM(AF42:AL42)</f>
-        <v>84.5</v>
-      </c>
-      <c r="AO42" t="s">
-        <v>42</v>
-      </c>
-      <c r="AP42" t="s">
-        <v>43</v>
+        <f t="shared" ref="AM42:AM48" si="15">SUM(AF42:AL42)</f>
+        <v>88</v>
+      </c>
+      <c r="AN42" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO42">
+        <f>56-30</f>
+        <v>26</v>
+      </c>
+      <c r="AP42" s="17">
+        <f>AO42/16</f>
+        <v>1.625</v>
       </c>
     </row>
     <row r="43" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B43" s="14"/>
       <c r="C43" s="8"/>
@@ -4301,7 +4366,7 @@
         <v>5</v>
       </c>
       <c r="G43" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H43" s="11">
         <v>9</v>
@@ -4338,11 +4403,11 @@
         <v>0</v>
       </c>
       <c r="S43" s="2">
-        <f t="shared" ref="S43:S49" si="13">SUM(L43:R43)</f>
+        <f t="shared" si="14"/>
         <v>62</v>
       </c>
       <c r="U43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V43" s="4"/>
       <c r="W43" s="8"/>
@@ -4356,7 +4421,7 @@
         <v>5</v>
       </c>
       <c r="AA43" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB43" s="11">
         <v>9</v>
@@ -4368,7 +4433,7 @@
         <v>2</v>
       </c>
       <c r="AE43" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7330</v>
       </c>
       <c r="AF43" s="1">
@@ -4393,24 +4458,13 @@
         <v>0</v>
       </c>
       <c r="AM43" s="2">
-        <f t="shared" ref="AM43:AM49" si="14">SUM(AF43:AL43)</f>
+        <f t="shared" si="15"/>
         <v>88</v>
-      </c>
-      <c r="AN43" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO43">
-        <f>56-30</f>
-        <v>26</v>
-      </c>
-      <c r="AP43" s="17">
-        <f>AO43/16</f>
-        <v>1.625</v>
       </c>
     </row>
     <row r="44" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B44" s="14"/>
       <c r="C44" s="8"/>
@@ -4461,11 +4515,11 @@
         <v>0</v>
       </c>
       <c r="S44" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>62</v>
       </c>
       <c r="U44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V44" s="4"/>
       <c r="W44" s="8"/>
@@ -4491,7 +4545,7 @@
         <v>2</v>
       </c>
       <c r="AE44" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7330</v>
       </c>
       <c r="AF44" s="1">
@@ -4516,13 +4570,13 @@
         <v>0</v>
       </c>
       <c r="AM44" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B45" s="14"/>
       <c r="C45" s="8"/>
@@ -4573,11 +4627,11 @@
         <v>0</v>
       </c>
       <c r="S45" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>62</v>
       </c>
       <c r="U45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V45" s="4"/>
       <c r="W45" s="8"/>
@@ -4603,7 +4657,7 @@
         <v>2</v>
       </c>
       <c r="AE45" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7330</v>
       </c>
       <c r="AF45" s="1">
@@ -4628,13 +4682,13 @@
         <v>0</v>
       </c>
       <c r="AM45" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B46" s="14"/>
       <c r="C46" s="8"/>
@@ -4642,16 +4696,16 @@
         <v>0</v>
       </c>
       <c r="E46" s="6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F46" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G46" s="6">
         <v>2</v>
       </c>
       <c r="H46" s="11">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I46" s="6">
         <v>2</v>
@@ -4659,24 +4713,21 @@
       <c r="J46" s="11">
         <v>2</v>
       </c>
-      <c r="K46" s="7">
-        <f>2330+145+135</f>
-        <v>2610</v>
-      </c>
+      <c r="K46" s="7"/>
       <c r="L46" s="1">
         <v>0</v>
       </c>
       <c r="M46" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="N46" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O46" s="12">
         <v>0</v>
       </c>
       <c r="P46" s="12">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="12">
         <v>0</v>
@@ -4685,11 +4736,11 @@
         <v>0</v>
       </c>
       <c r="S46" s="2">
-        <f t="shared" si="13"/>
-        <v>62</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="U46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V46" s="4"/>
       <c r="W46" s="8"/>
@@ -4697,16 +4748,16 @@
         <v>0</v>
       </c>
       <c r="Y46" s="6">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="Z46" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA46" s="6">
         <v>2</v>
       </c>
       <c r="AB46" s="11">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AC46" s="6">
         <v>2</v>
@@ -4714,24 +4765,21 @@
       <c r="AD46" s="11">
         <v>2</v>
       </c>
-      <c r="AE46" s="7">
-        <f t="shared" si="12"/>
-        <v>7330</v>
-      </c>
+      <c r="AE46" s="7"/>
       <c r="AF46" s="1">
         <v>0</v>
       </c>
       <c r="AG46" s="1">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="AH46" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AI46" s="12">
         <v>0</v>
       </c>
       <c r="AJ46" s="12">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AK46" s="12">
         <v>0</v>
@@ -4740,8 +4788,8 @@
         <v>0</v>
       </c>
       <c r="AM46" s="2">
-        <f t="shared" si="14"/>
-        <v>88</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:42" x14ac:dyDescent="0.25">
@@ -4794,7 +4842,7 @@
         <v>0</v>
       </c>
       <c r="S47" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U47" t="s">
@@ -4846,16 +4894,18 @@
         <v>0</v>
       </c>
       <c r="AM47" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B48" s="14"/>
-      <c r="C48" s="8"/>
+      <c r="C48" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="D48" s="11">
         <v>0</v>
       </c>
@@ -4866,18 +4916,21 @@
         <v>2</v>
       </c>
       <c r="G48" s="6">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H48" s="11">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I48" s="6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J48" s="11">
         <v>2</v>
       </c>
-      <c r="K48" s="7"/>
+      <c r="K48" s="7">
+        <f>145+245+4470</f>
+        <v>4860</v>
+      </c>
       <c r="L48" s="1">
         <v>0</v>
       </c>
@@ -4888,81 +4941,87 @@
         <v>0</v>
       </c>
       <c r="O48" s="12">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="P48" s="12">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Q48" s="12">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="R48" s="12">
         <v>0</v>
       </c>
       <c r="S48" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>72</v>
       </c>
       <c r="U48" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V48" s="4"/>
-      <c r="W48" s="8"/>
+      <c r="W48" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="X48" s="11">
         <v>0</v>
       </c>
       <c r="Y48" s="6">
-        <v>2</v>
+        <f>8+2/6</f>
+        <v>8.3333333333333339</v>
       </c>
       <c r="Z48" s="11">
         <v>2</v>
       </c>
       <c r="AA48" s="6">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AB48" s="11">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AC48" s="6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AD48" s="11">
         <v>2</v>
       </c>
-      <c r="AE48" s="7"/>
+      <c r="AE48" s="7">
+        <f>145+245+4470+800</f>
+        <v>5660</v>
+      </c>
       <c r="AF48" s="1">
         <v>0</v>
       </c>
       <c r="AG48" s="1">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AH48" s="1">
         <v>0</v>
       </c>
       <c r="AI48" s="12">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AJ48" s="12">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AK48" s="12">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AL48" s="12">
         <v>0</v>
       </c>
       <c r="AM48" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B49" s="14"/>
       <c r="C49" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D49" s="11">
         <v>0</v>
@@ -5011,15 +5070,15 @@
         <v>0</v>
       </c>
       <c r="S49" s="2">
-        <f t="shared" si="13"/>
+        <f>SUM(L49:R49)</f>
         <v>72</v>
       </c>
       <c r="U49" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="V49" s="4"/>
       <c r="W49" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="X49" s="11">
         <v>0</v>
@@ -5069,13 +5128,13 @@
         <v>0</v>
       </c>
       <c r="AM49" s="2">
-        <f t="shared" si="14"/>
+        <f>SUM(AF49:AL49)</f>
         <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B50" s="14"/>
       <c r="C50" s="8" t="s">
@@ -5132,7 +5191,7 @@
         <v>72</v>
       </c>
       <c r="U50" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="V50" s="4"/>
       <c r="W50" s="8" t="s">
@@ -5192,12 +5251,10 @@
     </row>
     <row r="51" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B51" s="14"/>
-      <c r="C51" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="C51" s="8"/>
       <c r="D51" s="11">
         <v>0</v>
       </c>
@@ -5208,21 +5265,18 @@
         <v>2</v>
       </c>
       <c r="G51" s="6">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H51" s="11">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I51" s="6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J51" s="11">
         <v>2</v>
       </c>
-      <c r="K51" s="7">
-        <f>145+245+4470</f>
-        <v>4860</v>
-      </c>
+      <c r="K51" s="7"/>
       <c r="L51" s="1">
         <v>0</v>
       </c>
@@ -5233,83 +5287,77 @@
         <v>0</v>
       </c>
       <c r="O51" s="12">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="P51" s="12">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="Q51" s="12">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="R51" s="12">
         <v>0</v>
       </c>
       <c r="S51" s="2">
-        <f>SUM(L51:R51)</f>
-        <v>72</v>
+        <f t="shared" ref="S51:S53" si="16">SUM(L51:R51)</f>
+        <v>0</v>
       </c>
       <c r="U51" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V51" s="4"/>
-      <c r="W51" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="W51" s="8"/>
       <c r="X51" s="11">
         <v>0</v>
       </c>
       <c r="Y51" s="6">
-        <f>8+2/6</f>
-        <v>8.3333333333333339</v>
+        <v>2</v>
       </c>
       <c r="Z51" s="11">
         <v>2</v>
       </c>
       <c r="AA51" s="6">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AB51" s="11">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AC51" s="6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AD51" s="11">
         <v>2</v>
       </c>
-      <c r="AE51" s="7">
-        <f>145+245+4470+800</f>
-        <v>5660</v>
-      </c>
+      <c r="AE51" s="7"/>
       <c r="AF51" s="1">
         <v>0</v>
       </c>
       <c r="AG51" s="1">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AH51" s="1">
         <v>0</v>
       </c>
       <c r="AI51" s="12">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AJ51" s="12">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AK51" s="12">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AL51" s="12">
         <v>0</v>
       </c>
       <c r="AM51" s="2">
-        <f>SUM(AF51:AL51)</f>
-        <v>98</v>
+        <f t="shared" ref="AM51:AM53" si="17">SUM(AF51:AL51)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B52" s="14"/>
       <c r="C52" s="8"/>
@@ -5357,11 +5405,11 @@
         <v>0</v>
       </c>
       <c r="S52" s="2">
-        <f t="shared" ref="S52:S54" si="15">SUM(L52:R52)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V52" s="4"/>
       <c r="W52" s="8"/>
@@ -5409,13 +5457,13 @@
         <v>0</v>
       </c>
       <c r="AM52" s="2">
-        <f t="shared" ref="AM52:AM54" si="16">SUM(AF52:AL52)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B53" s="14"/>
       <c r="C53" s="8"/>
@@ -5463,11 +5511,11 @@
         <v>0</v>
       </c>
       <c r="S53" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U53" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="V53" s="4"/>
       <c r="W53" s="8"/>
@@ -5515,357 +5563,369 @@
         <v>0</v>
       </c>
       <c r="AM53" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>38</v>
-      </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="11">
-        <v>0</v>
-      </c>
-      <c r="E54" s="6">
-        <v>2</v>
-      </c>
-      <c r="F54" s="11">
-        <v>2</v>
-      </c>
-      <c r="G54" s="6">
-        <v>2</v>
-      </c>
-      <c r="H54" s="11">
-        <v>2</v>
-      </c>
-      <c r="I54" s="6">
-        <v>2</v>
-      </c>
-      <c r="J54" s="11">
-        <v>2</v>
-      </c>
-      <c r="K54" s="7"/>
-      <c r="L54" s="1">
-        <v>0</v>
-      </c>
-      <c r="M54" s="1">
-        <v>0</v>
-      </c>
-      <c r="N54" s="1">
-        <v>0</v>
-      </c>
-      <c r="O54" s="12">
-        <v>0</v>
-      </c>
-      <c r="P54" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="12">
-        <v>0</v>
-      </c>
-      <c r="R54" s="12">
-        <v>0</v>
-      </c>
-      <c r="S54" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U54" t="s">
-        <v>38</v>
-      </c>
-      <c r="V54" s="4"/>
-      <c r="W54" s="8"/>
-      <c r="X54" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y54" s="6">
-        <v>2</v>
-      </c>
-      <c r="Z54" s="11">
-        <v>2</v>
-      </c>
-      <c r="AA54" s="6">
-        <v>2</v>
-      </c>
-      <c r="AB54" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC54" s="6">
-        <v>2</v>
-      </c>
-      <c r="AD54" s="11">
-        <v>2</v>
-      </c>
-      <c r="AE54" s="7"/>
-      <c r="AF54" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG54" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH54" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI54" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ54" s="12">
-        <v>0</v>
-      </c>
-      <c r="AK54" s="12">
-        <v>0</v>
-      </c>
-      <c r="AL54" s="12">
-        <v>0</v>
-      </c>
-      <c r="AM54" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
+      <c r="K54" s="15">
+        <f>SUM(K56:K70)</f>
+        <v>155319.63999999998</v>
+      </c>
+      <c r="AE54" s="15">
+        <f>SUM(AE56:AE70)</f>
+        <v>158873.30499999999</v>
       </c>
     </row>
     <row r="55" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="K55" s="15">
-        <f>SUM(K57:K71)</f>
-        <v>155319.63999999998</v>
-      </c>
-      <c r="AE55" s="15">
-        <f>SUM(AE57:AE71)</f>
-        <v>158873.30499999999</v>
+      <c r="A55" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O55" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P55" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q55" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R55" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S55" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U55" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="V55" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="W55" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF55" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG55" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH55" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI55" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ55" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK55" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL55" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM55" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C56" s="3" t="s">
+      <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="11">
+        <v>15</v>
+      </c>
+      <c r="E56" s="6">
+        <v>5</v>
+      </c>
+      <c r="F56" s="11">
+        <v>0</v>
+      </c>
+      <c r="G56" s="6">
+        <v>0</v>
+      </c>
+      <c r="H56" s="11">
+        <v>0</v>
+      </c>
+      <c r="I56" s="6">
+        <v>0</v>
+      </c>
+      <c r="J56" s="11">
+        <v>5</v>
+      </c>
+      <c r="K56" s="7">
+        <f>(24270+135)*1.016</f>
+        <v>24795.48</v>
+      </c>
+      <c r="L56" s="1">
+        <v>52</v>
+      </c>
+      <c r="M56" s="1">
+        <v>10</v>
+      </c>
+      <c r="N56" s="1">
+        <v>0</v>
+      </c>
+      <c r="O56" s="12">
+        <v>0</v>
+      </c>
+      <c r="P56" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="12">
+        <v>0</v>
+      </c>
+      <c r="R56" s="12">
         <v>3</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E56" s="3" t="s">
+      <c r="S56" s="2">
+        <f>SUM(L56:R56)</f>
+        <v>65</v>
+      </c>
+      <c r="U56" t="s">
+        <v>12</v>
+      </c>
+      <c r="V56" s="4"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="11">
+        <v>15</v>
+      </c>
+      <c r="Y56" s="6">
         <v>5</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J56" s="3" t="s">
+      <c r="Z56" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="11">
+        <v>12.5</v>
+      </c>
+      <c r="AE56" s="7">
+        <f>(24270+135)*1.035</f>
+        <v>25259.174999999999</v>
+      </c>
+      <c r="AF56" s="1">
+        <v>52</v>
+      </c>
+      <c r="AG56" s="1">
         <v>10</v>
       </c>
-      <c r="K56" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M56" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N56" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O56" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P56" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q56" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="R56" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S56" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="U56" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="V56" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="W56" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X56" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y56" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z56" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA56" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB56" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC56" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD56" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE56" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF56" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG56" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH56" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI56" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ56" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK56" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL56" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM56" s="3" t="s">
-        <v>36</v>
+      <c r="AH56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI56" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ56" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK56" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL56" s="12">
+        <v>13</v>
+      </c>
+      <c r="AM56" s="2">
+        <f>SUM(AF56:AL56)</f>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D57" s="11">
+        <v>0</v>
+      </c>
+      <c r="E57" s="6">
+        <f>9+6/7</f>
+        <v>9.8571428571428577</v>
+      </c>
+      <c r="F57" s="11">
+        <v>2</v>
+      </c>
+      <c r="G57" s="6">
         <v>12</v>
       </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="11">
-        <v>15</v>
-      </c>
-      <c r="E57" s="6">
-        <v>5</v>
-      </c>
-      <c r="F57" s="11">
-        <v>0</v>
-      </c>
-      <c r="G57" s="6">
-        <v>0</v>
-      </c>
       <c r="H57" s="11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I57" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J57" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K57" s="7">
-        <f>(24270+135)*1.016</f>
-        <v>24795.48</v>
+        <f>145+1150+4470</f>
+        <v>5765</v>
       </c>
       <c r="L57" s="1">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="M57" s="1">
+        <v>36</v>
+      </c>
+      <c r="N57" s="1">
+        <v>0</v>
+      </c>
+      <c r="O57" s="12">
+        <v>33</v>
+      </c>
+      <c r="P57" s="12">
+        <v>23</v>
+      </c>
+      <c r="Q57" s="12">
+        <v>0</v>
+      </c>
+      <c r="R57" s="12">
+        <v>0</v>
+      </c>
+      <c r="S57" s="2">
+        <f t="shared" ref="S57" si="18">SUM(L57:R57)</f>
+        <v>92</v>
+      </c>
+      <c r="U57" t="s">
+        <v>14</v>
+      </c>
+      <c r="V57" s="4"/>
+      <c r="W57" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="X57" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="6">
+        <f>9+6/7</f>
+        <v>9.8571428571428577</v>
+      </c>
+      <c r="Z57" s="11">
+        <v>2</v>
+      </c>
+      <c r="AA57" s="6">
+        <v>12</v>
+      </c>
+      <c r="AB57" s="11">
+        <v>9</v>
+      </c>
+      <c r="AC57" s="6">
+        <v>2</v>
+      </c>
+      <c r="AD57" s="11">
+        <v>11</v>
+      </c>
+      <c r="AE57" s="7">
+        <f>(145+1150+4470)*1.032</f>
+        <v>5949.4800000000005</v>
+      </c>
+      <c r="AF57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG57" s="1">
+        <v>36</v>
+      </c>
+      <c r="AH57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI57" s="12">
+        <v>33</v>
+      </c>
+      <c r="AJ57" s="12">
+        <v>23</v>
+      </c>
+      <c r="AK57" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL57" s="12">
         <v>10</v>
       </c>
-      <c r="N57" s="1">
-        <v>0</v>
-      </c>
-      <c r="O57" s="12">
-        <v>0</v>
-      </c>
-      <c r="P57" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="12">
-        <v>0</v>
-      </c>
-      <c r="R57" s="12">
-        <v>3</v>
-      </c>
-      <c r="S57" s="2">
-        <f>SUM(L57:R57)</f>
-        <v>65</v>
-      </c>
-      <c r="U57" t="s">
-        <v>12</v>
-      </c>
-      <c r="V57" s="4"/>
-      <c r="W57" s="5"/>
-      <c r="X57" s="11">
-        <v>15</v>
-      </c>
-      <c r="Y57" s="6">
-        <v>5</v>
-      </c>
-      <c r="Z57" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA57" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB57" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC57" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD57" s="11">
-        <v>12.5</v>
-      </c>
-      <c r="AE57" s="7">
-        <f>(24270+135)*1.035</f>
-        <v>25259.174999999999</v>
-      </c>
-      <c r="AF57" s="1">
-        <v>52</v>
-      </c>
-      <c r="AG57" s="1">
-        <v>10</v>
-      </c>
-      <c r="AH57" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI57" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ57" s="12">
-        <v>0</v>
-      </c>
-      <c r="AK57" s="12">
-        <v>0</v>
-      </c>
-      <c r="AL57" s="12">
-        <v>13</v>
-      </c>
       <c r="AM57" s="2">
-        <f>SUM(AF57:AL57)</f>
-        <v>75</v>
+        <f t="shared" ref="AM57" si="19">SUM(AF57:AL57)</f>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B58" s="14"/>
       <c r="C58" s="8" t="s">
@@ -5875,14 +5935,13 @@
         <v>0</v>
       </c>
       <c r="E58" s="6">
-        <f>9+6/7</f>
-        <v>9.8571428571428577</v>
+        <v>12</v>
       </c>
       <c r="F58" s="11">
         <v>2</v>
       </c>
       <c r="G58" s="6">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H58" s="11">
         <v>9</v>
@@ -5894,20 +5953,20 @@
         <v>2</v>
       </c>
       <c r="K58" s="7">
-        <f>145+1150+4470</f>
-        <v>5765</v>
+        <f t="shared" ref="K58:K63" si="20">7010+195+125</f>
+        <v>7330</v>
       </c>
       <c r="L58" s="1">
         <v>0</v>
       </c>
       <c r="M58" s="1">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="N58" s="1">
         <v>0</v>
       </c>
       <c r="O58" s="12">
-        <v>33</v>
+        <v>5.5</v>
       </c>
       <c r="P58" s="12">
         <v>23</v>
@@ -5919,11 +5978,11 @@
         <v>0</v>
       </c>
       <c r="S58" s="2">
-        <f t="shared" ref="S58" si="17">SUM(L58:R58)</f>
-        <v>92</v>
+        <f>SUM(L58:R58)</f>
+        <v>84.5</v>
       </c>
       <c r="U58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V58" s="4"/>
       <c r="W58" s="8" t="s">
@@ -5933,14 +5992,13 @@
         <v>0</v>
       </c>
       <c r="Y58" s="6">
-        <f>9+6/7</f>
-        <v>9.8571428571428577</v>
+        <v>12</v>
       </c>
       <c r="Z58" s="11">
         <v>2</v>
       </c>
       <c r="AA58" s="6">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AB58" s="11">
         <v>9</v>
@@ -5952,20 +6010,20 @@
         <v>11</v>
       </c>
       <c r="AE58" s="7">
-        <f>(145+1150+4470)*1.032</f>
-        <v>5949.4800000000005</v>
+        <f t="shared" ref="AE58:AE63" si="21">(7010+195+125)*1.032</f>
+        <v>7564.56</v>
       </c>
       <c r="AF58" s="1">
         <v>0</v>
       </c>
       <c r="AG58" s="1">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="AH58" s="1">
         <v>0</v>
       </c>
       <c r="AI58" s="12">
-        <v>33</v>
+        <v>5.5</v>
       </c>
       <c r="AJ58" s="12">
         <v>23</v>
@@ -5977,13 +6035,13 @@
         <v>10</v>
       </c>
       <c r="AM58" s="2">
-        <f t="shared" ref="AM58" si="18">SUM(AF58:AL58)</f>
-        <v>102</v>
+        <f>SUM(AF58:AL58)</f>
+        <v>94.5</v>
       </c>
     </row>
     <row r="59" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B59" s="14"/>
       <c r="C59" s="8" t="s">
@@ -6011,7 +6069,7 @@
         <v>2</v>
       </c>
       <c r="K59" s="7">
-        <f t="shared" ref="K59:K64" si="19">7010+195+125</f>
+        <f t="shared" si="20"/>
         <v>7330</v>
       </c>
       <c r="L59" s="1">
@@ -6040,7 +6098,7 @@
         <v>84.5</v>
       </c>
       <c r="U59" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="V59" s="4"/>
       <c r="W59" s="8" t="s">
@@ -6068,7 +6126,7 @@
         <v>11</v>
       </c>
       <c r="AE59" s="7">
-        <f t="shared" ref="AE59:AE64" si="20">(7010+195+125)*1.032</f>
+        <f t="shared" si="21"/>
         <v>7564.56</v>
       </c>
       <c r="AF59" s="1">
@@ -6099,11 +6157,11 @@
     </row>
     <row r="60" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B60" s="14"/>
       <c r="C60" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D60" s="11">
         <v>0</v>
@@ -6112,10 +6170,10 @@
         <v>12</v>
       </c>
       <c r="F60" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G60" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H60" s="11">
         <v>9</v>
@@ -6127,7 +6185,7 @@
         <v>2</v>
       </c>
       <c r="K60" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7330</v>
       </c>
       <c r="L60" s="1">
@@ -6137,10 +6195,10 @@
         <v>56</v>
       </c>
       <c r="N60" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O60" s="12">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="P60" s="12">
         <v>23</v>
@@ -6152,15 +6210,15 @@
         <v>0</v>
       </c>
       <c r="S60" s="2">
-        <f>SUM(L60:R60)</f>
-        <v>84.5</v>
+        <f t="shared" ref="S60:S66" si="22">SUM(L60:R60)</f>
+        <v>88</v>
       </c>
       <c r="U60" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="V60" s="4"/>
       <c r="W60" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X60" s="11">
         <v>0</v>
@@ -6169,10 +6227,10 @@
         <v>12</v>
       </c>
       <c r="Z60" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AA60" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB60" s="11">
         <v>9</v>
@@ -6184,7 +6242,7 @@
         <v>11</v>
       </c>
       <c r="AE60" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>7564.56</v>
       </c>
       <c r="AF60" s="1">
@@ -6194,10 +6252,10 @@
         <v>56</v>
       </c>
       <c r="AH60" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AI60" s="12">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="AJ60" s="12">
         <v>23</v>
@@ -6209,13 +6267,19 @@
         <v>10</v>
       </c>
       <c r="AM60" s="2">
-        <f>SUM(AF60:AL60)</f>
-        <v>94.5</v>
+        <f t="shared" ref="AM60:AM66" si="23">SUM(AF60:AL60)</f>
+        <v>98</v>
+      </c>
+      <c r="AO60" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP60" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B61" s="14"/>
       <c r="C61" s="8" t="s">
@@ -6231,7 +6295,7 @@
         <v>5</v>
       </c>
       <c r="G61" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H61" s="11">
         <v>9</v>
@@ -6243,7 +6307,7 @@
         <v>2</v>
       </c>
       <c r="K61" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7330</v>
       </c>
       <c r="L61" s="1">
@@ -6268,11 +6332,11 @@
         <v>0</v>
       </c>
       <c r="S61" s="2">
-        <f t="shared" ref="S61:S67" si="21">SUM(L61:R61)</f>
+        <f t="shared" si="22"/>
         <v>88</v>
       </c>
       <c r="U61" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V61" s="4"/>
       <c r="W61" s="8" t="s">
@@ -6288,7 +6352,7 @@
         <v>5</v>
       </c>
       <c r="AA61" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB61" s="11">
         <v>9</v>
@@ -6300,7 +6364,7 @@
         <v>11</v>
       </c>
       <c r="AE61" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>7564.56</v>
       </c>
       <c r="AF61" s="1">
@@ -6325,23 +6389,27 @@
         <v>10</v>
       </c>
       <c r="AM61" s="2">
-        <f t="shared" ref="AM61:AM67" si="22">SUM(AF61:AL61)</f>
+        <f t="shared" si="23"/>
         <v>98</v>
       </c>
-      <c r="AO61" t="s">
-        <v>42</v>
-      </c>
-      <c r="AP61" t="s">
-        <v>43</v>
+      <c r="AN61" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO61">
+        <v>10</v>
+      </c>
+      <c r="AP61" s="17">
+        <f>AO61/16</f>
+        <v>0.625</v>
       </c>
     </row>
     <row r="62" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B62" s="14"/>
       <c r="C62" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D62" s="11">
         <v>0</v>
@@ -6365,7 +6433,7 @@
         <v>2</v>
       </c>
       <c r="K62" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7330</v>
       </c>
       <c r="L62" s="1">
@@ -6390,15 +6458,15 @@
         <v>0</v>
       </c>
       <c r="S62" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>88</v>
       </c>
       <c r="U62" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V62" s="4"/>
       <c r="W62" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X62" s="11">
         <v>0</v>
@@ -6422,7 +6490,7 @@
         <v>11</v>
       </c>
       <c r="AE62" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>7564.56</v>
       </c>
       <c r="AF62" s="1">
@@ -6447,27 +6515,17 @@
         <v>10</v>
       </c>
       <c r="AM62" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>98</v>
-      </c>
-      <c r="AN62" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="AO62">
-        <v>10</v>
-      </c>
-      <c r="AP62" s="17">
-        <f>AO62/16</f>
-        <v>0.625</v>
       </c>
     </row>
     <row r="63" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B63" s="14"/>
       <c r="C63" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D63" s="11">
         <v>0</v>
@@ -6491,7 +6549,7 @@
         <v>2</v>
       </c>
       <c r="K63" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7330</v>
       </c>
       <c r="L63" s="1">
@@ -6516,15 +6574,15 @@
         <v>0</v>
       </c>
       <c r="S63" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>88</v>
       </c>
       <c r="U63" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V63" s="4"/>
       <c r="W63" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X63" s="11">
         <v>0</v>
@@ -6548,7 +6606,7 @@
         <v>11</v>
       </c>
       <c r="AE63" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>7564.56</v>
       </c>
       <c r="AF63" s="1">
@@ -6573,17 +6631,17 @@
         <v>10</v>
       </c>
       <c r="AM63" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B64" s="14"/>
       <c r="C64" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D64" s="11">
         <v>0</v>
@@ -6592,23 +6650,23 @@
         <v>12</v>
       </c>
       <c r="F64" s="11">
+        <v>12</v>
+      </c>
+      <c r="G64" s="6">
+        <v>2</v>
+      </c>
+      <c r="H64" s="11">
+        <v>12</v>
+      </c>
+      <c r="I64" s="6">
+        <v>7</v>
+      </c>
+      <c r="J64" s="11">
         <v>5</v>
       </c>
-      <c r="G64" s="6">
-        <v>2</v>
-      </c>
-      <c r="H64" s="11">
-        <v>9</v>
-      </c>
-      <c r="I64" s="6">
-        <v>2</v>
-      </c>
-      <c r="J64" s="11">
-        <v>2</v>
-      </c>
       <c r="K64" s="7">
-        <f t="shared" si="19"/>
-        <v>7330</v>
+        <f>(7010+4335+515+245)*1.016</f>
+        <v>12298.68</v>
       </c>
       <c r="L64" s="1">
         <v>0</v>
@@ -6617,30 +6675,30 @@
         <v>56</v>
       </c>
       <c r="N64" s="1">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="O64" s="12">
         <v>0</v>
       </c>
       <c r="P64" s="12">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="Q64" s="12">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="R64" s="12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S64" s="2">
-        <f t="shared" si="21"/>
-        <v>88</v>
+        <f t="shared" si="22"/>
+        <v>166</v>
       </c>
       <c r="U64" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V64" s="4"/>
       <c r="W64" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X64" s="11">
         <v>0</v>
@@ -6649,23 +6707,23 @@
         <v>12</v>
       </c>
       <c r="Z64" s="11">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AA64" s="6">
         <v>2</v>
       </c>
       <c r="AB64" s="11">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AC64" s="6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AD64" s="11">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AE64" s="7">
-        <f t="shared" si="20"/>
-        <v>7564.56</v>
+        <f>(7010+4335+515+245)*1.035</f>
+        <v>12528.674999999999</v>
       </c>
       <c r="AF64" s="1">
         <v>0</v>
@@ -6674,23 +6732,23 @@
         <v>56</v>
       </c>
       <c r="AH64" s="1">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="AI64" s="12">
         <v>0</v>
       </c>
       <c r="AJ64" s="12">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="AK64" s="12">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AL64" s="12">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AM64" s="2">
-        <f t="shared" si="22"/>
-        <v>98</v>
+        <f t="shared" si="23"/>
+        <v>176</v>
       </c>
     </row>
     <row r="65" spans="1:42" x14ac:dyDescent="0.25">
@@ -6699,7 +6757,7 @@
       </c>
       <c r="B65" s="14"/>
       <c r="C65" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D65" s="11">
         <v>0</v>
@@ -6748,7 +6806,7 @@
         <v>3</v>
       </c>
       <c r="S65" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>166</v>
       </c>
       <c r="U65" t="s">
@@ -6756,7 +6814,7 @@
       </c>
       <c r="V65" s="4"/>
       <c r="W65" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X65" s="11">
         <v>0</v>
@@ -6805,133 +6863,135 @@
         <v>13</v>
       </c>
       <c r="AM65" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>176</v>
       </c>
     </row>
     <row r="66" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B66" s="14"/>
       <c r="C66" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D66" s="11">
         <v>0</v>
       </c>
       <c r="E66" s="6">
+        <f>8+2/6</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="F66" s="11">
+        <v>2</v>
+      </c>
+      <c r="G66" s="6">
         <v>12</v>
       </c>
-      <c r="F66" s="11">
-        <v>12</v>
-      </c>
-      <c r="G66" s="6">
-        <v>2</v>
-      </c>
       <c r="H66" s="11">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I66" s="6">
         <v>7</v>
       </c>
       <c r="J66" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K66" s="7">
-        <f>(7010+4335+515+245)*1.016</f>
-        <v>12298.68</v>
+        <f>145+245+4470+800</f>
+        <v>5660</v>
       </c>
       <c r="L66" s="1">
         <v>0</v>
       </c>
       <c r="M66" s="1">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="N66" s="1">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="O66" s="12">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="P66" s="12">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="Q66" s="12">
         <v>16</v>
       </c>
       <c r="R66" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S66" s="2">
-        <f t="shared" si="21"/>
-        <v>166</v>
+        <f t="shared" si="22"/>
+        <v>98</v>
       </c>
       <c r="U66" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V66" s="4"/>
       <c r="W66" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="X66" s="11">
         <v>0</v>
       </c>
       <c r="Y66" s="6">
+        <f>8+2/6</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="Z66" s="11">
+        <v>2</v>
+      </c>
+      <c r="AA66" s="6">
         <v>12</v>
       </c>
-      <c r="Z66" s="11">
-        <v>12</v>
-      </c>
-      <c r="AA66" s="6">
-        <v>2</v>
-      </c>
       <c r="AB66" s="11">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AC66" s="6">
         <v>7</v>
       </c>
       <c r="AD66" s="11">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AE66" s="7">
-        <f>(7010+4335+515+245)*1.035</f>
-        <v>12528.674999999999</v>
+        <f>(145+245+4470+800)*1.032</f>
+        <v>5841.12</v>
       </c>
       <c r="AF66" s="1">
         <v>0</v>
       </c>
       <c r="AG66" s="1">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="AH66" s="1">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AI66" s="12">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AJ66" s="12">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="AK66" s="12">
         <v>16</v>
       </c>
       <c r="AL66" s="12">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AM66" s="2">
-        <f t="shared" si="22"/>
-        <v>176</v>
+        <f t="shared" si="23"/>
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B67" s="14"/>
       <c r="C67" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D67" s="11">
         <v>0</v>
@@ -6981,15 +7041,15 @@
         <v>0</v>
       </c>
       <c r="S67" s="2">
-        <f t="shared" si="21"/>
+        <f>SUM(L67:R67)</f>
         <v>98</v>
       </c>
       <c r="U67" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="V67" s="4"/>
       <c r="W67" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="X67" s="11">
         <v>0</v>
@@ -7039,13 +7099,13 @@
         <v>10</v>
       </c>
       <c r="AM67" s="2">
-        <f t="shared" si="22"/>
+        <f>SUM(AF67:AL67)</f>
         <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B68" s="14"/>
       <c r="C68" s="8" t="s">
@@ -7103,7 +7163,7 @@
         <v>98</v>
       </c>
       <c r="U68" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="V68" s="4"/>
       <c r="W68" s="8" t="s">
@@ -7163,7 +7223,7 @@
     </row>
     <row r="69" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B69" s="14"/>
       <c r="C69" s="8" t="s">
@@ -7173,55 +7233,54 @@
         <v>0</v>
       </c>
       <c r="E69" s="6">
-        <f>8+2/6</f>
-        <v>8.3333333333333339</v>
+        <v>2</v>
       </c>
       <c r="F69" s="11">
         <v>2</v>
       </c>
       <c r="G69" s="6">
+        <v>10</v>
+      </c>
+      <c r="H69" s="11">
+        <v>14</v>
+      </c>
+      <c r="I69" s="6">
         <v>12</v>
       </c>
-      <c r="H69" s="11">
-        <v>9</v>
-      </c>
-      <c r="I69" s="6">
-        <v>7</v>
-      </c>
       <c r="J69" s="11">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K69" s="7">
-        <f>145+245+4470+800</f>
-        <v>5660</v>
+        <f>(14290+3955+785)*1.03</f>
+        <v>19600.900000000001</v>
       </c>
       <c r="L69" s="1">
         <v>0</v>
       </c>
       <c r="M69" s="1">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="N69" s="1">
         <v>0</v>
       </c>
       <c r="O69" s="12">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="P69" s="12">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="Q69" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="R69" s="12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S69" s="2">
-        <f>SUM(L69:R69)</f>
-        <v>98</v>
+        <f t="shared" ref="S69:S71" si="24">SUM(L69:R69)</f>
+        <v>142</v>
       </c>
       <c r="U69" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V69" s="4"/>
       <c r="W69" s="8" t="s">
@@ -7231,61 +7290,60 @@
         <v>0</v>
       </c>
       <c r="Y69" s="6">
-        <f>8+2/6</f>
-        <v>8.3333333333333339</v>
+        <v>2</v>
       </c>
       <c r="Z69" s="11">
         <v>2</v>
       </c>
       <c r="AA69" s="6">
+        <v>10</v>
+      </c>
+      <c r="AB69" s="11">
+        <v>14</v>
+      </c>
+      <c r="AC69" s="6">
         <v>12</v>
       </c>
-      <c r="AB69" s="11">
-        <v>9</v>
-      </c>
-      <c r="AC69" s="6">
-        <v>7</v>
-      </c>
       <c r="AD69" s="11">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE69" s="7">
-        <f>(145+245+4470+800)*1.032</f>
-        <v>5841.12</v>
+        <f>(14290+3955+785)*1.043</f>
+        <v>19848.289999999997</v>
       </c>
       <c r="AF69" s="1">
         <v>0</v>
       </c>
       <c r="AG69" s="1">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AH69" s="1">
         <v>0</v>
       </c>
       <c r="AI69" s="12">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="AJ69" s="12">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="AK69" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="AL69" s="12">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AM69" s="2">
-        <f>SUM(AF69:AL69)</f>
-        <v>108</v>
+        <f t="shared" ref="AM69:AM71" si="25">SUM(AF69:AL69)</f>
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B70" s="14"/>
       <c r="C70" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D70" s="11">
         <v>0</v>
@@ -7334,15 +7392,15 @@
         <v>8</v>
       </c>
       <c r="S70" s="2">
-        <f t="shared" ref="S70:S72" si="23">SUM(L70:R70)</f>
+        <f t="shared" si="24"/>
         <v>142</v>
       </c>
       <c r="U70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V70" s="4"/>
       <c r="W70" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="X70" s="11">
         <v>0</v>
@@ -7391,17 +7449,17 @@
         <v>18</v>
       </c>
       <c r="AM70" s="2">
-        <f t="shared" ref="AM70:AM72" si="24">SUM(AF70:AL70)</f>
+        <f t="shared" si="25"/>
         <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B71" s="14"/>
       <c r="C71" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D71" s="11">
         <v>0</v>
@@ -7450,15 +7508,15 @@
         <v>8</v>
       </c>
       <c r="S71" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>142</v>
       </c>
       <c r="U71" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="V71" s="4"/>
       <c r="W71" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="X71" s="11">
         <v>0</v>
@@ -7507,368 +7565,370 @@
         <v>18</v>
       </c>
       <c r="AM71" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>152</v>
       </c>
     </row>
     <row r="72" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>38</v>
-      </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D72" s="11">
-        <v>0</v>
-      </c>
-      <c r="E72" s="6">
-        <v>2</v>
-      </c>
-      <c r="F72" s="11">
-        <v>2</v>
-      </c>
-      <c r="G72" s="6">
-        <v>10</v>
-      </c>
-      <c r="H72" s="11">
-        <v>14</v>
-      </c>
-      <c r="I72" s="6">
-        <v>12</v>
-      </c>
-      <c r="J72" s="11">
-        <v>10</v>
-      </c>
-      <c r="K72" s="7">
-        <f>(14290+3955+785)*1.03</f>
-        <v>19600.900000000001</v>
-      </c>
-      <c r="L72" s="1">
-        <v>0</v>
-      </c>
-      <c r="M72" s="1">
-        <v>0</v>
-      </c>
-      <c r="N72" s="1">
-        <v>0</v>
-      </c>
-      <c r="O72" s="12">
-        <v>23</v>
-      </c>
-      <c r="P72" s="12">
-        <v>62</v>
-      </c>
-      <c r="Q72" s="12">
-        <v>49</v>
-      </c>
-      <c r="R72" s="12">
-        <v>8</v>
-      </c>
-      <c r="S72" s="2">
-        <f t="shared" si="23"/>
-        <v>142</v>
-      </c>
-      <c r="U72" t="s">
-        <v>38</v>
-      </c>
-      <c r="V72" s="4"/>
-      <c r="W72" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="X72" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y72" s="6">
-        <v>2</v>
-      </c>
-      <c r="Z72" s="11">
-        <v>2</v>
-      </c>
-      <c r="AA72" s="6">
-        <v>10</v>
-      </c>
-      <c r="AB72" s="11">
-        <v>14</v>
-      </c>
-      <c r="AC72" s="6">
-        <v>12</v>
-      </c>
-      <c r="AD72" s="11">
-        <v>15</v>
-      </c>
-      <c r="AE72" s="7">
-        <f>(14290+3955+785)*1.043</f>
-        <v>19848.289999999997</v>
-      </c>
-      <c r="AF72" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG72" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH72" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI72" s="12">
-        <v>23</v>
-      </c>
-      <c r="AJ72" s="12">
-        <v>62</v>
-      </c>
-      <c r="AK72" s="12">
-        <v>49</v>
-      </c>
-      <c r="AL72" s="12">
-        <v>18</v>
-      </c>
-      <c r="AM72" s="2">
-        <f t="shared" si="24"/>
-        <v>152</v>
+      <c r="K72" s="15">
+        <f>SUM(K74:K88)</f>
+        <v>158873.30499999999</v>
+      </c>
+      <c r="AE72" s="15">
+        <f>SUM(AE74:AE88)</f>
+        <v>240042.42999999996</v>
       </c>
     </row>
     <row r="73" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="K73" s="15">
-        <f>SUM(K75:K89)</f>
-        <v>158873.30499999999</v>
-      </c>
-      <c r="AE73" s="15">
-        <f>SUM(AE75:AE89)</f>
-        <v>240042.42999999996</v>
+      <c r="A73" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M73" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N73" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O73" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P73" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q73" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R73" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S73" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U73" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="V73" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="W73" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X73" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y73" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z73" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA73" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB73" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC73" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD73" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE73" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF73" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG73" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH73" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI73" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ73" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK73" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL73" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM73" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="74" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E74" s="3" t="s">
+      <c r="A74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="14"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="11">
+        <v>15</v>
+      </c>
+      <c r="E74" s="6">
         <v>5</v>
       </c>
-      <c r="F74" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J74" s="3" t="s">
+      <c r="F74" s="11">
+        <v>0</v>
+      </c>
+      <c r="G74" s="6">
+        <v>0</v>
+      </c>
+      <c r="H74" s="11">
+        <v>0</v>
+      </c>
+      <c r="I74" s="6">
+        <v>0</v>
+      </c>
+      <c r="J74" s="11">
+        <v>12.5</v>
+      </c>
+      <c r="K74" s="7">
+        <f>(24270+135)*1.035</f>
+        <v>25259.174999999999</v>
+      </c>
+      <c r="L74" s="1">
+        <v>52</v>
+      </c>
+      <c r="M74" s="1">
         <v>10</v>
       </c>
-      <c r="K74" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L74" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M74" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N74" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O74" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P74" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q74" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="R74" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S74" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="U74" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="V74" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="W74" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X74" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y74" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z74" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA74" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB74" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC74" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD74" s="3" t="s">
+      <c r="N74" s="1">
+        <v>0</v>
+      </c>
+      <c r="O74" s="12">
+        <v>0</v>
+      </c>
+      <c r="P74" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="12">
+        <v>0</v>
+      </c>
+      <c r="R74" s="12">
+        <v>13</v>
+      </c>
+      <c r="S74" s="2">
+        <f>SUM(L74:R74)</f>
+        <v>75</v>
+      </c>
+      <c r="U74" t="s">
+        <v>12</v>
+      </c>
+      <c r="V74" s="4"/>
+      <c r="W74" s="5"/>
+      <c r="X74" s="11">
+        <v>15</v>
+      </c>
+      <c r="Y74" s="6">
+        <f>9+3/7</f>
+        <v>9.4285714285714288</v>
+      </c>
+      <c r="Z74" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="11">
+        <v>12.5</v>
+      </c>
+      <c r="AE74" s="7">
+        <f>(24270+910)*1.035</f>
+        <v>26061.3</v>
+      </c>
+      <c r="AF74" s="1">
+        <v>52</v>
+      </c>
+      <c r="AG74" s="1">
         <v>10</v>
       </c>
-      <c r="AE74" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF74" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG74" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH74" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI74" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ74" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK74" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL74" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM74" s="3" t="s">
-        <v>36</v>
+      <c r="AH74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI74" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ74" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK74" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL74" s="12">
+        <v>13</v>
+      </c>
+      <c r="AM74" s="2">
+        <f>SUM(AF74:AL74)</f>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" s="14"/>
+      <c r="C75" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D75" s="11">
+        <v>0</v>
+      </c>
+      <c r="E75" s="6">
+        <f>9+6/7</f>
+        <v>9.8571428571428577</v>
+      </c>
+      <c r="F75" s="11">
+        <v>2</v>
+      </c>
+      <c r="G75" s="6">
         <v>12</v>
       </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="11">
-        <v>15</v>
-      </c>
-      <c r="E75" s="6">
-        <v>5</v>
-      </c>
-      <c r="F75" s="11">
-        <v>0</v>
-      </c>
-      <c r="G75" s="6">
-        <v>0</v>
-      </c>
       <c r="H75" s="11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I75" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J75" s="11">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="K75" s="7">
-        <f>(24270+135)*1.035</f>
-        <v>25259.174999999999</v>
+        <f>(145+1150+4470)*1.032</f>
+        <v>5949.4800000000005</v>
       </c>
       <c r="L75" s="1">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="M75" s="1">
+        <v>36</v>
+      </c>
+      <c r="N75" s="1">
+        <v>0</v>
+      </c>
+      <c r="O75" s="12">
+        <v>33</v>
+      </c>
+      <c r="P75" s="12">
+        <v>23</v>
+      </c>
+      <c r="Q75" s="12">
+        <v>0</v>
+      </c>
+      <c r="R75" s="12">
         <v>10</v>
       </c>
-      <c r="N75" s="1">
-        <v>0</v>
-      </c>
-      <c r="O75" s="12">
-        <v>0</v>
-      </c>
-      <c r="P75" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="12">
-        <v>0</v>
-      </c>
-      <c r="R75" s="12">
-        <v>13</v>
-      </c>
       <c r="S75" s="2">
-        <f>SUM(L75:R75)</f>
-        <v>75</v>
+        <f t="shared" ref="S75" si="26">SUM(L75:R75)</f>
+        <v>102</v>
       </c>
       <c r="U75" t="s">
+        <v>14</v>
+      </c>
+      <c r="V75" s="4"/>
+      <c r="W75" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="X75" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="6">
+        <f>12+3/11</f>
+        <v>12.272727272727273</v>
+      </c>
+      <c r="Z75" s="11">
+        <v>2</v>
+      </c>
+      <c r="AA75" s="6">
         <v>12</v>
       </c>
-      <c r="V75" s="4"/>
-      <c r="W75" s="5"/>
-      <c r="X75" s="11">
-        <v>15</v>
-      </c>
-      <c r="Y75" s="6">
-        <f>9+3/7</f>
-        <v>9.4285714285714288</v>
-      </c>
-      <c r="Z75" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA75" s="6">
-        <v>0</v>
-      </c>
       <c r="AB75" s="11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC75" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD75" s="11">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AE75" s="7">
-        <f>(24270+910)*1.035</f>
-        <v>26061.3</v>
+        <f>(8000+2235+145)*1.032</f>
+        <v>10712.16</v>
       </c>
       <c r="AF75" s="1">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AG75" s="1">
+        <v>59</v>
+      </c>
+      <c r="AH75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI75" s="12">
+        <v>33</v>
+      </c>
+      <c r="AJ75" s="12">
+        <v>23</v>
+      </c>
+      <c r="AK75" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL75" s="12">
         <v>10</v>
       </c>
-      <c r="AH75" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI75" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ75" s="12">
-        <v>0</v>
-      </c>
-      <c r="AK75" s="12">
-        <v>0</v>
-      </c>
-      <c r="AL75" s="12">
-        <v>13</v>
-      </c>
       <c r="AM75" s="2">
-        <f>SUM(AF75:AL75)</f>
-        <v>75</v>
+        <f t="shared" ref="AM75" si="27">SUM(AF75:AL75)</f>
+        <v>125</v>
       </c>
     </row>
     <row r="76" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B76" s="14"/>
       <c r="C76" s="8" t="s">
@@ -7878,14 +7938,13 @@
         <v>0</v>
       </c>
       <c r="E76" s="6">
-        <f>9+6/7</f>
-        <v>9.8571428571428577</v>
+        <v>12</v>
       </c>
       <c r="F76" s="11">
         <v>2</v>
       </c>
       <c r="G76" s="6">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H76" s="11">
         <v>9</v>
@@ -7897,20 +7956,20 @@
         <v>11</v>
       </c>
       <c r="K76" s="7">
-        <f>(145+1150+4470)*1.032</f>
-        <v>5949.4800000000005</v>
+        <f t="shared" ref="K76:K81" si="28">(7010+195+125)*1.032</f>
+        <v>7564.56</v>
       </c>
       <c r="L76" s="1">
         <v>0</v>
       </c>
       <c r="M76" s="1">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="N76" s="1">
         <v>0</v>
       </c>
       <c r="O76" s="12">
-        <v>33</v>
+        <v>5.5</v>
       </c>
       <c r="P76" s="12">
         <v>23</v>
@@ -7922,11 +7981,11 @@
         <v>10</v>
       </c>
       <c r="S76" s="2">
-        <f t="shared" ref="S76" si="25">SUM(L76:R76)</f>
-        <v>102</v>
+        <f>SUM(L76:R76)</f>
+        <v>94.5</v>
       </c>
       <c r="U76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V76" s="4"/>
       <c r="W76" s="8" t="s">
@@ -7936,14 +7995,13 @@
         <v>0</v>
       </c>
       <c r="Y76" s="6">
-        <f>12+3/11</f>
-        <v>12.272727272727273</v>
+        <v>14</v>
       </c>
       <c r="Z76" s="11">
         <v>2</v>
       </c>
       <c r="AA76" s="6">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AB76" s="11">
         <v>9</v>
@@ -7955,20 +8013,20 @@
         <v>11</v>
       </c>
       <c r="AE76" s="7">
-        <f>(8000+2235+145)*1.032</f>
-        <v>10712.16</v>
+        <f t="shared" ref="AE76:AE81" si="29">(18370+195+125)*1.032</f>
+        <v>19288.080000000002</v>
       </c>
       <c r="AF76" s="1">
         <v>0</v>
       </c>
       <c r="AG76" s="1">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="AH76" s="1">
         <v>0</v>
       </c>
       <c r="AI76" s="12">
-        <v>33</v>
+        <v>5.5</v>
       </c>
       <c r="AJ76" s="12">
         <v>23</v>
@@ -7980,13 +8038,13 @@
         <v>10</v>
       </c>
       <c r="AM76" s="2">
-        <f t="shared" ref="AM76" si="26">SUM(AF76:AL76)</f>
-        <v>125</v>
+        <f>SUM(AF76:AL76)</f>
+        <v>117.5</v>
       </c>
     </row>
     <row r="77" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B77" s="14"/>
       <c r="C77" s="8" t="s">
@@ -8014,7 +8072,7 @@
         <v>11</v>
       </c>
       <c r="K77" s="7">
-        <f t="shared" ref="K77:K82" si="27">(7010+195+125)*1.032</f>
+        <f t="shared" si="28"/>
         <v>7564.56</v>
       </c>
       <c r="L77" s="1">
@@ -8043,7 +8101,7 @@
         <v>94.5</v>
       </c>
       <c r="U77" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="V77" s="4"/>
       <c r="W77" s="8" t="s">
@@ -8071,7 +8129,7 @@
         <v>11</v>
       </c>
       <c r="AE77" s="7">
-        <f t="shared" ref="AE77:AE82" si="28">(18370+195+125)*1.032</f>
+        <f t="shared" si="29"/>
         <v>19288.080000000002</v>
       </c>
       <c r="AF77" s="1">
@@ -8102,11 +8160,11 @@
     </row>
     <row r="78" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B78" s="14"/>
       <c r="C78" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D78" s="11">
         <v>0</v>
@@ -8115,10 +8173,10 @@
         <v>12</v>
       </c>
       <c r="F78" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G78" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H78" s="11">
         <v>9</v>
@@ -8130,7 +8188,7 @@
         <v>11</v>
       </c>
       <c r="K78" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>7564.56</v>
       </c>
       <c r="L78" s="1">
@@ -8140,10 +8198,10 @@
         <v>56</v>
       </c>
       <c r="N78" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O78" s="12">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="P78" s="12">
         <v>23</v>
@@ -8155,15 +8213,15 @@
         <v>10</v>
       </c>
       <c r="S78" s="2">
-        <f>SUM(L78:R78)</f>
-        <v>94.5</v>
+        <f t="shared" ref="S78:S84" si="30">SUM(L78:R78)</f>
+        <v>98</v>
       </c>
       <c r="U78" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="V78" s="4"/>
       <c r="W78" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X78" s="11">
         <v>0</v>
@@ -8172,10 +8230,10 @@
         <v>14</v>
       </c>
       <c r="Z78" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AA78" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB78" s="11">
         <v>9</v>
@@ -8187,7 +8245,7 @@
         <v>11</v>
       </c>
       <c r="AE78" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>19288.080000000002</v>
       </c>
       <c r="AF78" s="1">
@@ -8197,10 +8255,10 @@
         <v>79</v>
       </c>
       <c r="AH78" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AI78" s="12">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="AJ78" s="12">
         <v>23</v>
@@ -8212,13 +8270,19 @@
         <v>10</v>
       </c>
       <c r="AM78" s="2">
-        <f>SUM(AF78:AL78)</f>
-        <v>117.5</v>
+        <f t="shared" ref="AM78:AM84" si="31">SUM(AF78:AL78)</f>
+        <v>121</v>
+      </c>
+      <c r="AO78" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP78" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="79" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B79" s="14"/>
       <c r="C79" s="8" t="s">
@@ -8234,7 +8298,7 @@
         <v>5</v>
       </c>
       <c r="G79" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H79" s="11">
         <v>9</v>
@@ -8246,7 +8310,7 @@
         <v>11</v>
       </c>
       <c r="K79" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>7564.56</v>
       </c>
       <c r="L79" s="1">
@@ -8271,11 +8335,11 @@
         <v>10</v>
       </c>
       <c r="S79" s="2">
-        <f t="shared" ref="S79:S85" si="29">SUM(L79:R79)</f>
+        <f t="shared" si="30"/>
         <v>98</v>
       </c>
       <c r="U79" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V79" s="4"/>
       <c r="W79" s="8" t="s">
@@ -8291,7 +8355,7 @@
         <v>5</v>
       </c>
       <c r="AA79" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB79" s="11">
         <v>9</v>
@@ -8303,7 +8367,7 @@
         <v>11</v>
       </c>
       <c r="AE79" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>19288.080000000002</v>
       </c>
       <c r="AF79" s="1">
@@ -8328,23 +8392,27 @@
         <v>10</v>
       </c>
       <c r="AM79" s="2">
-        <f t="shared" ref="AM79:AM85" si="30">SUM(AF79:AL79)</f>
+        <f t="shared" si="31"/>
         <v>121</v>
       </c>
-      <c r="AO79" t="s">
-        <v>42</v>
-      </c>
-      <c r="AP79" t="s">
-        <v>43</v>
+      <c r="AN79" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO79">
+        <v>23</v>
+      </c>
+      <c r="AP79" s="17">
+        <f>AO79/16</f>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="80" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B80" s="14"/>
       <c r="C80" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D80" s="11">
         <v>0</v>
@@ -8368,7 +8436,7 @@
         <v>11</v>
       </c>
       <c r="K80" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>7564.56</v>
       </c>
       <c r="L80" s="1">
@@ -8393,15 +8461,15 @@
         <v>10</v>
       </c>
       <c r="S80" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>98</v>
       </c>
       <c r="U80" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V80" s="4"/>
       <c r="W80" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X80" s="11">
         <v>0</v>
@@ -8425,7 +8493,7 @@
         <v>11</v>
       </c>
       <c r="AE80" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>19288.080000000002</v>
       </c>
       <c r="AF80" s="1">
@@ -8450,27 +8518,17 @@
         <v>10</v>
       </c>
       <c r="AM80" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>121</v>
-      </c>
-      <c r="AN80" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO80">
-        <v>23</v>
-      </c>
-      <c r="AP80" s="17">
-        <f>AO80/16</f>
-        <v>1.4375</v>
       </c>
     </row>
     <row r="81" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B81" s="14"/>
       <c r="C81" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D81" s="11">
         <v>0</v>
@@ -8494,7 +8552,7 @@
         <v>11</v>
       </c>
       <c r="K81" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>7564.56</v>
       </c>
       <c r="L81" s="1">
@@ -8519,15 +8577,15 @@
         <v>10</v>
       </c>
       <c r="S81" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>98</v>
       </c>
       <c r="U81" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V81" s="4"/>
       <c r="W81" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X81" s="11">
         <v>0</v>
@@ -8551,7 +8609,7 @@
         <v>11</v>
       </c>
       <c r="AE81" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>19288.080000000002</v>
       </c>
       <c r="AF81" s="1">
@@ -8576,17 +8634,17 @@
         <v>10</v>
       </c>
       <c r="AM81" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>121</v>
       </c>
     </row>
     <row r="82" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B82" s="14"/>
       <c r="C82" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D82" s="11">
         <v>0</v>
@@ -8595,23 +8653,23 @@
         <v>12</v>
       </c>
       <c r="F82" s="11">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G82" s="6">
         <v>2</v>
       </c>
       <c r="H82" s="11">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I82" s="6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J82" s="11">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="K82" s="7">
-        <f t="shared" si="27"/>
-        <v>7564.56</v>
+        <f>(7010+4335+515+245)*1.035</f>
+        <v>12528.674999999999</v>
       </c>
       <c r="L82" s="1">
         <v>0</v>
@@ -8620,80 +8678,80 @@
         <v>56</v>
       </c>
       <c r="N82" s="1">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="O82" s="12">
         <v>0</v>
       </c>
       <c r="P82" s="12">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="Q82" s="12">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="R82" s="12">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="S82" s="2">
-        <f t="shared" si="29"/>
-        <v>98</v>
+        <f t="shared" si="30"/>
+        <v>176</v>
       </c>
       <c r="U82" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V82" s="4"/>
       <c r="W82" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X82" s="11">
         <v>0</v>
       </c>
       <c r="Y82" s="6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Z82" s="11">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AA82" s="6">
         <v>2</v>
       </c>
       <c r="AB82" s="11">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AC82" s="6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AD82" s="11">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AE82" s="7">
-        <f t="shared" si="28"/>
-        <v>19288.080000000002</v>
+        <f>(7010+4335+515+245)*1.035</f>
+        <v>12528.674999999999</v>
       </c>
       <c r="AF82" s="1">
         <v>0</v>
       </c>
       <c r="AG82" s="1">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="AH82" s="1">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="AI82" s="12">
         <v>0</v>
       </c>
       <c r="AJ82" s="12">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="AK82" s="12">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AL82" s="12">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AM82" s="2">
-        <f t="shared" si="30"/>
-        <v>121</v>
+        <f t="shared" si="31"/>
+        <v>176</v>
       </c>
     </row>
     <row r="83" spans="1:39" x14ac:dyDescent="0.25">
@@ -8702,7 +8760,7 @@
       </c>
       <c r="B83" s="14"/>
       <c r="C83" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D83" s="11">
         <v>0</v>
@@ -8751,7 +8809,7 @@
         <v>13</v>
       </c>
       <c r="S83" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>176</v>
       </c>
       <c r="U83" t="s">
@@ -8759,7 +8817,7 @@
       </c>
       <c r="V83" s="4"/>
       <c r="W83" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X83" s="11">
         <v>0</v>
@@ -8808,133 +8866,135 @@
         <v>13</v>
       </c>
       <c r="AM83" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>176</v>
       </c>
     </row>
     <row r="84" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B84" s="14"/>
       <c r="C84" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D84" s="11">
         <v>0</v>
       </c>
       <c r="E84" s="6">
+        <f>8+2/6</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="F84" s="11">
+        <v>2</v>
+      </c>
+      <c r="G84" s="6">
         <v>12</v>
       </c>
-      <c r="F84" s="11">
-        <v>12</v>
-      </c>
-      <c r="G84" s="6">
-        <v>2</v>
-      </c>
       <c r="H84" s="11">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I84" s="6">
         <v>7</v>
       </c>
       <c r="J84" s="11">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="K84" s="7">
-        <f>(7010+4335+515+245)*1.035</f>
-        <v>12528.674999999999</v>
+        <f>(145+245+4470+800)*1.032</f>
+        <v>5841.12</v>
       </c>
       <c r="L84" s="1">
         <v>0</v>
       </c>
       <c r="M84" s="1">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="N84" s="1">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="O84" s="12">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="P84" s="12">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="Q84" s="12">
         <v>16</v>
       </c>
       <c r="R84" s="12">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S84" s="2">
-        <f t="shared" si="29"/>
-        <v>176</v>
+        <f t="shared" si="30"/>
+        <v>108</v>
       </c>
       <c r="U84" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V84" s="4"/>
       <c r="W84" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="X84" s="11">
         <v>0</v>
       </c>
       <c r="Y84" s="6">
+        <f>11+3/10</f>
+        <v>11.3</v>
+      </c>
+      <c r="Z84" s="11">
+        <v>2</v>
+      </c>
+      <c r="AA84" s="6">
         <v>12</v>
       </c>
-      <c r="Z84" s="11">
-        <v>12</v>
-      </c>
-      <c r="AA84" s="6">
-        <v>2</v>
-      </c>
       <c r="AB84" s="11">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AC84" s="6">
         <v>7</v>
       </c>
       <c r="AD84" s="11">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AE84" s="7">
-        <f>(7010+4335+515+245)*1.035</f>
-        <v>12528.674999999999</v>
+        <f>(145+245+4470+2500)*1.032</f>
+        <v>7595.52</v>
       </c>
       <c r="AF84" s="1">
         <v>0</v>
       </c>
       <c r="AG84" s="1">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AH84" s="1">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AI84" s="12">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AJ84" s="12">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="AK84" s="12">
         <v>16</v>
       </c>
       <c r="AL84" s="12">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AM84" s="2">
-        <f t="shared" si="30"/>
-        <v>176</v>
+        <f t="shared" si="31"/>
+        <v>131</v>
       </c>
     </row>
     <row r="85" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B85" s="14"/>
       <c r="C85" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D85" s="11">
         <v>0</v>
@@ -8984,15 +9044,15 @@
         <v>10</v>
       </c>
       <c r="S85" s="2">
-        <f t="shared" si="29"/>
+        <f>SUM(L85:R85)</f>
         <v>108</v>
       </c>
       <c r="U85" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="V85" s="4"/>
       <c r="W85" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="X85" s="11">
         <v>0</v>
@@ -9042,13 +9102,13 @@
         <v>10</v>
       </c>
       <c r="AM85" s="2">
-        <f t="shared" si="30"/>
+        <f>SUM(AF85:AL85)</f>
         <v>131</v>
       </c>
     </row>
     <row r="86" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B86" s="14"/>
       <c r="C86" s="8" t="s">
@@ -9106,7 +9166,7 @@
         <v>108</v>
       </c>
       <c r="U86" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="V86" s="4"/>
       <c r="W86" s="8" t="s">
@@ -9166,7 +9226,7 @@
     </row>
     <row r="87" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B87" s="14"/>
       <c r="C87" s="8" t="s">
@@ -9176,55 +9236,54 @@
         <v>0</v>
       </c>
       <c r="E87" s="6">
-        <f>8+2/6</f>
-        <v>8.3333333333333339</v>
+        <v>2</v>
       </c>
       <c r="F87" s="11">
         <v>2</v>
       </c>
       <c r="G87" s="6">
+        <v>10</v>
+      </c>
+      <c r="H87" s="11">
+        <v>14</v>
+      </c>
+      <c r="I87" s="6">
         <v>12</v>
       </c>
-      <c r="H87" s="11">
-        <v>9</v>
-      </c>
-      <c r="I87" s="6">
-        <v>7</v>
-      </c>
       <c r="J87" s="11">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K87" s="7">
-        <f>(145+245+4470+800)*1.032</f>
-        <v>5841.12</v>
+        <f>(14290+3955+785)*1.043</f>
+        <v>19848.289999999997</v>
       </c>
       <c r="L87" s="1">
         <v>0</v>
       </c>
       <c r="M87" s="1">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="N87" s="1">
         <v>0</v>
       </c>
       <c r="O87" s="12">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="P87" s="12">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="Q87" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="R87" s="12">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="S87" s="2">
-        <f>SUM(L87:R87)</f>
-        <v>108</v>
+        <f t="shared" ref="S87:S89" si="32">SUM(L87:R87)</f>
+        <v>152</v>
       </c>
       <c r="U87" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V87" s="4"/>
       <c r="W87" s="8" t="s">
@@ -9234,61 +9293,60 @@
         <v>0</v>
       </c>
       <c r="Y87" s="6">
-        <f>11+3/10</f>
-        <v>11.3</v>
+        <v>2</v>
       </c>
       <c r="Z87" s="11">
         <v>2</v>
       </c>
       <c r="AA87" s="6">
+        <v>10</v>
+      </c>
+      <c r="AB87" s="11">
+        <v>14</v>
+      </c>
+      <c r="AC87" s="6">
         <v>12</v>
       </c>
-      <c r="AB87" s="11">
-        <v>9</v>
-      </c>
-      <c r="AC87" s="6">
-        <v>7</v>
-      </c>
       <c r="AD87" s="11">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE87" s="7">
-        <f>(145+245+4470+2500)*1.032</f>
-        <v>7595.52</v>
+        <f>(14290+3955+785)*1.043</f>
+        <v>19848.289999999997</v>
       </c>
       <c r="AF87" s="1">
         <v>0</v>
       </c>
       <c r="AG87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI87" s="12">
+        <v>23</v>
+      </c>
+      <c r="AJ87" s="12">
+        <v>62</v>
+      </c>
+      <c r="AK87" s="12">
         <v>49</v>
       </c>
-      <c r="AH87" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI87" s="12">
-        <v>33</v>
-      </c>
-      <c r="AJ87" s="12">
-        <v>23</v>
-      </c>
-      <c r="AK87" s="12">
-        <v>16</v>
-      </c>
       <c r="AL87" s="12">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AM87" s="2">
-        <f>SUM(AF87:AL87)</f>
-        <v>131</v>
+        <f t="shared" ref="AM87:AM89" si="33">SUM(AF87:AL87)</f>
+        <v>152</v>
       </c>
     </row>
     <row r="88" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B88" s="14"/>
       <c r="C88" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D88" s="11">
         <v>0</v>
@@ -9337,15 +9395,15 @@
         <v>18</v>
       </c>
       <c r="S88" s="2">
-        <f t="shared" ref="S88:S90" si="31">SUM(L88:R88)</f>
+        <f t="shared" si="32"/>
         <v>152</v>
       </c>
       <c r="U88" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V88" s="4"/>
       <c r="W88" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="X88" s="11">
         <v>0</v>
@@ -9394,17 +9452,17 @@
         <v>18</v>
       </c>
       <c r="AM88" s="2">
-        <f t="shared" ref="AM88:AM90" si="32">SUM(AF88:AL88)</f>
+        <f t="shared" si="33"/>
         <v>152</v>
       </c>
     </row>
     <row r="89" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B89" s="14"/>
       <c r="C89" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D89" s="11">
         <v>0</v>
@@ -9453,15 +9511,15 @@
         <v>18</v>
       </c>
       <c r="S89" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>152</v>
       </c>
       <c r="U89" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="V89" s="4"/>
       <c r="W89" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="X89" s="11">
         <v>0</v>
@@ -9510,123 +9568,7 @@
         <v>18</v>
       </c>
       <c r="AM89" s="2">
-        <f t="shared" si="32"/>
-        <v>152</v>
-      </c>
-    </row>
-    <row r="90" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>38</v>
-      </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D90" s="11">
-        <v>0</v>
-      </c>
-      <c r="E90" s="6">
-        <v>2</v>
-      </c>
-      <c r="F90" s="11">
-        <v>2</v>
-      </c>
-      <c r="G90" s="6">
-        <v>10</v>
-      </c>
-      <c r="H90" s="11">
-        <v>14</v>
-      </c>
-      <c r="I90" s="6">
-        <v>12</v>
-      </c>
-      <c r="J90" s="11">
-        <v>15</v>
-      </c>
-      <c r="K90" s="7">
-        <f>(14290+3955+785)*1.043</f>
-        <v>19848.289999999997</v>
-      </c>
-      <c r="L90" s="1">
-        <v>0</v>
-      </c>
-      <c r="M90" s="1">
-        <v>0</v>
-      </c>
-      <c r="N90" s="1">
-        <v>0</v>
-      </c>
-      <c r="O90" s="12">
-        <v>23</v>
-      </c>
-      <c r="P90" s="12">
-        <v>62</v>
-      </c>
-      <c r="Q90" s="12">
-        <v>49</v>
-      </c>
-      <c r="R90" s="12">
-        <v>18</v>
-      </c>
-      <c r="S90" s="2">
-        <f t="shared" si="31"/>
-        <v>152</v>
-      </c>
-      <c r="U90" t="s">
-        <v>38</v>
-      </c>
-      <c r="V90" s="4"/>
-      <c r="W90" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="X90" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y90" s="6">
-        <v>2</v>
-      </c>
-      <c r="Z90" s="11">
-        <v>2</v>
-      </c>
-      <c r="AA90" s="6">
-        <v>10</v>
-      </c>
-      <c r="AB90" s="11">
-        <v>14</v>
-      </c>
-      <c r="AC90" s="6">
-        <v>12</v>
-      </c>
-      <c r="AD90" s="11">
-        <v>15</v>
-      </c>
-      <c r="AE90" s="7">
-        <f>(14290+3955+785)*1.043</f>
-        <v>19848.289999999997</v>
-      </c>
-      <c r="AF90" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG90" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH90" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI90" s="12">
-        <v>23</v>
-      </c>
-      <c r="AJ90" s="12">
-        <v>62</v>
-      </c>
-      <c r="AK90" s="12">
-        <v>49</v>
-      </c>
-      <c r="AL90" s="12">
-        <v>18</v>
-      </c>
-      <c r="AM90" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>152</v>
       </c>
     </row>
@@ -9634,8 +9576,9 @@
   <mergeCells count="1">
     <mergeCell ref="V1:AD1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D21:J36">
-    <cfRule type="colorScale" priority="54">
+  <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="D20:J35">
+    <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9644,8 +9587,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:K36">
-    <cfRule type="dataBar" priority="53">
+  <conditionalFormatting sqref="K20:K35">
+    <cfRule type="dataBar" priority="60">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9658,8 +9601,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L21:R36">
-    <cfRule type="colorScale" priority="52">
+  <conditionalFormatting sqref="L20:R35">
+    <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9668,8 +9611,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X21:AD36">
-    <cfRule type="colorScale" priority="51">
+  <conditionalFormatting sqref="X20:AD35">
+    <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9678,8 +9621,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE21:AE36">
-    <cfRule type="dataBar" priority="50">
+  <conditionalFormatting sqref="AE20:AE35">
+    <cfRule type="dataBar" priority="57">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9692,8 +9635,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF21:AL36">
-    <cfRule type="colorScale" priority="49">
+  <conditionalFormatting sqref="AF20:AL35">
+    <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9702,8 +9645,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39:J54">
-    <cfRule type="colorScale" priority="48">
+  <conditionalFormatting sqref="D38:J53">
+    <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9712,8 +9655,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:K54">
-    <cfRule type="dataBar" priority="47">
+  <conditionalFormatting sqref="K38:K53">
+    <cfRule type="dataBar" priority="54">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9726,8 +9669,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L39:R54">
-    <cfRule type="colorScale" priority="46">
+  <conditionalFormatting sqref="L38:R53">
+    <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9736,8 +9679,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X39:AD54">
-    <cfRule type="colorScale" priority="45">
+  <conditionalFormatting sqref="X38:AD53">
+    <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9746,8 +9689,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE39:AE54">
-    <cfRule type="dataBar" priority="44">
+  <conditionalFormatting sqref="AE38:AE53">
+    <cfRule type="dataBar" priority="51">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9760,8 +9703,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF39:AL54">
-    <cfRule type="colorScale" priority="43">
+  <conditionalFormatting sqref="AF38:AL53">
+    <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9770,8 +9713,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57:J72">
-    <cfRule type="colorScale" priority="42">
+  <conditionalFormatting sqref="D56:J71">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9780,8 +9723,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K57:K72">
-    <cfRule type="dataBar" priority="41">
+  <conditionalFormatting sqref="K56:K71">
+    <cfRule type="dataBar" priority="48">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9794,8 +9737,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L57:R72">
-    <cfRule type="colorScale" priority="40">
+  <conditionalFormatting sqref="L56:R71">
+    <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9804,8 +9747,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X57:AD72">
-    <cfRule type="colorScale" priority="39">
+  <conditionalFormatting sqref="X56:AD71">
+    <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9814,8 +9757,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE57:AE72">
-    <cfRule type="dataBar" priority="38">
+  <conditionalFormatting sqref="AE56:AE71">
+    <cfRule type="dataBar" priority="45">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9828,8 +9771,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF57:AL72">
-    <cfRule type="colorScale" priority="36">
+  <conditionalFormatting sqref="AF56:AL71">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9838,8 +9781,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D75:J90">
-    <cfRule type="colorScale" priority="32">
+  <conditionalFormatting sqref="D74:J89">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9848,8 +9791,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K75:K90">
-    <cfRule type="dataBar" priority="31">
+  <conditionalFormatting sqref="K74:K89">
+    <cfRule type="dataBar" priority="38">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9862,8 +9805,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L75:R90">
-    <cfRule type="colorScale" priority="30">
+  <conditionalFormatting sqref="L74:R89">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9872,8 +9815,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X75:AD90">
-    <cfRule type="colorScale" priority="29">
+  <conditionalFormatting sqref="X74:AD89">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9882,8 +9825,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE75:AE90">
-    <cfRule type="dataBar" priority="28">
+  <conditionalFormatting sqref="AE74:AE89">
+    <cfRule type="dataBar" priority="35">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9896,8 +9839,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF75:AL90">
-    <cfRule type="colorScale" priority="27">
+  <conditionalFormatting sqref="AF74:AL89">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9906,8 +9849,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:J18">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="D3:J17">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9916,23 +9859,33 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:R18">
+  <conditionalFormatting sqref="K3:K17">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:R17">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
+        <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K18">
+  <conditionalFormatting sqref="S3:S17">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
+        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -9950,7 +9903,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K21:K36</xm:sqref>
+          <xm:sqref>K20:K35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B337EF6E-0DE2-49A9-AC31-9599F9FB1CBE}">
@@ -9961,7 +9914,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AE21:AE36</xm:sqref>
+          <xm:sqref>AE20:AE35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{98B09BCF-19E5-4400-9256-3B5C56F57798}">
@@ -9972,7 +9925,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K39:K54</xm:sqref>
+          <xm:sqref>K38:K53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2CB4204D-2DCE-4759-97CF-86AA04AA825E}">
@@ -9983,7 +9936,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AE39:AE54</xm:sqref>
+          <xm:sqref>AE38:AE53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{98718DA7-6773-4718-8539-3B9D7592ECA6}">
@@ -9994,7 +9947,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K57:K72</xm:sqref>
+          <xm:sqref>K56:K71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CF0E7334-A1D7-42DD-9B81-6D831185C458}">
@@ -10005,7 +9958,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AE57:AE72</xm:sqref>
+          <xm:sqref>AE56:AE71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{217F154D-C022-438A-849A-153806144272}">
@@ -10016,7 +9969,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K75:K90</xm:sqref>
+          <xm:sqref>K74:K89</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8D504A43-6166-4F52-9C66-280C906444F2}">
@@ -10027,7 +9980,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AE75:AE90</xm:sqref>
+          <xm:sqref>AE74:AE89</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -10040,7 +9993,7 @@
   <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
